--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
   <si>
     <t>ACTIVO</t>
   </si>
@@ -68,7 +71,199 @@
     <t>REMANENTE_RESERVAS</t>
   </si>
   <si>
-    <t>PRODUCCION_Feb_2020</t>
+    <t>CIRA - INFANTAS</t>
+  </si>
+  <si>
+    <t>VAS</t>
+  </si>
+  <si>
+    <t>CRAVO NORTE</t>
+  </si>
+  <si>
+    <t>TREN NARE</t>
+  </si>
+  <si>
+    <t>QUIFA</t>
+  </si>
+  <si>
+    <t>CPI PALAGUA</t>
+  </si>
+  <si>
+    <t>TECA-COCORNA</t>
+  </si>
+  <si>
+    <t>BALLENA - CHUCHUPA</t>
+  </si>
+  <si>
+    <t>LAS MONAS</t>
+  </si>
+  <si>
+    <t>CAJUA</t>
+  </si>
+  <si>
+    <t>CPI SURORIENTE</t>
+  </si>
+  <si>
+    <t>BOQUERON</t>
+  </si>
+  <si>
+    <t>CASANARE</t>
+  </si>
+  <si>
+    <t>AGUAS BLANCAS</t>
+  </si>
+  <si>
+    <t>COSECHA</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>JAGUAR</t>
+  </si>
+  <si>
+    <t>PETROLEA</t>
+  </si>
+  <si>
+    <t>GARCERO</t>
+  </si>
+  <si>
+    <t>RONDON</t>
+  </si>
+  <si>
+    <t>CHIPIRON</t>
+  </si>
+  <si>
+    <t>OPON</t>
+  </si>
+  <si>
+    <t>LA ROMPIDA</t>
+  </si>
+  <si>
+    <t>CARACARA</t>
+  </si>
+  <si>
+    <t>TISQUIRAMA ASO</t>
+  </si>
+  <si>
+    <t>COROCORA</t>
+  </si>
+  <si>
+    <t>ESTERO</t>
+  </si>
+  <si>
+    <t>ABANICO</t>
+  </si>
+  <si>
+    <t>OROCUE</t>
+  </si>
+  <si>
+    <t>SANTA LUCIA</t>
+  </si>
+  <si>
+    <t>CARBONERA</t>
+  </si>
+  <si>
+    <t>CAPACHOS SUR</t>
+  </si>
+  <si>
+    <t>RIOHACHA</t>
+  </si>
+  <si>
+    <t>CATALINA</t>
+  </si>
+  <si>
+    <t>GUAYUYACO</t>
+  </si>
+  <si>
+    <t>GUARIQUIES</t>
+  </si>
+  <si>
+    <t>PAVAS-CACHIRA</t>
+  </si>
+  <si>
+    <t>GUADUAS</t>
+  </si>
+  <si>
+    <t>GUEPAJE</t>
+  </si>
+  <si>
+    <t>MATAMBO</t>
+  </si>
+  <si>
+    <t>TORO SENTADO</t>
+  </si>
+  <si>
+    <t>VIGIA</t>
+  </si>
+  <si>
+    <t>TOCA</t>
+  </si>
+  <si>
+    <t>CAMPO RICO</t>
+  </si>
+  <si>
+    <t>BARRANCA LEBRIJA</t>
+  </si>
+  <si>
+    <t>GUACHIRIA</t>
+  </si>
+  <si>
+    <t>ALCARAVAN</t>
+  </si>
+  <si>
+    <t>MONTAÑUELO</t>
+  </si>
+  <si>
+    <t>CAMOA</t>
+  </si>
+  <si>
+    <t>CERRITO</t>
+  </si>
+  <si>
+    <t>HATO NUEVO</t>
+  </si>
+  <si>
+    <t>QUEBRADA ROJA</t>
+  </si>
+  <si>
+    <t>LOS POTROS</t>
+  </si>
+  <si>
+    <t>CHAPARRAL</t>
+  </si>
+  <si>
+    <t>TAMBAQUI</t>
+  </si>
+  <si>
+    <t>DOÑA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANCHO HERMOSO   </t>
+  </si>
+  <si>
+    <t>CICUCO - BOQUETE</t>
+  </si>
+  <si>
+    <t>DELE</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>CAÑADA NORTE</t>
+  </si>
+  <si>
+    <t>DOIMA</t>
+  </si>
+  <si>
+    <t>VENTILADOR</t>
+  </si>
+  <si>
+    <t>ANDALUCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRODUCCION_Feb_2020 </t>
   </si>
   <si>
     <t xml:space="preserve"> Fecha_terminacion </t>
@@ -77,196 +272,10 @@
     <t xml:space="preserve"> VPN </t>
   </si>
   <si>
-    <t>CIRA0-0INFANTAS</t>
-  </si>
-  <si>
-    <t>VAS</t>
+    <t xml:space="preserve"> N/A </t>
   </si>
   <si>
     <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t>CRAVO0NORTE</t>
-  </si>
-  <si>
-    <t>TREN0NARE</t>
-  </si>
-  <si>
-    <t>QUIFA</t>
-  </si>
-  <si>
-    <t>CPI0PALAGUA</t>
-  </si>
-  <si>
-    <t>TECA-COCORNA</t>
-  </si>
-  <si>
-    <t>BALLENA0-0CHUCHUPA</t>
-  </si>
-  <si>
-    <t>LAS0MONAS</t>
-  </si>
-  <si>
-    <t>CAJUA</t>
-  </si>
-  <si>
-    <t>CPI0SURORIENTE</t>
-  </si>
-  <si>
-    <t>BOQUERON</t>
-  </si>
-  <si>
-    <t>CASANARE</t>
-  </si>
-  <si>
-    <t>AGUAS0BLANCAS</t>
-  </si>
-  <si>
-    <t>COSECHA</t>
-  </si>
-  <si>
-    <t>COLORADO</t>
-  </si>
-  <si>
-    <t>JAGUAR</t>
-  </si>
-  <si>
-    <t>PETROLEA</t>
-  </si>
-  <si>
-    <t>GARCERO</t>
-  </si>
-  <si>
-    <t>RONDON</t>
-  </si>
-  <si>
-    <t>CHIPIRON</t>
-  </si>
-  <si>
-    <t>OPON</t>
-  </si>
-  <si>
-    <t>LA0ROMPIDA</t>
-  </si>
-  <si>
-    <t>CARACARA</t>
-  </si>
-  <si>
-    <t>TISQUIRAMA0ASO</t>
-  </si>
-  <si>
-    <t>COROCORA</t>
-  </si>
-  <si>
-    <t>ESTERO</t>
-  </si>
-  <si>
-    <t>ABANICO</t>
-  </si>
-  <si>
-    <t>OROCUE</t>
-  </si>
-  <si>
-    <t>SANTA0LUCIA</t>
-  </si>
-  <si>
-    <t>CARBONERA</t>
-  </si>
-  <si>
-    <t>CAPACHOS0SUR</t>
-  </si>
-  <si>
-    <t>RIOHACHA</t>
-  </si>
-  <si>
-    <t>CATALINA</t>
-  </si>
-  <si>
-    <t>GUAYUYACO</t>
-  </si>
-  <si>
-    <t>GUARIQUIES</t>
-  </si>
-  <si>
-    <t>PAVAS-CACHIRA</t>
-  </si>
-  <si>
-    <t>GUADUAS</t>
-  </si>
-  <si>
-    <t>GUEPAJE</t>
-  </si>
-  <si>
-    <t>MATAMBO</t>
-  </si>
-  <si>
-    <t>TORO0SENTADO</t>
-  </si>
-  <si>
-    <t>VIGIA</t>
-  </si>
-  <si>
-    <t>TOCA</t>
-  </si>
-  <si>
-    <t>CAMPO0RICO</t>
-  </si>
-  <si>
-    <t>BARRANCA0LEBRIJA</t>
-  </si>
-  <si>
-    <t>GUACHIRIA</t>
-  </si>
-  <si>
-    <t>ALCARAVAN</t>
-  </si>
-  <si>
-    <t>MONTAÑUELO</t>
-  </si>
-  <si>
-    <t>CAMOA</t>
-  </si>
-  <si>
-    <t>CERRITO</t>
-  </si>
-  <si>
-    <t>HATO0NUEVO</t>
-  </si>
-  <si>
-    <t>QUEBRADA0ROJA</t>
-  </si>
-  <si>
-    <t>LOS0POTROS</t>
-  </si>
-  <si>
-    <t>CHAPARRAL</t>
-  </si>
-  <si>
-    <t>TAMBAQUI</t>
-  </si>
-  <si>
-    <t>DOÑA0MARIA</t>
-  </si>
-  <si>
-    <t>RANCHO0HERMOSO000</t>
-  </si>
-  <si>
-    <t>CICUCO0-0BOQUETE</t>
-  </si>
-  <si>
-    <t>DELE</t>
-  </si>
-  <si>
-    <t>CAÑADA0NORTE</t>
-  </si>
-  <si>
-    <t>DOIMA</t>
-  </si>
-  <si>
-    <t>VENTILADOR</t>
-  </si>
-  <si>
-    <t>ANDALUCIA</t>
   </si>
 </sst>
 </file>
@@ -302,14 +311,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -320,6 +339,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="GERENCIAS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,33 +667,33 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>5328</v>
       </c>
       <c r="D2">
-        <v>878</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>878.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.16</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4.58</v>
       </c>
       <c r="G2">
         <v>210</v>
@@ -672,8 +704,8 @@
       <c r="I2">
         <v>8</v>
       </c>
-      <c r="J2">
-        <v>0</v>
+      <c r="J2" s="1">
+        <v>0.04</v>
       </c>
       <c r="K2">
         <v>173</v>
@@ -687,34 +719,34 @@
       <c r="N2">
         <v>3929</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>42197</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1036.5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>1933</v>
+        <v>1932.7</v>
       </c>
       <c r="D3">
-        <v>1323</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>1323.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.68</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G3">
         <v>41</v>
@@ -725,8 +757,8 @@
       <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="J3" s="1">
+        <v>0.03</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -740,34 +772,34 @@
       <c r="N3">
         <v>556</v>
       </c>
-      <c r="O3">
-        <v>470</v>
+      <c r="O3" s="2">
+        <v>25475</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>1834</v>
+        <v>1834.2</v>
       </c>
       <c r="D4">
-        <v>161</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>160.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.09</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>16.22</v>
       </c>
       <c r="G4">
         <v>131</v>
@@ -778,8 +810,8 @@
       <c r="I4">
         <v>19</v>
       </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="J4" s="1">
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>91</v>
@@ -793,34 +825,34 @@
       <c r="N4">
         <v>1217</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>20105</v>
       </c>
-      <c r="P4" t="s">
-        <v>19</v>
+      <c r="P4" s="3">
+        <v>44504</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1578</v>
       </c>
       <c r="D5">
-        <v>160</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>159.69999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -831,8 +863,8 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="J5" s="1">
+        <v>0.04</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -846,31 +878,31 @@
       <c r="N5">
         <v>1333</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>44510</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1443</v>
       </c>
       <c r="D6">
-        <v>136</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>135.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.09</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -884,8 +916,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" s="1">
+        <v>0.03</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -899,31 +931,31 @@
       <c r="N6">
         <v>1173</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>7944</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1333</v>
       </c>
       <c r="D7">
-        <v>105</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>104.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.08</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -937,8 +969,8 @@
       <c r="I7">
         <v>24</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="J7" s="1">
+        <v>0.18</v>
       </c>
       <c r="K7">
         <v>102</v>
@@ -952,31 +984,31 @@
       <c r="N7">
         <v>885</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>1848</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>462.41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>1160</v>
+        <v>1160.2</v>
       </c>
       <c r="D8">
-        <v>949</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>949.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.82</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -990,8 +1022,8 @@
       <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="J8" s="1">
+        <v>0.09</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1005,31 +1037,31 @@
       <c r="N8">
         <v>110</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>24053</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>661</v>
+        <v>661.4</v>
       </c>
       <c r="D9">
         <v>268</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" s="1">
+        <v>0.41</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1043,8 +1075,8 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="J9" s="1">
+        <v>0.03</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1058,31 +1090,31 @@
       <c r="N9">
         <v>371</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>3601</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>621</v>
       </c>
       <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>8.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.01</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1096,8 +1128,8 @@
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="J10" s="1">
+        <v>0.02</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1111,34 +1143,31 @@
       <c r="N10">
         <v>596</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>2216</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>495</v>
+        <v>495.4</v>
       </c>
       <c r="D11">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>31.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.06</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -1149,8 +1178,8 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="J11" s="1">
+        <v>0.05</v>
       </c>
       <c r="K11">
         <v>50</v>
@@ -1164,31 +1193,28 @@
       <c r="N11">
         <v>386</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>5632</v>
       </c>
-      <c r="P11" t="s">
-        <v>19</v>
+      <c r="P11" s="3">
+        <v>45466</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>141.57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>459</v>
+        <v>458.6</v>
       </c>
       <c r="D12">
-        <v>114</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>113.9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1202,8 +1228,8 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="J12" s="1">
+        <v>0.04</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1217,31 +1243,31 @@
       <c r="N12">
         <v>303</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>7686</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="3">
         <v>45199</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>128.74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>324</v>
+        <v>323.5</v>
       </c>
       <c r="D13">
-        <v>126</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>125.8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.25</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1255,8 +1281,8 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="J13" s="1">
+        <v>0.02</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1270,34 +1296,34 @@
       <c r="N13">
         <v>192</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>2580</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>199</v>
+        <v>198.8</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.01</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1308,8 +1334,8 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="J14" s="1">
+        <v>0.03</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -1327,30 +1353,30 @@
         <v>208</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>25.77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>137</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="D15">
-        <v>38</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>38.1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.28000000000000003</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -1361,8 +1387,8 @@
       <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15">
-        <v>0</v>
+      <c r="J15" s="1">
+        <v>0.12</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1376,31 +1402,28 @@
       <c r="N15">
         <v>82</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>2501</v>
       </c>
-      <c r="P15" t="s">
-        <v>19</v>
+      <c r="P15" s="3">
+        <v>47847</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>43.35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>112</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>111.9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.08</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1412,9 +1435,6 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
@@ -1429,11 +1449,11 @@
       <c r="N16">
         <v>100</v>
       </c>
-      <c r="O16">
-        <v>0</v>
+      <c r="O16" t="s">
+        <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1441,19 +1461,19 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>109</v>
+        <v>109.2</v>
       </c>
       <c r="D17">
-        <v>42</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>42.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.39</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1467,8 +1487,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="J17" s="1">
+        <v>0.08</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1482,31 +1502,25 @@
       <c r="N17">
         <v>59</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>109</v>
       </c>
       <c r="D18">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.35</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1520,7 +1534,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18">
@@ -1535,31 +1549,25 @@
       <c r="N18">
         <v>71</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>108</v>
+        <v>107.8</v>
       </c>
       <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>50.1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.46</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1573,8 +1581,8 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
+      <c r="J19" s="1">
+        <v>0.05</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1588,34 +1596,34 @@
       <c r="N19">
         <v>53</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>1915</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="D20">
-        <v>49</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>48.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.51</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1626,8 +1634,8 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="J20" s="1">
+        <v>0.06</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1641,34 +1649,34 @@
       <c r="N20">
         <v>40</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>5780</v>
       </c>
-      <c r="P20" t="s">
-        <v>19</v>
+      <c r="P20" s="3">
+        <v>44934</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>90</v>
+        <v>89.7</v>
       </c>
       <c r="D21">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>30.9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.34</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -1679,8 +1687,8 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>0</v>
+      <c r="J21" s="1">
+        <v>0.1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1694,31 +1702,31 @@
       <c r="N21">
         <v>50</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <v>6415</v>
       </c>
-      <c r="P21" t="s">
-        <v>19</v>
+      <c r="P21" s="3">
+        <v>46796</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>42.17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>77</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D22">
         <v>11</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" s="1">
+        <v>0.14000000000000001</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1732,8 +1740,8 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
+      <c r="J22" s="1">
+        <v>0.01</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1751,7 +1759,7 @@
         <v>122</v>
       </c>
       <c r="P22" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1759,18 +1767,18 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>69</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23">
@@ -1785,7 +1793,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23">
@@ -1800,34 +1808,28 @@
       <c r="N23">
         <v>69</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>65</v>
       </c>
       <c r="D24">
-        <v>41</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>40.6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.62</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="G24">
         <v>7</v>
@@ -1838,8 +1840,8 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
+      <c r="J24" s="1">
+        <v>0.12</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1853,31 +1855,31 @@
       <c r="N24">
         <v>15</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="2">
         <v>9782</v>
       </c>
-      <c r="P24" t="s">
-        <v>19</v>
+      <c r="P24" s="3">
+        <v>47216</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>61</v>
+        <v>60.5</v>
       </c>
       <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.13</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1891,8 +1893,8 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
+      <c r="J25" s="1">
+        <v>0.04</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1906,31 +1908,31 @@
       <c r="N25">
         <v>48</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <v>2560</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>53</v>
       </c>
       <c r="D26">
-        <v>23</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+        <v>22.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.43</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1944,8 +1946,8 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>0</v>
+      <c r="J26" s="1">
+        <v>0.08</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1959,31 +1961,28 @@
       <c r="N26">
         <v>26</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="2">
         <v>2668</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>41</v>
       </c>
       <c r="D27">
-        <v>16</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+        <v>15.9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.39</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1997,8 +1996,8 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>0</v>
+      <c r="J27" s="1">
+        <v>0.03</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2016,7 +2015,7 @@
         <v>631</v>
       </c>
       <c r="P27" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2024,19 +2023,19 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+        <v>10.6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.28000000000000003</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2050,8 +2049,8 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>0</v>
+      <c r="J28" s="1">
+        <v>0.03</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2068,28 +2067,28 @@
       <c r="O28">
         <v>496</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="3">
         <v>45575</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D29">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+        <v>22.2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.66</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2103,8 +2102,8 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>0</v>
+      <c r="J29" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2122,27 +2121,27 @@
         <v>814</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+        <v>4.3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.13</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2156,8 +2155,8 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>0</v>
+      <c r="J30" s="1">
+        <v>0.02</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2175,27 +2174,24 @@
         <v>224</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.02</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2209,7 +2205,7 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>0</v>
       </c>
       <c r="K31">
@@ -2224,31 +2220,25 @@
       <c r="N31">
         <v>31</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
       <c r="P31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32">
-        <v>0</v>
+      <c r="E32" s="1">
+        <v>0.11</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2262,8 +2252,8 @@
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="J32">
-        <v>0</v>
+      <c r="J32" s="1">
+        <v>0.37</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2277,31 +2267,31 @@
       <c r="N32">
         <v>14</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="2">
         <v>1820</v>
       </c>
       <c r="P32" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>73.819999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D33">
-        <v>19</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.66</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2315,7 +2305,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>0</v>
       </c>
       <c r="K33">
@@ -2330,31 +2320,25 @@
       <c r="N33">
         <v>10</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
       <c r="P33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.02</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2368,7 +2352,7 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>0</v>
       </c>
       <c r="K34">
@@ -2383,31 +2367,25 @@
       <c r="N34">
         <v>26</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
       <c r="P34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.27</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2421,8 +2399,8 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>0</v>
+      <c r="J35" s="1">
+        <v>0.08</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2440,26 +2418,26 @@
         <v>848</v>
       </c>
       <c r="P35" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36">
@@ -2474,7 +2452,7 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>0</v>
       </c>
       <c r="K36">
@@ -2489,31 +2467,25 @@
       <c r="N36">
         <v>25</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
       <c r="P36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>25</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.01</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2527,8 +2499,8 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>0</v>
+      <c r="J37" s="1">
+        <v>0.02</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2542,31 +2514,31 @@
       <c r="N37">
         <v>24</v>
       </c>
-      <c r="O37">
-        <v>0</v>
+      <c r="O37" t="s">
+        <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="D38">
-        <v>17</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.71</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2580,8 +2552,8 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="J38" s="1">
+        <v>0.03</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2599,27 +2571,27 @@
         <v>238</v>
       </c>
       <c r="P38" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>21</v>
       </c>
       <c r="D39">
-        <v>16</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+        <v>16.5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.78</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2633,7 +2605,7 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <v>0</v>
       </c>
       <c r="K39">
@@ -2648,31 +2620,25 @@
       <c r="N39">
         <v>5</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
       <c r="P39" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>5.7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2686,7 +2652,7 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>0</v>
       </c>
       <c r="K40">
@@ -2701,31 +2667,31 @@
       <c r="N40">
         <v>12</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="2">
         <v>1315</v>
       </c>
-      <c r="P40" t="s">
-        <v>19</v>
+      <c r="P40" s="3">
+        <v>45625</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>19</v>
       </c>
       <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
+        <v>7.2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.38</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2739,8 +2705,8 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="J41" s="1">
+        <v>0.13</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2758,27 +2724,24 @@
         <v>637</v>
       </c>
       <c r="P41" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D42">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.38</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2792,8 +2755,8 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
+      <c r="J42" s="1">
+        <v>0.21</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2807,31 +2770,28 @@
       <c r="N42">
         <v>7</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="2">
         <v>2298</v>
       </c>
       <c r="P42" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.01</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2845,8 +2805,8 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>0</v>
+      <c r="J43" s="1">
+        <v>0.01</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2860,11 +2820,11 @@
       <c r="N43">
         <v>15</v>
       </c>
-      <c r="O43">
-        <v>0</v>
+      <c r="O43" t="s">
+        <v>82</v>
       </c>
       <c r="P43" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -2872,22 +2832,22 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
+        <v>6.3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.42</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2898,8 +2858,8 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44">
-        <v>0</v>
+      <c r="J44" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2916,28 +2876,28 @@
       <c r="O44">
         <v>461</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="3">
         <v>46531</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>11</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.06</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2951,7 +2911,7 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>0</v>
       </c>
       <c r="K45">
@@ -2966,31 +2926,25 @@
       <c r="N45">
         <v>10</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
       <c r="P45" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.24</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3004,8 +2958,8 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
+      <c r="J46" s="1">
+        <v>0.01</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3019,31 +2973,28 @@
       <c r="N46">
         <v>7</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
       <c r="P46" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>4.2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.6</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3057,7 +3008,7 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>0</v>
       </c>
       <c r="K47">
@@ -3072,31 +3023,25 @@
       <c r="N47">
         <v>3</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
       <c r="P47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48">
-        <v>1</v>
+      <c r="E48" s="1">
+        <v>0.71</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3110,7 +3055,7 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>0</v>
       </c>
       <c r="K48">
@@ -3125,31 +3070,25 @@
       <c r="N48">
         <v>2</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
       <c r="P48" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.09</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3163,7 +3102,7 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>0</v>
       </c>
       <c r="K49">
@@ -3178,31 +3117,25 @@
       <c r="N49">
         <v>5</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
       <c r="P49" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
+        <v>1.2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.23</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3216,7 +3149,7 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>0</v>
       </c>
       <c r="K50">
@@ -3234,28 +3167,25 @@
       <c r="O50">
         <v>50</v>
       </c>
-      <c r="P50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
+      <c r="P50" s="3">
+        <v>47346</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
+        <v>2.1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.46</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3269,7 +3199,7 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <v>0</v>
       </c>
       <c r="K51">
@@ -3284,30 +3214,24 @@
       <c r="N51">
         <v>2</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
       <c r="P51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3322,7 +3246,7 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>0</v>
       </c>
       <c r="K52">
@@ -3337,31 +3261,25 @@
       <c r="N52">
         <v>4</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.15</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3375,7 +3293,7 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <v>0</v>
       </c>
       <c r="K53">
@@ -3394,27 +3312,24 @@
         <v>66</v>
       </c>
       <c r="P53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.05</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3428,7 +3343,7 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="1">
         <v>0</v>
       </c>
       <c r="K54">
@@ -3443,31 +3358,25 @@
       <c r="N54">
         <v>2</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
       <c r="P54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.18</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3481,7 +3390,7 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1">
         <v>0</v>
       </c>
       <c r="K55">
@@ -3496,31 +3405,25 @@
       <c r="N55">
         <v>2</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
       <c r="P55" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.18</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3534,8 +3437,8 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56">
-        <v>0</v>
+      <c r="J56" s="1">
+        <v>0.09</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3549,22 +3452,22 @@
       <c r="N56">
         <v>1</v>
       </c>
-      <c r="O56">
-        <v>0</v>
+      <c r="O56" t="s">
+        <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3572,7 +3475,7 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57">
@@ -3587,9 +3490,6 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
       <c r="K57">
         <v>0</v>
       </c>
@@ -3602,22 +3502,19 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="O57">
-        <v>0</v>
+      <c r="O57" t="s">
+        <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3625,7 +3522,7 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>0</v>
       </c>
       <c r="F58">
@@ -3640,9 +3537,6 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
       <c r="K58">
         <v>0</v>
       </c>
@@ -3655,31 +3549,28 @@
       <c r="N58">
         <v>0</v>
       </c>
-      <c r="O58">
-        <v>0</v>
+      <c r="O58" t="s">
+        <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>968</v>
+        <v>967.6</v>
       </c>
       <c r="D59">
-        <v>108</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
+        <v>108.1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.11</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3693,7 +3584,7 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1">
         <v>0</v>
       </c>
       <c r="K59">
@@ -3705,25 +3596,22 @@
       <c r="M59">
         <v>0</v>
       </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
+      <c r="N59" t="s">
+        <v>73</v>
+      </c>
+      <c r="O59" t="s">
+        <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3731,7 +3619,7 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60">
@@ -3746,9 +3634,6 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
       <c r="K60">
         <v>0</v>
       </c>
@@ -3761,22 +3646,19 @@
       <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60">
-        <v>0</v>
+      <c r="O60" t="s">
+        <v>82</v>
       </c>
       <c r="P60" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3784,7 +3666,7 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61">
@@ -3799,9 +3681,6 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
       <c r="K61">
         <v>0</v>
       </c>
@@ -3814,22 +3693,19 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61">
-        <v>0</v>
+      <c r="O61" t="s">
+        <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3837,7 +3713,7 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>0</v>
       </c>
       <c r="F62">
@@ -3852,9 +3728,6 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
       <c r="K62">
         <v>0</v>
       </c>
@@ -3867,22 +3740,19 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62">
-        <v>0</v>
+      <c r="O62" t="s">
+        <v>82</v>
       </c>
       <c r="P62" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3890,7 +3760,7 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>0</v>
       </c>
       <c r="F63">
@@ -3905,9 +3775,6 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
       <c r="K63">
         <v>0</v>
       </c>
@@ -3920,14 +3787,11 @@
       <c r="N63">
         <v>0</v>
       </c>
-      <c r="O63">
-        <v>0</v>
+      <c r="O63" t="s">
+        <v>82</v>
       </c>
       <c r="P63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -17,6 +17,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$63</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>ACTIVO</t>
   </si>
@@ -248,9 +251,6 @@
     <t>DELE</t>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
     <t>CAÑADA NORTE</t>
   </si>
   <si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t xml:space="preserve"> VPN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N/A </t>
   </si>
   <si>
     <t xml:space="preserve"> - </t>
@@ -313,9 +310,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,6 +619,10 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.42578125" style="3"/>
+    <col min="10" max="10" width="11.42578125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -636,7 +637,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -651,7 +652,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -667,13 +668,13 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>79</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -689,7 +690,7 @@
       <c r="D2">
         <v>878.2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.16</v>
       </c>
       <c r="F2">
@@ -704,7 +705,7 @@
       <c r="I2">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.04</v>
       </c>
       <c r="K2">
@@ -719,11 +720,11 @@
       <c r="N2">
         <v>3929</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>42197</v>
       </c>
-      <c r="P2" t="s">
-        <v>81</v>
+      <c r="P2">
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>1036.5</v>
@@ -742,7 +743,7 @@
       <c r="D3">
         <v>1323.4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.68</v>
       </c>
       <c r="F3">
@@ -757,7 +758,7 @@
       <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.03</v>
       </c>
       <c r="K3">
@@ -772,11 +773,11 @@
       <c r="N3">
         <v>556</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>25475</v>
       </c>
-      <c r="P3" t="s">
-        <v>81</v>
+      <c r="P3">
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>193</v>
@@ -795,7 +796,7 @@
       <c r="D4">
         <v>160.9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.09</v>
       </c>
       <c r="F4">
@@ -810,7 +811,7 @@
       <c r="I4">
         <v>19</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.1</v>
       </c>
       <c r="K4">
@@ -825,10 +826,10 @@
       <c r="N4">
         <v>1217</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>20105</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>44504</v>
       </c>
       <c r="Q4">
@@ -848,7 +849,7 @@
       <c r="D5">
         <v>159.69999999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.1</v>
       </c>
       <c r="F5">
@@ -863,7 +864,7 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.04</v>
       </c>
       <c r="K5">
@@ -878,11 +879,11 @@
       <c r="N5">
         <v>1333</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>44510</v>
       </c>
-      <c r="P5" t="s">
-        <v>81</v>
+      <c r="P5">
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>311.5</v>
@@ -901,7 +902,7 @@
       <c r="D6">
         <v>135.9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.09</v>
       </c>
       <c r="F6">
@@ -916,7 +917,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.03</v>
       </c>
       <c r="K6">
@@ -931,11 +932,11 @@
       <c r="N6">
         <v>1173</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>7944</v>
       </c>
-      <c r="P6" t="s">
-        <v>81</v>
+      <c r="P6">
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>245</v>
@@ -954,7 +955,7 @@
       <c r="D7">
         <v>104.6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.08</v>
       </c>
       <c r="F7">
@@ -969,7 +970,7 @@
       <c r="I7">
         <v>24</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>0.18</v>
       </c>
       <c r="K7">
@@ -984,11 +985,11 @@
       <c r="N7">
         <v>885</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>1848</v>
       </c>
-      <c r="P7" t="s">
-        <v>81</v>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>462.41</v>
@@ -1007,7 +1008,7 @@
       <c r="D8">
         <v>949.1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0.82</v>
       </c>
       <c r="F8">
@@ -1022,7 +1023,7 @@
       <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>0.09</v>
       </c>
       <c r="K8">
@@ -1037,11 +1038,11 @@
       <c r="N8">
         <v>110</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>24053</v>
       </c>
-      <c r="P8" t="s">
-        <v>81</v>
+      <c r="P8">
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>483</v>
@@ -1060,7 +1061,7 @@
       <c r="D9">
         <v>268</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>0.41</v>
       </c>
       <c r="F9">
@@ -1075,7 +1076,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>0.03</v>
       </c>
       <c r="K9">
@@ -1090,11 +1091,11 @@
       <c r="N9">
         <v>371</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>3601</v>
       </c>
-      <c r="P9" t="s">
-        <v>81</v>
+      <c r="P9">
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>24.13</v>
@@ -1113,7 +1114,7 @@
       <c r="D10">
         <v>8.4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>0.01</v>
       </c>
       <c r="F10">
@@ -1128,7 +1129,7 @@
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>0.02</v>
       </c>
       <c r="K10">
@@ -1143,11 +1144,14 @@
       <c r="N10">
         <v>596</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>2216</v>
       </c>
-      <c r="P10" t="s">
-        <v>81</v>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1163,7 +1167,7 @@
       <c r="D11">
         <v>31.1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>0.06</v>
       </c>
       <c r="F11">
@@ -1178,7 +1182,7 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>0.05</v>
       </c>
       <c r="K11">
@@ -1193,10 +1197,10 @@
       <c r="N11">
         <v>386</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <v>5632</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>45466</v>
       </c>
       <c r="Q11">
@@ -1216,6 +1220,9 @@
       <c r="D12">
         <v>113.9</v>
       </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -1228,7 +1235,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>0.04</v>
       </c>
       <c r="K12">
@@ -1243,10 +1250,10 @@
       <c r="N12">
         <v>303</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>7686</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>45199</v>
       </c>
       <c r="Q12">
@@ -1266,7 +1273,7 @@
       <c r="D13">
         <v>125.8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.25</v>
       </c>
       <c r="F13">
@@ -1281,7 +1288,7 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>0.02</v>
       </c>
       <c r="K13">
@@ -1296,11 +1303,11 @@
       <c r="N13">
         <v>192</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>2580</v>
       </c>
-      <c r="P13" t="s">
-        <v>81</v>
+      <c r="P13">
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>13.8</v>
@@ -1319,7 +1326,7 @@
       <c r="D14">
         <v>1.4</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.01</v>
       </c>
       <c r="F14">
@@ -1334,7 +1341,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>0.03</v>
       </c>
       <c r="K14">
@@ -1352,8 +1359,8 @@
       <c r="O14">
         <v>208</v>
       </c>
-      <c r="P14" t="s">
-        <v>81</v>
+      <c r="P14">
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>25.77</v>
@@ -1372,7 +1379,7 @@
       <c r="D15">
         <v>38.1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="F15">
@@ -1387,7 +1394,7 @@
       <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>0.12</v>
       </c>
       <c r="K15">
@@ -1402,10 +1409,10 @@
       <c r="N15">
         <v>82</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>2501</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>47847</v>
       </c>
       <c r="Q15">
@@ -1419,10 +1426,13 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
         <v>111.9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0.08</v>
       </c>
       <c r="F16">
@@ -1435,6 +1445,9 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16">
@@ -1450,10 +1463,10 @@
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1472,7 +1485,7 @@
       <c r="D17">
         <v>42.4</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.39</v>
       </c>
       <c r="F17">
@@ -1487,7 +1500,7 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>0.08</v>
       </c>
       <c r="K17">
@@ -1502,8 +1515,14 @@
       <c r="N17">
         <v>59</v>
       </c>
-      <c r="P17" t="s">
-        <v>81</v>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1519,7 +1538,7 @@
       <c r="D18">
         <v>38.200000000000003</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>0.35</v>
       </c>
       <c r="F18">
@@ -1534,7 +1553,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18">
@@ -1549,8 +1568,14 @@
       <c r="N18">
         <v>71</v>
       </c>
-      <c r="P18" t="s">
-        <v>81</v>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1566,7 +1591,7 @@
       <c r="D19">
         <v>50.1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>0.46</v>
       </c>
       <c r="F19">
@@ -1581,7 +1606,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <v>0.05</v>
       </c>
       <c r="K19">
@@ -1596,11 +1621,11 @@
       <c r="N19">
         <v>53</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="1">
         <v>1915</v>
       </c>
-      <c r="P19" t="s">
-        <v>81</v>
+      <c r="P19">
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>9.83</v>
@@ -1619,7 +1644,7 @@
       <c r="D20">
         <v>48.9</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>0.51</v>
       </c>
       <c r="F20">
@@ -1634,7 +1659,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <v>0.06</v>
       </c>
       <c r="K20">
@@ -1649,10 +1674,10 @@
       <c r="N20">
         <v>40</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="1">
         <v>5780</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>44934</v>
       </c>
       <c r="Q20">
@@ -1672,7 +1697,7 @@
       <c r="D21">
         <v>30.9</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>0.34</v>
       </c>
       <c r="F21">
@@ -1687,7 +1712,7 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <v>0.1</v>
       </c>
       <c r="K21">
@@ -1702,10 +1727,10 @@
       <c r="N21">
         <v>50</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="1">
         <v>6415</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <v>46796</v>
       </c>
       <c r="Q21">
@@ -1725,7 +1750,7 @@
       <c r="D22">
         <v>11</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="F22">
@@ -1740,7 +1765,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="3">
         <v>0.01</v>
       </c>
       <c r="K22">
@@ -1758,8 +1783,8 @@
       <c r="O22">
         <v>122</v>
       </c>
-      <c r="P22" t="s">
-        <v>81</v>
+      <c r="P22">
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1778,7 +1803,7 @@
       <c r="D23">
         <v>0.1</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23">
@@ -1793,7 +1818,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23">
@@ -1808,8 +1833,14 @@
       <c r="N23">
         <v>69</v>
       </c>
-      <c r="P23" t="s">
-        <v>81</v>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1825,7 +1856,7 @@
       <c r="D24">
         <v>40.6</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>0.62</v>
       </c>
       <c r="F24">
@@ -1840,7 +1871,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="3">
         <v>0.12</v>
       </c>
       <c r="K24">
@@ -1855,10 +1886,10 @@
       <c r="N24">
         <v>15</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="1">
         <v>9782</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>47216</v>
       </c>
       <c r="Q24">
@@ -1878,7 +1909,7 @@
       <c r="D25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>0.13</v>
       </c>
       <c r="F25">
@@ -1893,7 +1924,7 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>0.04</v>
       </c>
       <c r="K25">
@@ -1908,11 +1939,11 @@
       <c r="N25">
         <v>48</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <v>2560</v>
       </c>
-      <c r="P25" t="s">
-        <v>81</v>
+      <c r="P25">
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>8.84</v>
@@ -1931,7 +1962,7 @@
       <c r="D26">
         <v>22.5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>0.43</v>
       </c>
       <c r="F26">
@@ -1946,7 +1977,7 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>0.08</v>
       </c>
       <c r="K26">
@@ -1961,11 +1992,14 @@
       <c r="N26">
         <v>26</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <v>2668</v>
       </c>
-      <c r="P26" t="s">
-        <v>81</v>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1981,7 +2015,7 @@
       <c r="D27">
         <v>15.9</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>0.39</v>
       </c>
       <c r="F27">
@@ -1996,7 +2030,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="3">
         <v>0.03</v>
       </c>
       <c r="K27">
@@ -2014,8 +2048,8 @@
       <c r="O27">
         <v>631</v>
       </c>
-      <c r="P27" t="s">
-        <v>81</v>
+      <c r="P27">
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2034,7 +2068,7 @@
       <c r="D28">
         <v>10.6</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="F28">
@@ -2049,7 +2083,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="3">
         <v>0.03</v>
       </c>
       <c r="K28">
@@ -2067,7 +2101,7 @@
       <c r="O28">
         <v>496</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="2">
         <v>45575</v>
       </c>
       <c r="Q28">
@@ -2087,7 +2121,7 @@
       <c r="D29">
         <v>22.2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>0.66</v>
       </c>
       <c r="F29">
@@ -2102,7 +2136,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K29">
@@ -2120,8 +2154,8 @@
       <c r="O29">
         <v>814</v>
       </c>
-      <c r="P29" t="s">
-        <v>81</v>
+      <c r="P29">
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -2140,7 +2174,7 @@
       <c r="D30">
         <v>4.3</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>0.13</v>
       </c>
       <c r="F30">
@@ -2155,7 +2189,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="3">
         <v>0.02</v>
       </c>
       <c r="K30">
@@ -2173,8 +2207,11 @@
       <c r="O30">
         <v>224</v>
       </c>
-      <c r="P30" t="s">
-        <v>81</v>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2190,7 +2227,7 @@
       <c r="D31">
         <v>0.8</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>0.02</v>
       </c>
       <c r="F31">
@@ -2205,7 +2242,7 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31">
@@ -2220,8 +2257,14 @@
       <c r="N31">
         <v>31</v>
       </c>
-      <c r="P31" t="s">
-        <v>81</v>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2237,7 +2280,7 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>0.11</v>
       </c>
       <c r="F32">
@@ -2252,7 +2295,7 @@
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="3">
         <v>0.37</v>
       </c>
       <c r="K32">
@@ -2267,11 +2310,11 @@
       <c r="N32">
         <v>14</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>1820</v>
       </c>
-      <c r="P32" t="s">
-        <v>81</v>
+      <c r="P32">
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>73.819999999999993</v>
@@ -2290,7 +2333,7 @@
       <c r="D33">
         <v>18.600000000000001</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>0.66</v>
       </c>
       <c r="F33">
@@ -2305,7 +2348,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33">
@@ -2320,8 +2363,14 @@
       <c r="N33">
         <v>10</v>
       </c>
-      <c r="P33" t="s">
-        <v>81</v>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2337,7 +2386,7 @@
       <c r="D34">
         <v>0.5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>0.02</v>
       </c>
       <c r="F34">
@@ -2352,7 +2401,7 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="3">
         <v>0</v>
       </c>
       <c r="K34">
@@ -2367,8 +2416,14 @@
       <c r="N34">
         <v>26</v>
       </c>
-      <c r="P34" t="s">
-        <v>81</v>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2384,7 +2439,7 @@
       <c r="D35">
         <v>7.1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>0.27</v>
       </c>
       <c r="F35">
@@ -2399,7 +2454,7 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="3">
         <v>0.08</v>
       </c>
       <c r="K35">
@@ -2417,8 +2472,8 @@
       <c r="O35">
         <v>848</v>
       </c>
-      <c r="P35" t="s">
-        <v>81</v>
+      <c r="P35">
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>3.79</v>
@@ -2437,7 +2492,7 @@
       <c r="D36">
         <v>0.1</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36">
@@ -2452,7 +2507,7 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36">
@@ -2467,8 +2522,14 @@
       <c r="N36">
         <v>25</v>
       </c>
-      <c r="P36" t="s">
-        <v>81</v>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2484,7 +2545,7 @@
       <c r="D37">
         <v>0.3</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>0.01</v>
       </c>
       <c r="F37">
@@ -2499,7 +2560,7 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="3">
         <v>0.02</v>
       </c>
       <c r="K37">
@@ -2515,10 +2576,10 @@
         <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
-      </c>
-      <c r="P37" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>0.7</v>
@@ -2537,7 +2598,7 @@
       <c r="D38">
         <v>17.100000000000001</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>0.71</v>
       </c>
       <c r="F38">
@@ -2552,7 +2613,7 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="3">
         <v>0.03</v>
       </c>
       <c r="K38">
@@ -2570,8 +2631,8 @@
       <c r="O38">
         <v>238</v>
       </c>
-      <c r="P38" t="s">
-        <v>81</v>
+      <c r="P38">
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>-2.6</v>
@@ -2590,7 +2651,7 @@
       <c r="D39">
         <v>16.5</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>0.78</v>
       </c>
       <c r="F39">
@@ -2605,7 +2666,7 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="3">
         <v>0</v>
       </c>
       <c r="K39">
@@ -2620,8 +2681,14 @@
       <c r="N39">
         <v>5</v>
       </c>
-      <c r="P39" t="s">
-        <v>81</v>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2637,7 +2704,7 @@
       <c r="D40">
         <v>5.7</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="F40">
@@ -2652,7 +2719,7 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="3">
         <v>0</v>
       </c>
       <c r="K40">
@@ -2667,10 +2734,10 @@
       <c r="N40">
         <v>12</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <v>1315</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="2">
         <v>45625</v>
       </c>
       <c r="Q40">
@@ -2690,7 +2757,7 @@
       <c r="D41">
         <v>7.2</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>0.38</v>
       </c>
       <c r="F41">
@@ -2705,7 +2772,7 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="3">
         <v>0.13</v>
       </c>
       <c r="K41">
@@ -2723,8 +2790,11 @@
       <c r="O41">
         <v>637</v>
       </c>
-      <c r="P41" t="s">
-        <v>81</v>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2740,7 +2810,7 @@
       <c r="D42">
         <v>7.1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>0.38</v>
       </c>
       <c r="F42">
@@ -2755,7 +2825,7 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="3">
         <v>0.21</v>
       </c>
       <c r="K42">
@@ -2770,11 +2840,14 @@
       <c r="N42">
         <v>7</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <v>2298</v>
       </c>
-      <c r="P42" t="s">
-        <v>81</v>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2790,7 +2863,7 @@
       <c r="D43">
         <v>0.2</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>0.01</v>
       </c>
       <c r="F43">
@@ -2805,7 +2878,7 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="3">
         <v>0.01</v>
       </c>
       <c r="K43">
@@ -2821,10 +2894,10 @@
         <v>15</v>
       </c>
       <c r="O43" t="s">
-        <v>82</v>
-      </c>
-      <c r="P43" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -2843,7 +2916,7 @@
       <c r="D44">
         <v>6.3</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>0.42</v>
       </c>
       <c r="F44">
@@ -2858,7 +2931,7 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K44">
@@ -2876,7 +2949,7 @@
       <c r="O44">
         <v>461</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="2">
         <v>46531</v>
       </c>
       <c r="Q44">
@@ -2896,7 +2969,7 @@
       <c r="D45">
         <v>0.7</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>0.06</v>
       </c>
       <c r="F45">
@@ -2911,7 +2984,7 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45">
@@ -2926,8 +2999,14 @@
       <c r="N45">
         <v>10</v>
       </c>
-      <c r="P45" t="s">
-        <v>81</v>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2943,7 +3022,7 @@
       <c r="D46">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>0.24</v>
       </c>
       <c r="F46">
@@ -2958,7 +3037,7 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="3">
         <v>0.01</v>
       </c>
       <c r="K46">
@@ -2973,8 +3052,11 @@
       <c r="N46">
         <v>7</v>
       </c>
-      <c r="P46" t="s">
-        <v>81</v>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0.38</v>
@@ -2993,7 +3075,7 @@
       <c r="D47">
         <v>4.2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>0.6</v>
       </c>
       <c r="F47">
@@ -3008,7 +3090,7 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47">
@@ -3023,8 +3105,14 @@
       <c r="N47">
         <v>3</v>
       </c>
-      <c r="P47" t="s">
-        <v>81</v>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -3040,7 +3128,7 @@
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>0.71</v>
       </c>
       <c r="F48">
@@ -3055,7 +3143,7 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48">
@@ -3070,8 +3158,14 @@
       <c r="N48">
         <v>2</v>
       </c>
-      <c r="P48" t="s">
-        <v>81</v>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3087,7 +3181,7 @@
       <c r="D49">
         <v>0.5</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>0.09</v>
       </c>
       <c r="F49">
@@ -3102,7 +3196,7 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49">
@@ -3117,8 +3211,14 @@
       <c r="N49">
         <v>5</v>
       </c>
-      <c r="P49" t="s">
-        <v>81</v>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3134,7 +3234,7 @@
       <c r="D50">
         <v>1.2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="3">
         <v>0.23</v>
       </c>
       <c r="F50">
@@ -3149,7 +3249,7 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="3">
         <v>0</v>
       </c>
       <c r="K50">
@@ -3167,8 +3267,11 @@
       <c r="O50">
         <v>50</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="2">
         <v>47346</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3184,7 +3287,7 @@
       <c r="D51">
         <v>2.1</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
         <v>0.46</v>
       </c>
       <c r="F51">
@@ -3199,7 +3302,7 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="3">
         <v>0</v>
       </c>
       <c r="K51">
@@ -3214,8 +3317,14 @@
       <c r="N51">
         <v>2</v>
       </c>
-      <c r="P51" t="s">
-        <v>81</v>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3231,7 +3340,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3246,7 +3355,7 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52">
@@ -3261,8 +3370,14 @@
       <c r="N52">
         <v>4</v>
       </c>
-      <c r="P52" t="s">
-        <v>81</v>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3278,7 +3393,7 @@
       <c r="D53">
         <v>0.5</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
         <v>0.15</v>
       </c>
       <c r="F53">
@@ -3293,7 +3408,7 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="3">
         <v>0</v>
       </c>
       <c r="K53">
@@ -3311,8 +3426,11 @@
       <c r="O53">
         <v>66</v>
       </c>
-      <c r="P53" t="s">
-        <v>81</v>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3328,7 +3446,7 @@
       <c r="D54">
         <v>0.1</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="3">
         <v>0.05</v>
       </c>
       <c r="F54">
@@ -3343,7 +3461,7 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54">
@@ -3358,8 +3476,14 @@
       <c r="N54">
         <v>2</v>
       </c>
-      <c r="P54" t="s">
-        <v>81</v>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3375,7 +3499,7 @@
       <c r="D55">
         <v>0.4</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="3">
         <v>0.18</v>
       </c>
       <c r="F55">
@@ -3390,7 +3514,7 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="3">
         <v>0</v>
       </c>
       <c r="K55">
@@ -3405,8 +3529,14 @@
       <c r="N55">
         <v>2</v>
       </c>
-      <c r="P55" t="s">
-        <v>81</v>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3422,7 +3552,7 @@
       <c r="D56">
         <v>0.3</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="3">
         <v>0.18</v>
       </c>
       <c r="F56">
@@ -3437,7 +3567,7 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="3">
         <v>0.09</v>
       </c>
       <c r="K56">
@@ -3453,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>82</v>
-      </c>
-      <c r="P56" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>0.24</v>
@@ -3475,7 +3605,7 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57">
@@ -3490,6 +3620,9 @@
       <c r="I57">
         <v>0</v>
       </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
       <c r="K57">
         <v>0</v>
       </c>
@@ -3503,10 +3636,13 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
-      </c>
-      <c r="P57" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -3522,7 +3658,7 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58">
@@ -3537,6 +3673,9 @@
       <c r="I58">
         <v>0</v>
       </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
       <c r="K58">
         <v>0</v>
       </c>
@@ -3550,10 +3689,13 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
-      </c>
-      <c r="P58" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3569,7 +3711,7 @@
       <c r="D59">
         <v>108.1</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="3">
         <v>0.11</v>
       </c>
       <c r="F59">
@@ -3584,7 +3726,7 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59">
@@ -3596,19 +3738,22 @@
       <c r="M59">
         <v>0</v>
       </c>
-      <c r="N59" t="s">
-        <v>73</v>
+      <c r="N59">
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>82</v>
-      </c>
-      <c r="P59" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -3619,7 +3764,7 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60">
@@ -3634,6 +3779,9 @@
       <c r="I60">
         <v>0</v>
       </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
       <c r="K60">
         <v>0</v>
       </c>
@@ -3647,15 +3795,18 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>82</v>
-      </c>
-      <c r="P60" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -3666,7 +3817,7 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61">
@@ -3681,6 +3832,9 @@
       <c r="I61">
         <v>0</v>
       </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
       <c r="K61">
         <v>0</v>
       </c>
@@ -3694,15 +3848,18 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>82</v>
-      </c>
-      <c r="P61" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -3713,7 +3870,7 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62">
@@ -3728,6 +3885,9 @@
       <c r="I62">
         <v>0</v>
       </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
       <c r="K62">
         <v>0</v>
       </c>
@@ -3741,15 +3901,18 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>82</v>
-      </c>
-      <c r="P62" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -3760,7 +3923,7 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="3">
         <v>0</v>
       </c>
       <c r="F63">
@@ -3775,6 +3938,9 @@
       <c r="I63">
         <v>0</v>
       </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
       <c r="K63">
         <v>0</v>
       </c>
@@ -3788,13 +3954,17 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>82</v>
-      </c>
-      <c r="P63" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q63"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$63</definedName>
   </definedNames>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
   <si>
     <t>ACTIVO</t>
   </si>
@@ -74,12 +71,24 @@
     <t>REMANENTE_RESERVAS</t>
   </si>
   <si>
+    <t xml:space="preserve"> PRODUCCION_Feb_2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fecha_terminacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VPN </t>
+  </si>
+  <si>
     <t>CIRA - INFANTAS</t>
   </si>
   <si>
     <t>VAS</t>
   </si>
   <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
     <t>CRAVO NORTE</t>
   </si>
   <si>
@@ -261,18 +270,6 @@
   </si>
   <si>
     <t>ANDALUCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRODUCCION_Feb_2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fecha_terminacion </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VPN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
   </si>
 </sst>
 </file>
@@ -310,22 +307,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -336,19 +325,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="GERENCIAS"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,13 +592,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11.42578125" style="3"/>
-    <col min="10" max="10" width="11.42578125" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -637,7 +611,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -652,7 +626,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -668,21 +642,21 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>5328</v>
@@ -690,7 +664,7 @@
       <c r="D2">
         <v>878.2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>0.16</v>
       </c>
       <c r="F2">
@@ -705,7 +679,7 @@
       <c r="I2">
         <v>8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>0.04</v>
       </c>
       <c r="K2">
@@ -720,11 +694,11 @@
       <c r="N2">
         <v>3929</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>42197</v>
       </c>
-      <c r="P2">
-        <v>0</v>
+      <c r="P2" t="s">
+        <v>19</v>
       </c>
       <c r="Q2">
         <v>1036.5</v>
@@ -732,10 +706,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1932.7</v>
@@ -743,7 +717,7 @@
       <c r="D3">
         <v>1323.4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>0.68</v>
       </c>
       <c r="F3">
@@ -758,7 +732,7 @@
       <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>0.03</v>
       </c>
       <c r="K3">
@@ -773,11 +747,11 @@
       <c r="N3">
         <v>556</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>25475</v>
       </c>
-      <c r="P3">
-        <v>0</v>
+      <c r="P3" t="s">
+        <v>19</v>
       </c>
       <c r="Q3">
         <v>193</v>
@@ -785,10 +759,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1834.2</v>
@@ -796,7 +770,7 @@
       <c r="D4">
         <v>160.9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>0.09</v>
       </c>
       <c r="F4">
@@ -811,7 +785,7 @@
       <c r="I4">
         <v>19</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>0.1</v>
       </c>
       <c r="K4">
@@ -826,10 +800,10 @@
       <c r="N4">
         <v>1217</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>20105</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>44504</v>
       </c>
       <c r="Q4">
@@ -838,10 +812,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1578</v>
@@ -849,7 +823,7 @@
       <c r="D5">
         <v>159.69999999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>0.1</v>
       </c>
       <c r="F5">
@@ -864,7 +838,7 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>0.04</v>
       </c>
       <c r="K5">
@@ -879,11 +853,11 @@
       <c r="N5">
         <v>1333</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>44510</v>
       </c>
-      <c r="P5">
-        <v>0</v>
+      <c r="P5" t="s">
+        <v>19</v>
       </c>
       <c r="Q5">
         <v>311.5</v>
@@ -891,10 +865,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1443</v>
@@ -902,7 +876,7 @@
       <c r="D6">
         <v>135.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>0.09</v>
       </c>
       <c r="F6">
@@ -917,7 +891,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>0.03</v>
       </c>
       <c r="K6">
@@ -932,11 +906,11 @@
       <c r="N6">
         <v>1173</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>7944</v>
       </c>
-      <c r="P6">
-        <v>0</v>
+      <c r="P6" t="s">
+        <v>19</v>
       </c>
       <c r="Q6">
         <v>245</v>
@@ -944,10 +918,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1333</v>
@@ -955,7 +929,7 @@
       <c r="D7">
         <v>104.6</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0.08</v>
       </c>
       <c r="F7">
@@ -970,7 +944,7 @@
       <c r="I7">
         <v>24</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>0.18</v>
       </c>
       <c r="K7">
@@ -985,11 +959,11 @@
       <c r="N7">
         <v>885</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>1848</v>
       </c>
-      <c r="P7">
-        <v>0</v>
+      <c r="P7" t="s">
+        <v>19</v>
       </c>
       <c r="Q7">
         <v>462.41</v>
@@ -997,10 +971,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1160.2</v>
@@ -1008,7 +982,7 @@
       <c r="D8">
         <v>949.1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0.82</v>
       </c>
       <c r="F8">
@@ -1023,7 +997,7 @@
       <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>0.09</v>
       </c>
       <c r="K8">
@@ -1038,11 +1012,11 @@
       <c r="N8">
         <v>110</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>24053</v>
       </c>
-      <c r="P8">
-        <v>0</v>
+      <c r="P8" t="s">
+        <v>19</v>
       </c>
       <c r="Q8">
         <v>483</v>
@@ -1050,10 +1024,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>661.4</v>
@@ -1061,7 +1035,7 @@
       <c r="D9">
         <v>268</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>0.41</v>
       </c>
       <c r="F9">
@@ -1076,7 +1050,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>0.03</v>
       </c>
       <c r="K9">
@@ -1091,11 +1065,11 @@
       <c r="N9">
         <v>371</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>3601</v>
       </c>
-      <c r="P9">
-        <v>0</v>
+      <c r="P9" t="s">
+        <v>19</v>
       </c>
       <c r="Q9">
         <v>24.13</v>
@@ -1103,10 +1077,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>621</v>
@@ -1114,7 +1088,7 @@
       <c r="D10">
         <v>8.4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>0.01</v>
       </c>
       <c r="F10">
@@ -1129,7 +1103,7 @@
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>0.02</v>
       </c>
       <c r="K10">
@@ -1144,11 +1118,11 @@
       <c r="N10">
         <v>596</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>2216</v>
       </c>
-      <c r="P10">
-        <v>0</v>
+      <c r="P10" t="s">
+        <v>19</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1156,10 +1130,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>495.4</v>
@@ -1167,7 +1141,7 @@
       <c r="D11">
         <v>31.1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0.06</v>
       </c>
       <c r="F11">
@@ -1182,7 +1156,7 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>0.05</v>
       </c>
       <c r="K11">
@@ -1197,10 +1171,10 @@
       <c r="N11">
         <v>386</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <v>5632</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
         <v>45466</v>
       </c>
       <c r="Q11">
@@ -1209,10 +1183,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>458.6</v>
@@ -1220,7 +1194,7 @@
       <c r="D12">
         <v>113.9</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
@@ -1235,7 +1209,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <v>0.04</v>
       </c>
       <c r="K12">
@@ -1250,10 +1224,10 @@
       <c r="N12">
         <v>303</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>7686</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="3">
         <v>45199</v>
       </c>
       <c r="Q12">
@@ -1262,10 +1236,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>323.5</v>
@@ -1273,7 +1247,7 @@
       <c r="D13">
         <v>125.8</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>0.25</v>
       </c>
       <c r="F13">
@@ -1288,7 +1262,7 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>0.02</v>
       </c>
       <c r="K13">
@@ -1303,11 +1277,11 @@
       <c r="N13">
         <v>192</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <v>2580</v>
       </c>
-      <c r="P13">
-        <v>0</v>
+      <c r="P13" t="s">
+        <v>19</v>
       </c>
       <c r="Q13">
         <v>13.8</v>
@@ -1315,10 +1289,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>198.8</v>
@@ -1326,7 +1300,7 @@
       <c r="D14">
         <v>1.4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>0.01</v>
       </c>
       <c r="F14">
@@ -1341,7 +1315,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <v>0.03</v>
       </c>
       <c r="K14">
@@ -1359,8 +1333,8 @@
       <c r="O14">
         <v>208</v>
       </c>
-      <c r="P14">
-        <v>0</v>
+      <c r="P14" t="s">
+        <v>19</v>
       </c>
       <c r="Q14">
         <v>25.77</v>
@@ -1368,10 +1342,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>136.80000000000001</v>
@@ -1379,7 +1353,7 @@
       <c r="D15">
         <v>38.1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="F15">
@@ -1394,7 +1368,7 @@
       <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <v>0.12</v>
       </c>
       <c r="K15">
@@ -1409,10 +1383,10 @@
       <c r="N15">
         <v>82</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>2501</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="3">
         <v>47847</v>
       </c>
       <c r="Q15">
@@ -1421,10 +1395,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1432,7 +1406,7 @@
       <c r="D16">
         <v>111.9</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>0.08</v>
       </c>
       <c r="F16">
@@ -1447,7 +1421,7 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
@@ -1463,10 +1437,10 @@
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>19</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1474,10 +1448,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>109.2</v>
@@ -1485,7 +1459,7 @@
       <c r="D17">
         <v>42.4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>0.39</v>
       </c>
       <c r="F17">
@@ -1500,7 +1474,7 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="1">
         <v>0.08</v>
       </c>
       <c r="K17">
@@ -1518,8 +1492,8 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17">
-        <v>0</v>
+      <c r="P17" t="s">
+        <v>19</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1527,10 +1501,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>109</v>
@@ -1538,7 +1512,7 @@
       <c r="D18">
         <v>38.200000000000003</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>0.35</v>
       </c>
       <c r="F18">
@@ -1553,7 +1527,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18">
@@ -1571,8 +1545,8 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18">
-        <v>0</v>
+      <c r="P18" t="s">
+        <v>19</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1580,10 +1554,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>107.8</v>
@@ -1591,7 +1565,7 @@
       <c r="D19">
         <v>50.1</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>0.46</v>
       </c>
       <c r="F19">
@@ -1606,7 +1580,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <v>0.05</v>
       </c>
       <c r="K19">
@@ -1621,11 +1595,11 @@
       <c r="N19">
         <v>53</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="2">
         <v>1915</v>
       </c>
-      <c r="P19">
-        <v>0</v>
+      <c r="P19" t="s">
+        <v>19</v>
       </c>
       <c r="Q19">
         <v>9.83</v>
@@ -1633,10 +1607,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>95.2</v>
@@ -1644,7 +1618,7 @@
       <c r="D20">
         <v>48.9</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>0.51</v>
       </c>
       <c r="F20">
@@ -1659,7 +1633,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>0.06</v>
       </c>
       <c r="K20">
@@ -1674,10 +1648,10 @@
       <c r="N20">
         <v>40</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="2">
         <v>5780</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="3">
         <v>44934</v>
       </c>
       <c r="Q20">
@@ -1686,10 +1660,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>89.7</v>
@@ -1697,7 +1671,7 @@
       <c r="D21">
         <v>30.9</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>0.34</v>
       </c>
       <c r="F21">
@@ -1712,7 +1686,7 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="1">
         <v>0.1</v>
       </c>
       <c r="K21">
@@ -1727,10 +1701,10 @@
       <c r="N21">
         <v>50</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="2">
         <v>6415</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="3">
         <v>46796</v>
       </c>
       <c r="Q21">
@@ -1739,10 +1713,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>76.599999999999994</v>
@@ -1750,7 +1724,7 @@
       <c r="D22">
         <v>11</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="F22">
@@ -1765,7 +1739,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <v>0.01</v>
       </c>
       <c r="K22">
@@ -1783,8 +1757,8 @@
       <c r="O22">
         <v>122</v>
       </c>
-      <c r="P22">
-        <v>0</v>
+      <c r="P22" t="s">
+        <v>19</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1792,10 +1766,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>69</v>
@@ -1803,7 +1777,7 @@
       <c r="D23">
         <v>0.1</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23">
@@ -1818,7 +1792,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23">
@@ -1836,8 +1810,8 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23">
-        <v>0</v>
+      <c r="P23" t="s">
+        <v>19</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1845,10 +1819,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>65</v>
@@ -1856,7 +1830,7 @@
       <c r="D24">
         <v>40.6</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>0.62</v>
       </c>
       <c r="F24">
@@ -1871,7 +1845,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="1">
         <v>0.12</v>
       </c>
       <c r="K24">
@@ -1886,10 +1860,10 @@
       <c r="N24">
         <v>15</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="2">
         <v>9782</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="3">
         <v>47216</v>
       </c>
       <c r="Q24">
@@ -1898,10 +1872,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>60.5</v>
@@ -1909,7 +1883,7 @@
       <c r="D25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>0.13</v>
       </c>
       <c r="F25">
@@ -1924,7 +1898,7 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="1">
         <v>0.04</v>
       </c>
       <c r="K25">
@@ -1939,11 +1913,11 @@
       <c r="N25">
         <v>48</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="2">
         <v>2560</v>
       </c>
-      <c r="P25">
-        <v>0</v>
+      <c r="P25" t="s">
+        <v>19</v>
       </c>
       <c r="Q25">
         <v>8.84</v>
@@ -1951,10 +1925,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>53</v>
@@ -1962,7 +1936,7 @@
       <c r="D26">
         <v>22.5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>0.43</v>
       </c>
       <c r="F26">
@@ -1977,7 +1951,7 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
         <v>0.08</v>
       </c>
       <c r="K26">
@@ -1992,11 +1966,11 @@
       <c r="N26">
         <v>26</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="2">
         <v>2668</v>
       </c>
-      <c r="P26">
-        <v>0</v>
+      <c r="P26" t="s">
+        <v>19</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2004,10 +1978,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>41</v>
@@ -2015,7 +1989,7 @@
       <c r="D27">
         <v>15.9</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>0.39</v>
       </c>
       <c r="F27">
@@ -2030,7 +2004,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="1">
         <v>0.03</v>
       </c>
       <c r="K27">
@@ -2048,8 +2022,8 @@
       <c r="O27">
         <v>631</v>
       </c>
-      <c r="P27">
-        <v>0</v>
+      <c r="P27" t="s">
+        <v>19</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2057,10 +2031,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>38</v>
@@ -2068,7 +2042,7 @@
       <c r="D28">
         <v>10.6</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="F28">
@@ -2083,7 +2057,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="1">
         <v>0.03</v>
       </c>
       <c r="K28">
@@ -2101,7 +2075,7 @@
       <c r="O28">
         <v>496</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="3">
         <v>45575</v>
       </c>
       <c r="Q28">
@@ -2110,10 +2084,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>33.799999999999997</v>
@@ -2121,7 +2095,7 @@
       <c r="D29">
         <v>22.2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>0.66</v>
       </c>
       <c r="F29">
@@ -2136,7 +2110,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K29">
@@ -2154,8 +2128,8 @@
       <c r="O29">
         <v>814</v>
       </c>
-      <c r="P29">
-        <v>0</v>
+      <c r="P29" t="s">
+        <v>19</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -2163,10 +2137,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>32.9</v>
@@ -2174,7 +2148,7 @@
       <c r="D30">
         <v>4.3</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>0.13</v>
       </c>
       <c r="F30">
@@ -2189,7 +2163,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="1">
         <v>0.02</v>
       </c>
       <c r="K30">
@@ -2207,8 +2181,8 @@
       <c r="O30">
         <v>224</v>
       </c>
-      <c r="P30">
-        <v>0</v>
+      <c r="P30" t="s">
+        <v>19</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2216,10 +2190,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>31.7</v>
@@ -2227,7 +2201,7 @@
       <c r="D31">
         <v>0.8</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>0.02</v>
       </c>
       <c r="F31">
@@ -2242,7 +2216,7 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="1">
         <v>0</v>
       </c>
       <c r="K31">
@@ -2260,8 +2234,8 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31">
-        <v>0</v>
+      <c r="P31" t="s">
+        <v>19</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2269,10 +2243,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>28.1</v>
@@ -2280,7 +2254,7 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>0.11</v>
       </c>
       <c r="F32">
@@ -2295,7 +2269,7 @@
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="1">
         <v>0.37</v>
       </c>
       <c r="K32">
@@ -2310,11 +2284,11 @@
       <c r="N32">
         <v>14</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="2">
         <v>1820</v>
       </c>
-      <c r="P32">
-        <v>0</v>
+      <c r="P32" t="s">
+        <v>19</v>
       </c>
       <c r="Q32">
         <v>73.819999999999993</v>
@@ -2322,10 +2296,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>28.1</v>
@@ -2333,7 +2307,7 @@
       <c r="D33">
         <v>18.600000000000001</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>0.66</v>
       </c>
       <c r="F33">
@@ -2348,7 +2322,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="1">
         <v>0</v>
       </c>
       <c r="K33">
@@ -2366,8 +2340,8 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33">
-        <v>0</v>
+      <c r="P33" t="s">
+        <v>19</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2375,10 +2349,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>26.8</v>
@@ -2386,7 +2360,7 @@
       <c r="D34">
         <v>0.5</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>0.02</v>
       </c>
       <c r="F34">
@@ -2401,7 +2375,7 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="1">
         <v>0</v>
       </c>
       <c r="K34">
@@ -2419,8 +2393,8 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34">
-        <v>0</v>
+      <c r="P34" t="s">
+        <v>19</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2428,10 +2402,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>26.8</v>
@@ -2439,7 +2413,7 @@
       <c r="D35">
         <v>7.1</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>0.27</v>
       </c>
       <c r="F35">
@@ -2454,7 +2428,7 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="1">
         <v>0.08</v>
       </c>
       <c r="K35">
@@ -2472,8 +2446,8 @@
       <c r="O35">
         <v>848</v>
       </c>
-      <c r="P35">
-        <v>0</v>
+      <c r="P35" t="s">
+        <v>19</v>
       </c>
       <c r="Q35">
         <v>3.79</v>
@@ -2481,10 +2455,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>25.4</v>
@@ -2492,7 +2466,7 @@
       <c r="D36">
         <v>0.1</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36">
@@ -2507,7 +2481,7 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="1">
         <v>0</v>
       </c>
       <c r="K36">
@@ -2525,8 +2499,8 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36">
-        <v>0</v>
+      <c r="P36" t="s">
+        <v>19</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2534,10 +2508,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -2545,7 +2519,7 @@
       <c r="D37">
         <v>0.3</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>0.01</v>
       </c>
       <c r="F37">
@@ -2560,7 +2534,7 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="1">
         <v>0.02</v>
       </c>
       <c r="K37">
@@ -2576,10 +2550,10 @@
         <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P37" t="s">
+        <v>19</v>
       </c>
       <c r="Q37">
         <v>0.7</v>
@@ -2587,10 +2561,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>24.3</v>
@@ -2598,7 +2572,7 @@
       <c r="D38">
         <v>17.100000000000001</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>0.71</v>
       </c>
       <c r="F38">
@@ -2613,7 +2587,7 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="1">
         <v>0.03</v>
       </c>
       <c r="K38">
@@ -2631,8 +2605,8 @@
       <c r="O38">
         <v>238</v>
       </c>
-      <c r="P38">
-        <v>0</v>
+      <c r="P38" t="s">
+        <v>19</v>
       </c>
       <c r="Q38">
         <v>-2.6</v>
@@ -2640,10 +2614,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>21</v>
@@ -2651,7 +2625,7 @@
       <c r="D39">
         <v>16.5</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>0.78</v>
       </c>
       <c r="F39">
@@ -2666,7 +2640,7 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="1">
         <v>0</v>
       </c>
       <c r="K39">
@@ -2684,8 +2658,8 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39">
-        <v>0</v>
+      <c r="P39" t="s">
+        <v>19</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -2693,10 +2667,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>19.899999999999999</v>
@@ -2704,7 +2678,7 @@
       <c r="D40">
         <v>5.7</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="1">
         <v>0.28999999999999998</v>
       </c>
       <c r="F40">
@@ -2719,7 +2693,7 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="1">
         <v>0</v>
       </c>
       <c r="K40">
@@ -2734,10 +2708,10 @@
       <c r="N40">
         <v>12</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="2">
         <v>1315</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="3">
         <v>45625</v>
       </c>
       <c r="Q40">
@@ -2746,10 +2720,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>19</v>
@@ -2757,7 +2731,7 @@
       <c r="D41">
         <v>7.2</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>0.38</v>
       </c>
       <c r="F41">
@@ -2772,7 +2746,7 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="1">
         <v>0.13</v>
       </c>
       <c r="K41">
@@ -2790,8 +2764,8 @@
       <c r="O41">
         <v>637</v>
       </c>
-      <c r="P41">
-        <v>0</v>
+      <c r="P41" t="s">
+        <v>19</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -2799,10 +2773,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>18.600000000000001</v>
@@ -2810,7 +2784,7 @@
       <c r="D42">
         <v>7.1</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
         <v>0.38</v>
       </c>
       <c r="F42">
@@ -2825,7 +2799,7 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="1">
         <v>0.21</v>
       </c>
       <c r="K42">
@@ -2840,11 +2814,11 @@
       <c r="N42">
         <v>7</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="2">
         <v>2298</v>
       </c>
-      <c r="P42">
-        <v>0</v>
+      <c r="P42" t="s">
+        <v>19</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -2852,10 +2826,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C43">
         <v>15.8</v>
@@ -2863,7 +2837,7 @@
       <c r="D43">
         <v>0.2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>0.01</v>
       </c>
       <c r="F43">
@@ -2878,7 +2852,7 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="1">
         <v>0.01</v>
       </c>
       <c r="K43">
@@ -2894,10 +2868,10 @@
         <v>15</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P43" t="s">
+        <v>19</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -2905,10 +2879,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>15.1</v>
@@ -2916,7 +2890,7 @@
       <c r="D44">
         <v>6.3</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="1">
         <v>0.42</v>
       </c>
       <c r="F44">
@@ -2931,7 +2905,7 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K44">
@@ -2949,7 +2923,7 @@
       <c r="O44">
         <v>461</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="3">
         <v>46531</v>
       </c>
       <c r="Q44">
@@ -2958,10 +2932,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -2969,7 +2943,7 @@
       <c r="D45">
         <v>0.7</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>0.06</v>
       </c>
       <c r="F45">
@@ -2984,7 +2958,7 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="1">
         <v>0</v>
       </c>
       <c r="K45">
@@ -3002,8 +2976,8 @@
       <c r="O45">
         <v>0</v>
       </c>
-      <c r="P45">
-        <v>0</v>
+      <c r="P45" t="s">
+        <v>19</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3011,10 +2985,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>9.4</v>
@@ -3022,7 +2996,7 @@
       <c r="D46">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>0.24</v>
       </c>
       <c r="F46">
@@ -3037,7 +3011,7 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="1">
         <v>0.01</v>
       </c>
       <c r="K46">
@@ -3055,8 +3029,8 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46">
-        <v>0</v>
+      <c r="P46" t="s">
+        <v>19</v>
       </c>
       <c r="Q46">
         <v>0.38</v>
@@ -3064,10 +3038,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>7.1</v>
@@ -3075,7 +3049,7 @@
       <c r="D47">
         <v>4.2</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>0.6</v>
       </c>
       <c r="F47">
@@ -3090,7 +3064,7 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="1">
         <v>0</v>
       </c>
       <c r="K47">
@@ -3108,8 +3082,8 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47">
-        <v>0</v>
+      <c r="P47" t="s">
+        <v>19</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3117,10 +3091,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>5.7</v>
@@ -3128,7 +3102,7 @@
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="1">
         <v>0.71</v>
       </c>
       <c r="F48">
@@ -3143,7 +3117,7 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="1">
         <v>0</v>
       </c>
       <c r="K48">
@@ -3161,8 +3135,8 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48">
-        <v>0</v>
+      <c r="P48" t="s">
+        <v>19</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3170,10 +3144,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>5.2</v>
@@ -3181,7 +3155,7 @@
       <c r="D49">
         <v>0.5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>0.09</v>
       </c>
       <c r="F49">
@@ -3196,7 +3170,7 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="1">
         <v>0</v>
       </c>
       <c r="K49">
@@ -3214,8 +3188,8 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49">
-        <v>0</v>
+      <c r="P49" t="s">
+        <v>19</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3223,10 +3197,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>5.2</v>
@@ -3234,7 +3208,7 @@
       <c r="D50">
         <v>1.2</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="1">
         <v>0.23</v>
       </c>
       <c r="F50">
@@ -3249,7 +3223,7 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="1">
         <v>0</v>
       </c>
       <c r="K50">
@@ -3267,7 +3241,7 @@
       <c r="O50">
         <v>50</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="3">
         <v>47346</v>
       </c>
       <c r="Q50">
@@ -3276,10 +3250,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>4.5</v>
@@ -3287,7 +3261,7 @@
       <c r="D51">
         <v>2.1</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="1">
         <v>0.46</v>
       </c>
       <c r="F51">
@@ -3302,7 +3276,7 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="1">
         <v>0</v>
       </c>
       <c r="K51">
@@ -3320,8 +3294,8 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51">
-        <v>0</v>
+      <c r="P51" t="s">
+        <v>19</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -3329,10 +3303,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>4.4000000000000004</v>
@@ -3340,7 +3314,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="1">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3355,7 +3329,7 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="1">
         <v>0</v>
       </c>
       <c r="K52">
@@ -3373,8 +3347,8 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52">
-        <v>0</v>
+      <c r="P52" t="s">
+        <v>19</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -3382,10 +3356,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>3.7</v>
@@ -3393,7 +3367,7 @@
       <c r="D53">
         <v>0.5</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="1">
         <v>0.15</v>
       </c>
       <c r="F53">
@@ -3408,7 +3382,7 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="1">
         <v>0</v>
       </c>
       <c r="K53">
@@ -3426,8 +3400,8 @@
       <c r="O53">
         <v>66</v>
       </c>
-      <c r="P53">
-        <v>0</v>
+      <c r="P53" t="s">
+        <v>19</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3435,10 +3409,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>2.2000000000000002</v>
@@ -3446,7 +3420,7 @@
       <c r="D54">
         <v>0.1</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="1">
         <v>0.05</v>
       </c>
       <c r="F54">
@@ -3461,7 +3435,7 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="1">
         <v>0</v>
       </c>
       <c r="K54">
@@ -3479,8 +3453,8 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54">
-        <v>0</v>
+      <c r="P54" t="s">
+        <v>19</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -3488,10 +3462,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3499,7 +3473,7 @@
       <c r="D55">
         <v>0.4</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="1">
         <v>0.18</v>
       </c>
       <c r="F55">
@@ -3514,7 +3488,7 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="1">
         <v>0</v>
       </c>
       <c r="K55">
@@ -3532,8 +3506,8 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55">
-        <v>0</v>
+      <c r="P55" t="s">
+        <v>19</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -3541,10 +3515,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <v>1.9</v>
@@ -3552,7 +3526,7 @@
       <c r="D56">
         <v>0.3</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="1">
         <v>0.18</v>
       </c>
       <c r="F56">
@@ -3567,7 +3541,7 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="1">
         <v>0.09</v>
       </c>
       <c r="K56">
@@ -3583,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>80</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P56" t="s">
+        <v>19</v>
       </c>
       <c r="Q56">
         <v>0.24</v>
@@ -3594,10 +3568,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3605,7 +3579,7 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57">
@@ -3620,7 +3594,7 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
@@ -3636,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P57" t="s">
+        <v>19</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -3647,10 +3621,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3658,7 +3632,7 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="1">
         <v>0</v>
       </c>
       <c r="F58">
@@ -3673,7 +3647,7 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
@@ -3689,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P58" t="s">
+        <v>19</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -3700,10 +3674,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>967.6</v>
@@ -3711,7 +3685,7 @@
       <c r="D59">
         <v>108.1</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="1">
         <v>0.11</v>
       </c>
       <c r="F59">
@@ -3726,7 +3700,7 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="1">
         <v>0</v>
       </c>
       <c r="K59">
@@ -3742,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P59" t="s">
+        <v>19</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -3753,10 +3727,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3764,7 +3738,7 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60">
@@ -3779,7 +3753,7 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
@@ -3795,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>80</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P60" t="s">
+        <v>19</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -3806,10 +3780,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3817,7 +3791,7 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61">
@@ -3832,7 +3806,7 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
@@ -3848,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>80</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P61" t="s">
+        <v>19</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -3859,10 +3833,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3870,7 +3844,7 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="1">
         <v>0</v>
       </c>
       <c r="F62">
@@ -3885,7 +3859,7 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
@@ -3901,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>80</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P62" t="s">
+        <v>19</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -3912,10 +3886,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3923,7 +3897,7 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="1">
         <v>0</v>
       </c>
       <c r="F63">
@@ -3938,7 +3912,7 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
@@ -3954,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>80</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P63" t="s">
+        <v>19</v>
       </c>
       <c r="Q63">
         <v>0</v>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>ACTIVO</t>
   </si>
@@ -285,12 +285,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -305,11 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,20 +600,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -626,7 +634,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -635,19 +643,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -697,8 +705,8 @@
       <c r="O2" s="2">
         <v>42197</v>
       </c>
-      <c r="P2" t="s">
-        <v>19</v>
+      <c r="P2" s="3">
+        <v>73051</v>
       </c>
       <c r="Q2">
         <v>1036.5</v>
@@ -750,8 +758,8 @@
       <c r="O3" s="2">
         <v>25475</v>
       </c>
-      <c r="P3" t="s">
-        <v>19</v>
+      <c r="P3" s="3">
+        <v>73051</v>
       </c>
       <c r="Q3">
         <v>193</v>
@@ -856,8 +864,8 @@
       <c r="O5" s="2">
         <v>44510</v>
       </c>
-      <c r="P5" t="s">
-        <v>19</v>
+      <c r="P5" s="3">
+        <v>73051</v>
       </c>
       <c r="Q5">
         <v>311.5</v>
@@ -909,8 +917,8 @@
       <c r="O6" s="2">
         <v>7944</v>
       </c>
-      <c r="P6" t="s">
-        <v>19</v>
+      <c r="P6" s="3">
+        <v>73051</v>
       </c>
       <c r="Q6">
         <v>245</v>
@@ -962,8 +970,8 @@
       <c r="O7" s="2">
         <v>1848</v>
       </c>
-      <c r="P7" t="s">
-        <v>19</v>
+      <c r="P7" s="3">
+        <v>73051</v>
       </c>
       <c r="Q7">
         <v>462.41</v>
@@ -1015,8 +1023,8 @@
       <c r="O8" s="2">
         <v>24053</v>
       </c>
-      <c r="P8" t="s">
-        <v>19</v>
+      <c r="P8" s="3">
+        <v>73051</v>
       </c>
       <c r="Q8">
         <v>483</v>
@@ -1068,8 +1076,8 @@
       <c r="O9" s="2">
         <v>3601</v>
       </c>
-      <c r="P9" t="s">
-        <v>19</v>
+      <c r="P9" s="3">
+        <v>73051</v>
       </c>
       <c r="Q9">
         <v>24.13</v>
@@ -1121,8 +1129,8 @@
       <c r="O10" s="2">
         <v>2216</v>
       </c>
-      <c r="P10" t="s">
-        <v>19</v>
+      <c r="P10" s="3">
+        <v>73051</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1280,8 +1288,8 @@
       <c r="O13" s="2">
         <v>2580</v>
       </c>
-      <c r="P13" t="s">
-        <v>19</v>
+      <c r="P13" s="3">
+        <v>73051</v>
       </c>
       <c r="Q13">
         <v>13.8</v>
@@ -1333,8 +1341,8 @@
       <c r="O14">
         <v>208</v>
       </c>
-      <c r="P14" t="s">
-        <v>19</v>
+      <c r="P14" s="3">
+        <v>73051</v>
       </c>
       <c r="Q14">
         <v>25.77</v>
@@ -1439,8 +1447,8 @@
       <c r="O16" t="s">
         <v>19</v>
       </c>
-      <c r="P16" t="s">
-        <v>19</v>
+      <c r="P16" s="3">
+        <v>73051</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1492,8 +1500,8 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
-        <v>19</v>
+      <c r="P17" s="3">
+        <v>73051</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1545,8 +1553,8 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
-        <v>19</v>
+      <c r="P18" s="3">
+        <v>73051</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1598,8 +1606,8 @@
       <c r="O19" s="2">
         <v>1915</v>
       </c>
-      <c r="P19" t="s">
-        <v>19</v>
+      <c r="P19" s="3">
+        <v>73051</v>
       </c>
       <c r="Q19">
         <v>9.83</v>
@@ -1757,8 +1765,8 @@
       <c r="O22">
         <v>122</v>
       </c>
-      <c r="P22" t="s">
-        <v>19</v>
+      <c r="P22" s="3">
+        <v>73051</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1810,8 +1818,8 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
-        <v>19</v>
+      <c r="P23" s="3">
+        <v>73051</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1916,8 +1924,8 @@
       <c r="O25" s="2">
         <v>2560</v>
       </c>
-      <c r="P25" t="s">
-        <v>19</v>
+      <c r="P25" s="3">
+        <v>73051</v>
       </c>
       <c r="Q25">
         <v>8.84</v>
@@ -1969,8 +1977,8 @@
       <c r="O26" s="2">
         <v>2668</v>
       </c>
-      <c r="P26" t="s">
-        <v>19</v>
+      <c r="P26" s="3">
+        <v>73051</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2022,8 +2030,8 @@
       <c r="O27">
         <v>631</v>
       </c>
-      <c r="P27" t="s">
-        <v>19</v>
+      <c r="P27" s="3">
+        <v>73051</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2128,8 +2136,8 @@
       <c r="O29">
         <v>814</v>
       </c>
-      <c r="P29" t="s">
-        <v>19</v>
+      <c r="P29" s="3">
+        <v>73051</v>
       </c>
       <c r="Q29">
         <v>2.6</v>
@@ -2181,8 +2189,8 @@
       <c r="O30">
         <v>224</v>
       </c>
-      <c r="P30" t="s">
-        <v>19</v>
+      <c r="P30" s="3">
+        <v>73051</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2234,8 +2242,8 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" t="s">
-        <v>19</v>
+      <c r="P31" s="3">
+        <v>73051</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2287,8 +2295,8 @@
       <c r="O32" s="2">
         <v>1820</v>
       </c>
-      <c r="P32" t="s">
-        <v>19</v>
+      <c r="P32" s="3">
+        <v>73051</v>
       </c>
       <c r="Q32">
         <v>73.819999999999993</v>
@@ -2340,8 +2348,8 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33" t="s">
-        <v>19</v>
+      <c r="P33" s="3">
+        <v>73051</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2393,8 +2401,8 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34" t="s">
-        <v>19</v>
+      <c r="P34" s="3">
+        <v>73051</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2446,8 +2454,8 @@
       <c r="O35">
         <v>848</v>
       </c>
-      <c r="P35" t="s">
-        <v>19</v>
+      <c r="P35" s="3">
+        <v>73051</v>
       </c>
       <c r="Q35">
         <v>3.79</v>
@@ -2499,8 +2507,8 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36" t="s">
-        <v>19</v>
+      <c r="P36" s="3">
+        <v>73051</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2552,8 +2560,8 @@
       <c r="O37" t="s">
         <v>19</v>
       </c>
-      <c r="P37" t="s">
-        <v>19</v>
+      <c r="P37" s="3">
+        <v>73051</v>
       </c>
       <c r="Q37">
         <v>0.7</v>
@@ -2605,8 +2613,8 @@
       <c r="O38">
         <v>238</v>
       </c>
-      <c r="P38" t="s">
-        <v>19</v>
+      <c r="P38" s="3">
+        <v>73051</v>
       </c>
       <c r="Q38">
         <v>-2.6</v>
@@ -2658,8 +2666,8 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" t="s">
-        <v>19</v>
+      <c r="P39" s="3">
+        <v>73051</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -2764,8 +2772,8 @@
       <c r="O41">
         <v>637</v>
       </c>
-      <c r="P41" t="s">
-        <v>19</v>
+      <c r="P41" s="3">
+        <v>73051</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -2817,8 +2825,8 @@
       <c r="O42" s="2">
         <v>2298</v>
       </c>
-      <c r="P42" t="s">
-        <v>19</v>
+      <c r="P42" s="3">
+        <v>73051</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -2870,8 +2878,8 @@
       <c r="O43" t="s">
         <v>19</v>
       </c>
-      <c r="P43" t="s">
-        <v>19</v>
+      <c r="P43" s="3">
+        <v>73051</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -2976,8 +2984,8 @@
       <c r="O45">
         <v>0</v>
       </c>
-      <c r="P45" t="s">
-        <v>19</v>
+      <c r="P45" s="3">
+        <v>73051</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3029,8 +3037,8 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46" t="s">
-        <v>19</v>
+      <c r="P46" s="3">
+        <v>73051</v>
       </c>
       <c r="Q46">
         <v>0.38</v>
@@ -3082,8 +3090,8 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47" t="s">
-        <v>19</v>
+      <c r="P47" s="3">
+        <v>73051</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3135,8 +3143,8 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" t="s">
-        <v>19</v>
+      <c r="P48" s="3">
+        <v>73051</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3188,8 +3196,8 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" t="s">
-        <v>19</v>
+      <c r="P49" s="3">
+        <v>73051</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3294,8 +3302,8 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51" t="s">
-        <v>19</v>
+      <c r="P51" s="3">
+        <v>73051</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -3347,8 +3355,8 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52" t="s">
-        <v>19</v>
+      <c r="P52" s="3">
+        <v>73051</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -3400,8 +3408,8 @@
       <c r="O53">
         <v>66</v>
       </c>
-      <c r="P53" t="s">
-        <v>19</v>
+      <c r="P53" s="3">
+        <v>73051</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3453,8 +3461,8 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54" t="s">
-        <v>19</v>
+      <c r="P54" s="3">
+        <v>73051</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -3506,8 +3514,8 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55" t="s">
-        <v>19</v>
+      <c r="P55" s="3">
+        <v>73051</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -3559,8 +3567,8 @@
       <c r="O56" t="s">
         <v>19</v>
       </c>
-      <c r="P56" t="s">
-        <v>19</v>
+      <c r="P56" s="3">
+        <v>73051</v>
       </c>
       <c r="Q56">
         <v>0.24</v>
@@ -3612,8 +3620,8 @@
       <c r="O57" t="s">
         <v>19</v>
       </c>
-      <c r="P57" t="s">
-        <v>19</v>
+      <c r="P57" s="3">
+        <v>73051</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -3665,8 +3673,8 @@
       <c r="O58" t="s">
         <v>19</v>
       </c>
-      <c r="P58" t="s">
-        <v>19</v>
+      <c r="P58" s="3">
+        <v>73051</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -3718,8 +3726,8 @@
       <c r="O59" t="s">
         <v>19</v>
       </c>
-      <c r="P59" t="s">
-        <v>19</v>
+      <c r="P59" s="3">
+        <v>73051</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -3771,8 +3779,8 @@
       <c r="O60" t="s">
         <v>19</v>
       </c>
-      <c r="P60" t="s">
-        <v>19</v>
+      <c r="P60" s="3">
+        <v>73051</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -3824,8 +3832,8 @@
       <c r="O61" t="s">
         <v>19</v>
       </c>
-      <c r="P61" t="s">
-        <v>19</v>
+      <c r="P61" s="3">
+        <v>73051</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -3877,8 +3885,8 @@
       <c r="O62" t="s">
         <v>19</v>
       </c>
-      <c r="P62" t="s">
-        <v>19</v>
+      <c r="P62" s="3">
+        <v>73051</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -3930,8 +3938,8 @@
       <c r="O63" t="s">
         <v>19</v>
       </c>
-      <c r="P63" t="s">
-        <v>19</v>
+      <c r="P63" s="3">
+        <v>73051</v>
       </c>
       <c r="Q63">
         <v>0</v>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -65,21 +65,9 @@
     <t>RV</t>
   </si>
   <si>
-    <t>Potencial_Incorporación</t>
-  </si>
-  <si>
     <t>REMANENTE_RESERVAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> PRODUCCION_Feb_2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fecha_terminacion </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VPN </t>
-  </si>
-  <si>
     <t>CIRA - INFANTAS</t>
   </si>
   <si>
@@ -270,6 +258,18 @@
   </si>
   <si>
     <t>ANDALUCIA</t>
+  </si>
+  <si>
+    <t>Potencial_Incorporacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCCION_Feb_2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha_terminacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN </t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,27 +644,27 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>5328</v>
@@ -714,10 +714,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1932.7</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1834.2</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1578</v>
@@ -873,10 +873,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1443</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1333</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1160.2</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>661.4</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>621</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>495.4</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>458.6</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>323.5</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>198.8</v>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>136.80000000000001</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P16" s="3">
         <v>73051</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>109.2</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>109</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>107.8</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>95.2</v>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>89.7</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>76.599999999999994</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>69</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>65</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>60.5</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>53</v>
@@ -1986,10 +1986,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>41</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>38</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>33.799999999999997</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>32.9</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>31.7</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>28.1</v>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>28.1</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>26.8</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>26.8</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>25.4</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -2558,7 +2558,7 @@
         <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P37" s="3">
         <v>73051</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>24.3</v>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>21</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>19.899999999999999</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>19</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>18.600000000000001</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>15.8</v>
@@ -2876,7 +2876,7 @@
         <v>15</v>
       </c>
       <c r="O43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P43" s="3">
         <v>73051</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>15.1</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>9.4</v>
@@ -3046,10 +3046,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>7.1</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>5.7</v>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C49">
         <v>5.2</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>5.2</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>4.5</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>4.4000000000000004</v>
@@ -3364,10 +3364,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>3.7</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>2.2000000000000002</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>1.9</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P56" s="3">
         <v>73051</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P57" s="3">
         <v>73051</v>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P58" s="3">
         <v>73051</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C59">
         <v>967.6</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P59" s="3">
         <v>73051</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P60" s="3">
         <v>73051</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P61" s="3">
         <v>73051</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P62" s="3">
         <v>73051</v>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P63" s="3">
         <v>73051</v>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>ACTIVO</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>VAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
   </si>
   <si>
     <t>CRAVO NORTE</t>
@@ -311,13 +308,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,19 +599,22 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="11.42578125" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -634,7 +635,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -643,20 +644,20 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>77</v>
+      <c r="M1" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -702,10 +703,10 @@
       <c r="N2">
         <v>3929</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="6">
         <v>42197</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>73051</v>
       </c>
       <c r="Q2">
@@ -714,7 +715,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -755,10 +756,10 @@
       <c r="N3">
         <v>556</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="6">
         <v>25475</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>73051</v>
       </c>
       <c r="Q3">
@@ -767,7 +768,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -808,10 +809,10 @@
       <c r="N4">
         <v>1217</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="6">
         <v>20105</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>44504</v>
       </c>
       <c r="Q4">
@@ -820,7 +821,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -861,10 +862,10 @@
       <c r="N5">
         <v>1333</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="6">
         <v>44510</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>73051</v>
       </c>
       <c r="Q5">
@@ -873,7 +874,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -914,10 +915,10 @@
       <c r="N6">
         <v>1173</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="6">
         <v>7944</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>73051</v>
       </c>
       <c r="Q6">
@@ -926,7 +927,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -967,10 +968,10 @@
       <c r="N7">
         <v>885</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="6">
         <v>1848</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>73051</v>
       </c>
       <c r="Q7">
@@ -979,7 +980,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1020,10 +1021,10 @@
       <c r="N8">
         <v>110</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="6">
         <v>24053</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>73051</v>
       </c>
       <c r="Q8">
@@ -1032,7 +1033,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1073,10 +1074,10 @@
       <c r="N9">
         <v>371</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="6">
         <v>3601</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>73051</v>
       </c>
       <c r="Q9">
@@ -1085,7 +1086,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1126,10 +1127,10 @@
       <c r="N10">
         <v>596</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="6">
         <v>2216</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>73051</v>
       </c>
       <c r="Q10">
@@ -1138,7 +1139,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1179,10 +1180,10 @@
       <c r="N11">
         <v>386</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="6">
         <v>5632</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>45466</v>
       </c>
       <c r="Q11">
@@ -1191,7 +1192,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1232,10 +1233,10 @@
       <c r="N12">
         <v>303</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="6">
         <v>7686</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>45199</v>
       </c>
       <c r="Q12">
@@ -1244,7 +1245,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1285,10 +1286,10 @@
       <c r="N13">
         <v>192</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="6">
         <v>2580</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>73051</v>
       </c>
       <c r="Q13">
@@ -1297,7 +1298,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1338,10 +1339,10 @@
       <c r="N14">
         <v>183</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>208</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>73051</v>
       </c>
       <c r="Q14">
@@ -1350,7 +1351,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1391,10 +1392,10 @@
       <c r="N15">
         <v>82</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="6">
         <v>2501</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>47847</v>
       </c>
       <c r="Q15">
@@ -1403,7 +1404,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1444,10 +1445,10 @@
       <c r="N16">
         <v>100</v>
       </c>
-      <c r="O16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
         <v>73051</v>
       </c>
       <c r="Q16">
@@ -1456,7 +1457,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1497,10 +1498,10 @@
       <c r="N17">
         <v>59</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
         <v>73051</v>
       </c>
       <c r="Q17">
@@ -1509,7 +1510,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1550,10 +1551,10 @@
       <c r="N18">
         <v>71</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
         <v>73051</v>
       </c>
       <c r="Q18">
@@ -1562,7 +1563,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1603,10 +1604,10 @@
       <c r="N19">
         <v>53</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="6">
         <v>1915</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <v>73051</v>
       </c>
       <c r="Q19">
@@ -1615,7 +1616,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1656,10 +1657,10 @@
       <c r="N20">
         <v>40</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="6">
         <v>5780</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>44934</v>
       </c>
       <c r="Q20">
@@ -1668,7 +1669,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1709,10 +1710,10 @@
       <c r="N21">
         <v>50</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="6">
         <v>6415</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <v>46796</v>
       </c>
       <c r="Q21">
@@ -1721,7 +1722,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1762,10 +1763,10 @@
       <c r="N22">
         <v>65</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="6">
         <v>122</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <v>73051</v>
       </c>
       <c r="Q22">
@@ -1774,7 +1775,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1815,10 +1816,10 @@
       <c r="N23">
         <v>69</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
         <v>73051</v>
       </c>
       <c r="Q23">
@@ -1827,7 +1828,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1868,10 +1869,10 @@
       <c r="N24">
         <v>15</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="6">
         <v>9782</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>47216</v>
       </c>
       <c r="Q24">
@@ -1880,7 +1881,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1921,10 +1922,10 @@
       <c r="N25">
         <v>48</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="6">
         <v>2560</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="2">
         <v>73051</v>
       </c>
       <c r="Q25">
@@ -1933,7 +1934,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1974,10 +1975,10 @@
       <c r="N26">
         <v>26</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="6">
         <v>2668</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <v>73051</v>
       </c>
       <c r="Q26">
@@ -1986,7 +1987,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -2027,10 +2028,10 @@
       <c r="N27">
         <v>23</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="6">
         <v>631</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <v>73051</v>
       </c>
       <c r="Q27">
@@ -2039,7 +2040,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -2080,10 +2081,10 @@
       <c r="N28">
         <v>26</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="6">
         <v>496</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="2">
         <v>45575</v>
       </c>
       <c r="Q28">
@@ -2092,7 +2093,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -2133,10 +2134,10 @@
       <c r="N29">
         <v>9</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="6">
         <v>814</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="2">
         <v>73051</v>
       </c>
       <c r="Q29">
@@ -2145,7 +2146,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -2186,10 +2187,10 @@
       <c r="N30">
         <v>28</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="6">
         <v>224</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="2">
         <v>73051</v>
       </c>
       <c r="Q30">
@@ -2198,7 +2199,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2239,10 +2240,10 @@
       <c r="N31">
         <v>31</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
         <v>73051</v>
       </c>
       <c r="Q31">
@@ -2251,7 +2252,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2292,10 +2293,10 @@
       <c r="N32">
         <v>14</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="6">
         <v>1820</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="2">
         <v>73051</v>
       </c>
       <c r="Q32">
@@ -2304,7 +2305,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -2345,10 +2346,10 @@
       <c r="N33">
         <v>10</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
         <v>73051</v>
       </c>
       <c r="Q33">
@@ -2357,7 +2358,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2398,10 +2399,10 @@
       <c r="N34">
         <v>26</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
         <v>73051</v>
       </c>
       <c r="Q34">
@@ -2410,7 +2411,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2451,10 +2452,10 @@
       <c r="N35">
         <v>18</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="6">
         <v>848</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="2">
         <v>73051</v>
       </c>
       <c r="Q35">
@@ -2463,7 +2464,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2504,10 +2505,10 @@
       <c r="N36">
         <v>25</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
         <v>73051</v>
       </c>
       <c r="Q36">
@@ -2516,7 +2517,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2557,10 +2558,10 @@
       <c r="N37">
         <v>24</v>
       </c>
-      <c r="O37" t="s">
-        <v>15</v>
-      </c>
-      <c r="P37" s="3">
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
         <v>73051</v>
       </c>
       <c r="Q37">
@@ -2569,7 +2570,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2610,10 +2611,10 @@
       <c r="N38">
         <v>6</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="6">
         <v>238</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="2">
         <v>73051</v>
       </c>
       <c r="Q38">
@@ -2622,7 +2623,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2663,10 +2664,10 @@
       <c r="N39">
         <v>5</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
         <v>73051</v>
       </c>
       <c r="Q39">
@@ -2675,7 +2676,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2716,10 +2717,10 @@
       <c r="N40">
         <v>12</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="6">
         <v>1315</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="2">
         <v>45625</v>
       </c>
       <c r="Q40">
@@ -2728,7 +2729,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2769,10 +2770,10 @@
       <c r="N41">
         <v>9</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="6">
         <v>637</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="2">
         <v>73051</v>
       </c>
       <c r="Q41">
@@ -2781,7 +2782,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2822,10 +2823,10 @@
       <c r="N42">
         <v>7</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="6">
         <v>2298</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="2">
         <v>73051</v>
       </c>
       <c r="Q42">
@@ -2834,7 +2835,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2875,10 +2876,10 @@
       <c r="N43">
         <v>15</v>
       </c>
-      <c r="O43" t="s">
-        <v>15</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
         <v>73051</v>
       </c>
       <c r="Q43">
@@ -2887,7 +2888,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2928,10 +2929,10 @@
       <c r="N44">
         <v>8</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="6">
         <v>461</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="2">
         <v>46531</v>
       </c>
       <c r="Q44">
@@ -2940,7 +2941,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2981,10 +2982,10 @@
       <c r="N45">
         <v>10</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
         <v>73051</v>
       </c>
       <c r="Q45">
@@ -2993,7 +2994,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -3034,10 +3035,10 @@
       <c r="N46">
         <v>7</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
         <v>73051</v>
       </c>
       <c r="Q46">
@@ -3046,7 +3047,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -3087,10 +3088,10 @@
       <c r="N47">
         <v>3</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
         <v>73051</v>
       </c>
       <c r="Q47">
@@ -3099,7 +3100,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -3140,10 +3141,10 @@
       <c r="N48">
         <v>2</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
         <v>73051</v>
       </c>
       <c r="Q48">
@@ -3152,7 +3153,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -3193,10 +3194,10 @@
       <c r="N49">
         <v>5</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
         <v>73051</v>
       </c>
       <c r="Q49">
@@ -3205,7 +3206,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -3246,10 +3247,10 @@
       <c r="N50">
         <v>4</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="6">
         <v>50</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="2">
         <v>47346</v>
       </c>
       <c r="Q50">
@@ -3258,7 +3259,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -3299,10 +3300,10 @@
       <c r="N51">
         <v>2</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
         <v>73051</v>
       </c>
       <c r="Q51">
@@ -3311,7 +3312,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -3352,10 +3353,10 @@
       <c r="N52">
         <v>4</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
         <v>73051</v>
       </c>
       <c r="Q52">
@@ -3364,7 +3365,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -3405,10 +3406,10 @@
       <c r="N53">
         <v>3</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="6">
         <v>66</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="2">
         <v>73051</v>
       </c>
       <c r="Q53">
@@ -3417,7 +3418,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -3458,10 +3459,10 @@
       <c r="N54">
         <v>2</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="O54" s="6">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
         <v>73051</v>
       </c>
       <c r="Q54">
@@ -3470,7 +3471,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -3511,10 +3512,10 @@
       <c r="N55">
         <v>2</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" s="3">
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
         <v>73051</v>
       </c>
       <c r="Q55">
@@ -3523,7 +3524,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -3564,10 +3565,10 @@
       <c r="N56">
         <v>1</v>
       </c>
-      <c r="O56" t="s">
-        <v>15</v>
-      </c>
-      <c r="P56" s="3">
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
         <v>73051</v>
       </c>
       <c r="Q56">
@@ -3576,7 +3577,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -3617,10 +3618,10 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="O57" t="s">
-        <v>15</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="O57" s="6">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
         <v>73051</v>
       </c>
       <c r="Q57">
@@ -3629,7 +3630,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -3670,10 +3671,10 @@
       <c r="N58">
         <v>0</v>
       </c>
-      <c r="O58" t="s">
-        <v>15</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="6">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
         <v>73051</v>
       </c>
       <c r="Q58">
@@ -3682,7 +3683,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -3723,10 +3724,10 @@
       <c r="N59">
         <v>0</v>
       </c>
-      <c r="O59" t="s">
-        <v>15</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="6">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
         <v>73051</v>
       </c>
       <c r="Q59">
@@ -3735,7 +3736,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -3776,10 +3777,10 @@
       <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60" t="s">
-        <v>15</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="O60" s="6">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
         <v>73051</v>
       </c>
       <c r="Q60">
@@ -3788,7 +3789,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3829,10 +3830,10 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61" t="s">
-        <v>15</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="O61" s="6">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
         <v>73051</v>
       </c>
       <c r="Q61">
@@ -3841,7 +3842,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3882,10 +3883,10 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62" t="s">
-        <v>15</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="O62" s="6">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
         <v>73051</v>
       </c>
       <c r="Q62">
@@ -3894,7 +3895,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3935,10 +3936,10 @@
       <c r="N63">
         <v>0</v>
       </c>
-      <c r="O63" t="s">
-        <v>15</v>
-      </c>
-      <c r="P63" s="3">
+      <c r="O63" s="6">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
         <v>73051</v>
       </c>
       <c r="Q63">

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -35,15 +35,6 @@
     <t>GERENCIA</t>
   </si>
   <si>
-    <t>OOIP_OFICIAL</t>
-  </si>
-  <si>
-    <t>NP_DIC_2019</t>
-  </si>
-  <si>
-    <t>FR_Proy_DIC_2019</t>
-  </si>
-  <si>
     <t>META_2020</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t>RV</t>
   </si>
   <si>
-    <t>REMANENTE_RESERVAS</t>
-  </si>
-  <si>
     <t>CIRA - INFANTAS</t>
   </si>
   <si>
@@ -260,13 +248,25 @@
     <t>Potencial_Incorporacion</t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUCCION_Feb_2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha_terminacion </t>
-  </si>
-  <si>
     <t xml:space="preserve">VPN </t>
+  </si>
+  <si>
+    <t>OOIP</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>FR_Proy</t>
+  </si>
+  <si>
+    <t>Remanente_Reserva</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>Fecha_fin</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,57 +609,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>5328</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1932.7</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1834.2</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1578</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1443</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1333</v>
@@ -974,10 +974,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1160.2</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>661.4</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>621</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>495.4</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>458.6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>323.5</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>198.8</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>136.80000000000001</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>109.2</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>109</v>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>107.8</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>95.2</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>89.7</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>76.599999999999994</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>69</v>
@@ -1822,10 +1822,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>65</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>60.5</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>53</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>41</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>38</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>33.799999999999997</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>32.9</v>
@@ -2193,10 +2193,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>31.7</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>28.1</v>
@@ -2299,10 +2299,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>28.1</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>26.8</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>26.8</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>25.4</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>24.3</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>21</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>19.899999999999999</v>
@@ -2723,10 +2723,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>19</v>
@@ -2776,10 +2776,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>18.600000000000001</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>15.8</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>15.1</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>9.4</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>7.1</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>5.7</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>5.2</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>5.2</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>4.5</v>
@@ -3306,10 +3306,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>4.4000000000000004</v>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>3.7</v>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C54">
         <v>2.2000000000000002</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3518,10 +3518,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>1.9</v>
@@ -3571,10 +3571,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>967.6</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>0</v>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$R$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="85">
   <si>
     <t>ACTIVO</t>
   </si>
@@ -267,6 +267,21 @@
   </si>
   <si>
     <t>Fecha_fin</t>
+  </si>
+  <si>
+    <t>norte</t>
+  </si>
+  <si>
+    <t>sur</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norte_central </t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -589,19 +604,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="11.42578125" style="4"/>
-    <col min="17" max="17" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="4"/>
+    <col min="18" max="18" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -609,138 +623,144 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
         <v>5328</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>878.2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.16</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.58</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>210</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.04</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>173</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>109</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>282</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3929</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>42197</v>
       </c>
-      <c r="P2" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R2" s="4">
         <v>1036.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
         <v>1932.7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1323.4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.68</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>41</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.03</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>0</v>
       </c>
@@ -748,264 +768,279 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>556</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>25475</v>
       </c>
-      <c r="P3" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R3" s="4">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
         <v>1834.2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>160.9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.09</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>16.22</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>131</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>34</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>19</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>91</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>182</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>272</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1217</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>20105</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>44504</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
         <v>1578</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>159.69999999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.88</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>55</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.04</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>16</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1333</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>44510</v>
       </c>
-      <c r="P5" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R5" s="4">
         <v>311.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
         <v>1443</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>135.9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.09</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>38</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>0.03</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>92</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>93</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1173</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>7944</v>
       </c>
-      <c r="P6" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R6" s="4">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
         <v>1333</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>104.6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.08</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>64</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>154</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>24</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.18</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>102</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>102</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>885</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>1848</v>
       </c>
-      <c r="P7" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R7" s="4">
         <v>462.41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
         <v>1160.2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>949.1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.82</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>96</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.09</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
@@ -1013,264 +1048,279 @@
         <v>0</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>110</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>24053</v>
       </c>
-      <c r="P8" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R8" s="4">
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
         <v>661.4</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>268</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.41</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>21</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.03</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>371</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>3601</v>
       </c>
-      <c r="P9" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R9" s="4">
         <v>24.13</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
         <v>621</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>8.4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.01</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.02</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>4</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>596</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>2216</v>
       </c>
-      <c r="P10" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
         <v>495.4</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>31.1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.06</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.39</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>21</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.05</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>52</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>386</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>5632</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>45466</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <v>141.57</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12">
         <v>458.6</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>113.9</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>16</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0.04</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>25</v>
       </c>
       <c r="N12">
+        <v>25</v>
+      </c>
+      <c r="O12">
         <v>303</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>7686</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>45199</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>128.74</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13">
         <v>323.5</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>125.8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.25</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.02</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
         <v>0</v>
       </c>
@@ -1278,143 +1328,152 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>192</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>2580</v>
       </c>
-      <c r="P13" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R13" s="4">
         <v>13.8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
         <v>198.8</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.4</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.01</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.54</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>0.03</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>7</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>8</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>183</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>208</v>
       </c>
-      <c r="P14" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R14" s="4">
         <v>25.77</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
         <v>136.80000000000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>38.1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.22</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.12</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>82</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>2501</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>47847</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <v>43.35</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>80</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>111.9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0.08</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -1428,61 +1487,64 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>100</v>
       </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17">
         <v>109.2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>42.4</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.39</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>0.08</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
@@ -1490,37 +1552,40 @@
         <v>0</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>59</v>
       </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18">
         <v>109</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>38.200000000000003</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.35</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -1530,10 +1595,10 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18">
@@ -1543,52 +1608,55 @@
         <v>0</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>71</v>
       </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19">
         <v>107.8</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>50.1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.46</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>0.05</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -1596,52 +1664,55 @@
         <v>0</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>53</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>1915</v>
       </c>
-      <c r="P19" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R19" s="4">
         <v>9.83</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20">
         <v>95.2</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>48.9</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0.51</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.12</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>0.06</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
         <v>0</v>
       </c>
@@ -1649,52 +1720,55 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>40</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>5780</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>44934</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>33.42</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21">
         <v>89.7</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>30.9</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0.34</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.04</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>8</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
         <v>0.1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -1702,37 +1776,40 @@
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>50</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>6415</v>
       </c>
-      <c r="P21" s="2">
+      <c r="Q21" s="2">
         <v>46796</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <v>42.17</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22">
         <v>76.599999999999994</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -1742,12 +1819,12 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
         <v>0.01</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
@@ -1755,35 +1832,38 @@
         <v>0</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>65</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>122</v>
       </c>
-      <c r="P22" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
         <v>69</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23">
@@ -1795,10 +1875,10 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23">
@@ -1808,158 +1888,167 @@
         <v>0</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>69</v>
       </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
         <v>65</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>40.6</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0.62</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.23</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>7</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
         <v>0.12</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>15</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>9782</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="2">
         <v>47216</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
         <v>41.3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25">
         <v>60.5</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.13</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>3</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>0.04</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>2</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>48</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>2560</v>
       </c>
-      <c r="P25" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R25" s="4">
         <v>8.84</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26">
         <v>53</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>22.5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.43</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
         <v>0.08</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
         <v>0</v>
       </c>
@@ -1967,52 +2056,55 @@
         <v>0</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>26</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <v>2668</v>
       </c>
-      <c r="P26" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
         <v>41</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>15.9</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.39</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
         <v>0.03</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
@@ -2020,52 +2112,55 @@
         <v>0</v>
       </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>23</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>631</v>
       </c>
-      <c r="P27" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q27" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28">
         <v>38</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>10.6</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>0.03</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
         <v>0</v>
       </c>
@@ -2073,52 +2168,55 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>26</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <v>496</v>
       </c>
-      <c r="P28" s="2">
+      <c r="Q28" s="2">
         <v>45575</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <v>-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29">
         <v>33.799999999999997</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>22.2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>0.66</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
         <v>0</v>
       </c>
@@ -2126,52 +2224,55 @@
         <v>0</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>9</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <v>814</v>
       </c>
-      <c r="P29" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R29" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
         <v>32.9</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4.3</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>0.13</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
         <v>0.02</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
         <v>0</v>
       </c>
@@ -2179,37 +2280,40 @@
         <v>0</v>
       </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>28</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>224</v>
       </c>
-      <c r="P30" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
         <v>31.7</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.8</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>0.02</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -2219,10 +2323,10 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31">
@@ -2232,90 +2336,96 @@
         <v>0</v>
       </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>31</v>
       </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
         <v>28.1</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0.11</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>6</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
         <v>0.37</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
       <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>1</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>14</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>1820</v>
       </c>
-      <c r="P32" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R32" s="4">
         <v>73.819999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
         <v>28.1</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>18.600000000000001</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>0.66</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
         <v>0</v>
       </c>
@@ -2325,10 +2435,10 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
         <v>0</v>
       </c>
       <c r="L33">
@@ -2338,37 +2448,40 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>10</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34">
         <v>26.8</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>0.02</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -2378,10 +2491,10 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
         <v>0</v>
       </c>
       <c r="L34">
@@ -2391,52 +2504,55 @@
         <v>0</v>
       </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
         <v>26</v>
       </c>
-      <c r="O34" s="4">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35">
         <v>26.8</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>7.1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0.27</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
         <v>0.08</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
         <v>0</v>
       </c>
@@ -2444,35 +2560,38 @@
         <v>0</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>18</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <v>848</v>
       </c>
-      <c r="P35" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R35" s="4">
         <v>3.79</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
         <v>25.4</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.1</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36">
@@ -2484,10 +2603,10 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
         <v>0</v>
       </c>
       <c r="L36">
@@ -2497,37 +2616,40 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>25</v>
       </c>
-      <c r="O36" s="4">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.3</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>0.01</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="G37">
         <v>0</v>
       </c>
@@ -2537,12 +2659,12 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
         <v>0.02</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
@@ -2550,52 +2672,55 @@
         <v>0</v>
       </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>24</v>
       </c>
-      <c r="O37" s="4">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q37" s="4">
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R37" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38">
         <v>24.3</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>17.100000000000001</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>0.71</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
         <v>0.03</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>0</v>
       </c>
@@ -2603,37 +2728,40 @@
         <v>0</v>
       </c>
       <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>6</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>238</v>
       </c>
-      <c r="P38" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R38" s="4">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39">
         <v>21</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>16.5</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0.78</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -2643,10 +2771,10 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
         <v>0</v>
       </c>
       <c r="L39">
@@ -2656,37 +2784,40 @@
         <v>0</v>
       </c>
       <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>5</v>
       </c>
-      <c r="O39" s="4">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40">
         <v>19.899999999999999</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>5.7</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -2696,65 +2827,68 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <v>2</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>12</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>1315</v>
       </c>
-      <c r="P40" s="2">
+      <c r="Q40" s="2">
         <v>45625</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="4">
         <v>5.9</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41">
         <v>19</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>7.2</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>0.38</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
         <v>0.13</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
@@ -2762,52 +2896,55 @@
         <v>0</v>
       </c>
       <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>9</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>637</v>
       </c>
-      <c r="P41" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q41" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
         <v>18.600000000000001</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>7.1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>0.38</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>3</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
         <v>0.21</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -2815,37 +2952,40 @@
         <v>0</v>
       </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>7</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <v>2298</v>
       </c>
-      <c r="P42" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43">
         <v>15.8</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.2</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>0.01</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -2855,12 +2995,12 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
         <v>0.01</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
       <c r="L43">
         <v>0</v>
       </c>
@@ -2868,52 +3008,55 @@
         <v>0</v>
       </c>
       <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>15</v>
       </c>
-      <c r="O43" s="4">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44">
         <v>15.1</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>6.3</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>0.42</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.2</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>0</v>
       </c>
@@ -2921,37 +3064,40 @@
         <v>0</v>
       </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>8</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>461</v>
       </c>
-      <c r="P44" s="2">
+      <c r="Q44" s="2">
         <v>46531</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45">
         <v>11</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.7</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>0.06</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -2961,10 +3107,10 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
         <v>0</v>
       </c>
       <c r="L45">
@@ -2974,37 +3120,40 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>10</v>
-      </c>
-      <c r="O45" s="4">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46">
         <v>9.4</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>0.24</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
         <v>0</v>
       </c>
@@ -3014,12 +3163,12 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
         <v>0.01</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
       <c r="L46">
         <v>0</v>
       </c>
@@ -3027,37 +3176,40 @@
         <v>0</v>
       </c>
       <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>7</v>
       </c>
-      <c r="O46" s="4">
-        <v>0</v>
-      </c>
-      <c r="P46" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q46" s="4">
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R46" s="4">
         <v>0.38</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47">
         <v>7.1</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>4.2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>0.6</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -3067,10 +3219,10 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
         <v>0</v>
       </c>
       <c r="L47">
@@ -3080,37 +3232,40 @@
         <v>0</v>
       </c>
       <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <v>3</v>
       </c>
-      <c r="O47" s="4">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48">
         <v>5.7</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>4</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>0.71</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
       <c r="G48">
         <v>0</v>
       </c>
@@ -3120,10 +3275,10 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
         <v>0</v>
       </c>
       <c r="L48">
@@ -3133,37 +3288,40 @@
         <v>0</v>
       </c>
       <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <v>2</v>
       </c>
-      <c r="O48" s="4">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49">
         <v>5.2</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.5</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>0.09</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
       <c r="G49">
         <v>0</v>
       </c>
@@ -3173,10 +3331,10 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
         <v>0</v>
       </c>
       <c r="L49">
@@ -3186,37 +3344,40 @@
         <v>0</v>
       </c>
       <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <v>5</v>
       </c>
-      <c r="O49" s="4">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50">
         <v>5.2</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1.2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>0.23</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
       <c r="G50">
         <v>0</v>
       </c>
@@ -3226,10 +3387,10 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
         <v>0</v>
       </c>
       <c r="L50">
@@ -3239,37 +3400,40 @@
         <v>0</v>
       </c>
       <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <v>4</v>
       </c>
-      <c r="O50" s="4">
+      <c r="P50" s="4">
         <v>50</v>
       </c>
-      <c r="P50" s="2">
+      <c r="Q50" s="2">
         <v>47346</v>
       </c>
-      <c r="Q50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51">
         <v>4.5</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>2.1</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>0.46</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
       <c r="G51">
         <v>0</v>
       </c>
@@ -3279,10 +3443,10 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
         <v>0</v>
       </c>
       <c r="L51">
@@ -3292,35 +3456,38 @@
         <v>0</v>
       </c>
       <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
         <v>2</v>
       </c>
-      <c r="O51" s="4">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52">
@@ -3332,10 +3499,10 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52">
@@ -3345,37 +3512,40 @@
         <v>0</v>
       </c>
       <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <v>4</v>
       </c>
-      <c r="O52" s="4">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53">
         <v>3.7</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.5</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>0.15</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="G53">
         <v>0</v>
       </c>
@@ -3385,10 +3555,10 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53">
@@ -3398,37 +3568,40 @@
         <v>0</v>
       </c>
       <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
         <v>3</v>
       </c>
-      <c r="O53" s="4">
+      <c r="P53" s="4">
         <v>66</v>
       </c>
-      <c r="P53" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q53" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.1</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>0.05</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
         <v>0</v>
       </c>
@@ -3438,10 +3611,10 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
         <v>0</v>
       </c>
       <c r="L54">
@@ -3451,37 +3624,40 @@
         <v>0</v>
       </c>
       <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
         <v>2</v>
       </c>
-      <c r="O54" s="4">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55">
         <v>2</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.4</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>0.18</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
       <c r="G55">
         <v>0</v>
       </c>
@@ -3491,10 +3667,10 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
         <v>0</v>
       </c>
       <c r="L55">
@@ -3504,37 +3680,40 @@
         <v>0</v>
       </c>
       <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>2</v>
       </c>
-      <c r="O55" s="4">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56">
         <v>1.9</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0.3</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>0.18</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
       <c r="G56">
         <v>0</v>
       </c>
@@ -3544,12 +3723,12 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
         <v>0.09</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
       <c r="L56">
         <v>0</v>
       </c>
@@ -3557,35 +3736,38 @@
         <v>0</v>
       </c>
       <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
         <v>1</v>
       </c>
-      <c r="O56" s="4">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q56" s="4">
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R56" s="4">
         <v>0.24</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
-      <c r="C57">
-        <v>0</v>
+      <c r="C57" t="s">
+        <v>82</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57">
@@ -3612,33 +3794,36 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="O57" s="4">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
-        <v>0</v>
+      <c r="C58" t="s">
+        <v>83</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58">
@@ -3665,35 +3850,38 @@
       <c r="N58">
         <v>0</v>
       </c>
-      <c r="O58" s="4">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59">
         <v>967.6</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>108.1</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>0.11</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -3703,10 +3891,10 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="L59">
@@ -3718,33 +3906,36 @@
       <c r="N59">
         <v>0</v>
       </c>
-      <c r="O59" s="4">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="C60" t="s">
+        <v>83</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60">
@@ -3771,33 +3962,36 @@
       <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60" s="4">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61">
-        <v>0</v>
+      <c r="C61" t="s">
+        <v>83</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61">
@@ -3824,33 +4018,36 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61" s="4">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62">
-        <v>0</v>
+      <c r="C62" t="s">
+        <v>83</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62">
@@ -3877,33 +4074,36 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62" s="4">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63">
-        <v>0</v>
+      <c r="C63" t="s">
+        <v>83</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63">
@@ -3930,18 +4130,21 @@
       <c r="N63">
         <v>0</v>
       </c>
-      <c r="O63" s="4">
-        <v>0</v>
-      </c>
-      <c r="P63" s="2">
-        <v>73051</v>
-      </c>
-      <c r="Q63" s="4">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>73051</v>
+      </c>
+      <c r="R63" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q63"/>
+  <autoFilter ref="A1:R63"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Ecopetrol\ecopetrol 20\Priorizacion de activo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Ecopetrol\ecopetrol 20\Priorizacion de activo\bd_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -297,12 +297,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -317,13 +329,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +622,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="4"/>
     <col min="18" max="18" width="11.42578125" style="4"/>
@@ -655,19 +674,19 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>72</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>78</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -703,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>173</v>
@@ -712,19 +731,19 @@
         <v>109</v>
       </c>
       <c r="N2">
-        <v>282</v>
+        <v>119.16692900000001</v>
       </c>
       <c r="O2">
         <v>3929</v>
       </c>
-      <c r="P2" s="4">
-        <v>42197</v>
+      <c r="P2" s="8">
+        <v>31356.050999999999</v>
       </c>
       <c r="Q2" s="2">
         <v>73051</v>
       </c>
       <c r="R2" s="4">
-        <v>1036.5</v>
+        <v>446.45094249999994</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -759,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="K3" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -768,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>19.49651999999999</v>
       </c>
       <c r="O3">
         <v>556</v>
       </c>
       <c r="P3" s="4">
-        <v>25475</v>
+        <v>23643.14633333333</v>
       </c>
       <c r="Q3" s="2">
         <v>73051</v>
       </c>
       <c r="R3" s="4">
-        <v>193</v>
+        <v>27.016549999999999</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -815,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>91</v>
@@ -824,19 +843,19 @@
         <v>182</v>
       </c>
       <c r="N4">
-        <v>272</v>
+        <v>55.526497146925344</v>
       </c>
       <c r="O4">
         <v>1217</v>
       </c>
       <c r="P4" s="4">
-        <v>20105</v>
+        <v>9206.9120000000003</v>
       </c>
       <c r="Q4" s="2">
         <v>44504</v>
       </c>
       <c r="R4" s="4">
-        <v>194</v>
+        <v>-929.52246105000006</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -871,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>16</v>
@@ -880,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="O5">
         <v>1333</v>
       </c>
       <c r="P5" s="4">
-        <v>44510</v>
+        <v>30241.685666666672</v>
       </c>
       <c r="Q5" s="2">
         <v>73051</v>
       </c>
       <c r="R5" s="4">
-        <v>311.5</v>
+        <v>13.315149999999999</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -927,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -936,19 +955,19 @@
         <v>92</v>
       </c>
       <c r="N6">
-        <v>93</v>
+        <v>53.7625058</v>
       </c>
       <c r="O6">
         <v>1173</v>
       </c>
       <c r="P6" s="4">
-        <v>7944</v>
+        <v>6874.5153333333328</v>
       </c>
       <c r="Q6" s="2">
         <v>73051</v>
       </c>
       <c r="R6" s="4">
-        <v>245</v>
+        <v>127.34496419999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -983,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="K7" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>102</v>
@@ -992,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>102</v>
+        <v>160.94029839999999</v>
       </c>
       <c r="O7">
         <v>885</v>
       </c>
       <c r="P7" s="4">
-        <v>1848</v>
+        <v>1037.5103333333329</v>
       </c>
       <c r="Q7" s="2">
         <v>73051</v>
       </c>
       <c r="R7" s="4">
-        <v>462.41</v>
+        <v>95.581766000000002</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1039,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1048,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>46.626800000000003</v>
       </c>
       <c r="O8">
         <v>110</v>
       </c>
       <c r="P8" s="4">
-        <v>24053</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>73051</v>
       </c>
       <c r="R8" s="4">
-        <v>483</v>
+        <v>429.96997999999996</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1095,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1104,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2.7617500000000001</v>
       </c>
       <c r="O9">
         <v>371</v>
       </c>
       <c r="P9" s="4">
-        <v>3601</v>
+        <v>1546.663</v>
       </c>
       <c r="Q9" s="2">
         <v>73051</v>
       </c>
       <c r="R9" s="4">
-        <v>24.13</v>
+        <v>10.06936</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1151,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1160,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>19.61</v>
       </c>
       <c r="O10">
         <v>596</v>
       </c>
       <c r="P10" s="4">
-        <v>2216</v>
+        <v>2051.0366666666669</v>
       </c>
       <c r="Q10" s="2">
         <v>73051</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>87.519920000000013</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1207,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -1216,19 +1235,19 @@
         <v>2</v>
       </c>
       <c r="N11">
-        <v>52</v>
+        <v>45.254841399999989</v>
       </c>
       <c r="O11">
         <v>386</v>
       </c>
       <c r="P11" s="4">
-        <v>5632</v>
+        <v>4445.9859999999999</v>
       </c>
       <c r="Q11" s="2">
         <v>45466</v>
       </c>
       <c r="R11" s="4">
-        <v>141.57</v>
+        <v>132.96341859999998</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1263,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1272,19 +1291,19 @@
         <v>25</v>
       </c>
       <c r="N12">
-        <v>25</v>
+        <v>23.7125807</v>
       </c>
       <c r="O12">
         <v>303</v>
       </c>
       <c r="P12" s="4">
-        <v>7686</v>
+        <v>7288.2396666666673</v>
       </c>
       <c r="Q12" s="2">
         <v>45199</v>
       </c>
       <c r="R12" s="4">
-        <v>128.74</v>
+        <v>96.523447000000004</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1319,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1328,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.4727203</v>
       </c>
       <c r="O13">
         <v>192</v>
       </c>
       <c r="P13" s="4">
-        <v>2580</v>
+        <v>2548.0696666666668</v>
       </c>
       <c r="Q13" s="2">
         <v>73051</v>
       </c>
       <c r="R13" s="4">
-        <v>13.8</v>
+        <v>-17.578653099999997</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1375,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1384,19 +1403,19 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>3.8694877999999995</v>
       </c>
       <c r="O14">
         <v>183</v>
       </c>
       <c r="P14" s="4">
-        <v>208</v>
+        <v>174.86600000000001</v>
       </c>
       <c r="Q14" s="2">
         <v>73051</v>
       </c>
       <c r="R14" s="4">
-        <v>25.77</v>
+        <v>7.509219400000001</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1431,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1440,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>4.9999899999999986</v>
       </c>
       <c r="O15">
         <v>82</v>
       </c>
       <c r="P15" s="4">
-        <v>2501</v>
+        <v>15670.242469999997</v>
       </c>
       <c r="Q15" s="2">
         <v>47847</v>
       </c>
       <c r="R15" s="4">
-        <v>43.35</v>
+        <v>8.6288300000000042</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1486,7 +1505,7 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16">
@@ -1495,7 +1514,7 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="9">
         <v>3</v>
       </c>
       <c r="O16">
@@ -1507,7 +1526,7 @@
       <c r="Q16" s="2">
         <v>73051</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1543,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1552,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.49421</v>
       </c>
       <c r="O17">
         <v>59</v>
       </c>
       <c r="P17" s="4">
-        <v>0</v>
+        <v>4579.7260000000006</v>
       </c>
       <c r="Q17" s="2">
         <v>73051</v>
       </c>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>2.6588799999999999</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1607,19 +1626,19 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="9">
         <v>0</v>
       </c>
       <c r="O18">
         <v>71</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="7">
         <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>73051</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1655,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1664,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.6570594999999999</v>
       </c>
       <c r="O19">
         <v>53</v>
       </c>
       <c r="P19" s="4">
-        <v>1915</v>
+        <v>1630.8612266666664</v>
       </c>
       <c r="Q19" s="2">
         <v>73051</v>
       </c>
       <c r="R19" s="4">
-        <v>9.83</v>
+        <v>10.416559999999999</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1711,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1720,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.4460399999999982</v>
       </c>
       <c r="O20">
         <v>40</v>
       </c>
       <c r="P20" s="4">
-        <v>5780</v>
+        <v>5530.598</v>
       </c>
       <c r="Q20" s="2">
         <v>44934</v>
       </c>
       <c r="R20" s="4">
-        <v>33.42</v>
+        <v>4.6826400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1767,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1776,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>3.6542709999999996</v>
       </c>
       <c r="O21">
         <v>50</v>
       </c>
       <c r="P21" s="4">
-        <v>6415</v>
+        <v>5608.5370000000003</v>
       </c>
       <c r="Q21" s="2">
         <v>46796</v>
       </c>
       <c r="R21" s="4">
-        <v>42.17</v>
+        <v>20.369557</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1823,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1832,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.9499999999999999E-3</v>
       </c>
       <c r="O22">
         <v>65</v>
       </c>
       <c r="P22" s="4">
-        <v>122</v>
+        <v>13.31666666666667</v>
       </c>
       <c r="Q22" s="2">
         <v>73051</v>
       </c>
       <c r="R22" s="4">
-        <v>0</v>
+        <v>-2.768E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1887,19 +1906,19 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="9">
         <v>0</v>
       </c>
       <c r="O23">
         <v>69</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="7">
         <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>73051</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1935,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1944,19 +1963,19 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>1.79857</v>
       </c>
       <c r="O24">
         <v>15</v>
       </c>
       <c r="P24" s="4">
-        <v>9782</v>
+        <v>3841.1003333333319</v>
       </c>
       <c r="Q24" s="2">
         <v>47216</v>
       </c>
       <c r="R24" s="4">
-        <v>41.3</v>
+        <v>10.598739999999999</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -1991,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2000,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>0.96706120000000007</v>
       </c>
       <c r="O25">
         <v>48</v>
       </c>
       <c r="P25" s="4">
-        <v>2560</v>
+        <v>282.29700000000003</v>
       </c>
       <c r="Q25" s="2">
         <v>73051</v>
       </c>
       <c r="R25" s="4">
-        <v>8.84</v>
+        <v>-3.9080223999999992</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2047,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2056,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1.8878300000000001</v>
       </c>
       <c r="O26">
         <v>26</v>
       </c>
       <c r="P26" s="4">
-        <v>2668</v>
+        <v>2576.0535833333333</v>
       </c>
       <c r="Q26" s="2">
         <v>73051</v>
       </c>
       <c r="R26" s="4">
-        <v>0</v>
+        <v>7.9404399999999997</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2103,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2112,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.64514300000000002</v>
       </c>
       <c r="O27">
         <v>23</v>
       </c>
       <c r="P27" s="4">
-        <v>631</v>
+        <v>836.69100000000003</v>
       </c>
       <c r="Q27" s="2">
         <v>73051</v>
       </c>
       <c r="R27" s="4">
-        <v>0</v>
+        <v>-4.5293926999999998</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2159,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2168,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>0.33513999999999999</v>
       </c>
       <c r="O28">
         <v>26</v>
       </c>
       <c r="P28" s="4">
-        <v>496</v>
+        <v>405.5693333333333</v>
       </c>
       <c r="Q28" s="2">
         <v>45575</v>
       </c>
       <c r="R28" s="4">
-        <v>-2</v>
+        <v>-2.7976399999999999</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2215,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2224,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1.1455070000000001</v>
       </c>
       <c r="O29">
         <v>9</v>
       </c>
       <c r="P29" s="4">
-        <v>814</v>
+        <v>891.18066666666664</v>
       </c>
       <c r="Q29" s="2">
         <v>73051</v>
       </c>
       <c r="R29" s="4">
-        <v>2.6</v>
+        <v>-7.2189549999999993</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2271,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2279,19 +2298,19 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="9">
         <v>0</v>
       </c>
       <c r="O30">
         <v>28</v>
       </c>
       <c r="P30" s="4">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2">
         <v>73051</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2335,19 +2354,19 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="9">
         <v>0</v>
       </c>
       <c r="O31">
         <v>31</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="7">
         <v>0</v>
       </c>
       <c r="Q31" s="2">
         <v>73051</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2383,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="1">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2392,19 +2411,19 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>2.51708</v>
       </c>
       <c r="O32">
         <v>14</v>
       </c>
       <c r="P32" s="4">
-        <v>1820</v>
+        <v>1752.6916666666671</v>
       </c>
       <c r="Q32" s="2">
         <v>73051</v>
       </c>
       <c r="R32" s="4">
-        <v>73.819999999999993</v>
+        <v>14.62975</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2447,19 +2466,19 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="9">
         <v>0</v>
       </c>
       <c r="O33">
         <v>10</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="7">
         <v>0</v>
       </c>
       <c r="Q33" s="2">
         <v>73051</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2503,19 +2522,19 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="9">
         <v>0</v>
       </c>
       <c r="O34">
         <v>26</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="7">
         <v>0</v>
       </c>
       <c r="Q34" s="2">
         <v>73051</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2551,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2560,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.41635100000000003</v>
       </c>
       <c r="O35">
         <v>18</v>
       </c>
       <c r="P35" s="4">
-        <v>848</v>
+        <v>470.8126666666667</v>
       </c>
       <c r="Q35" s="2">
         <v>73051</v>
       </c>
       <c r="R35" s="4">
-        <v>3.79</v>
+        <v>1.3244400000000001</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2615,19 +2634,19 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="9">
         <v>0</v>
       </c>
       <c r="O36">
         <v>25</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="7">
         <v>0</v>
       </c>
       <c r="Q36" s="2">
         <v>73051</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2663,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2671,20 +2690,20 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="9">
         <v>0</v>
       </c>
       <c r="O37">
         <v>24</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="7">
         <v>0</v>
       </c>
       <c r="Q37" s="2">
         <v>73051</v>
       </c>
-      <c r="R37" s="4">
-        <v>0.7</v>
+      <c r="R37" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2719,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2728,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1.7739999999999999E-2</v>
       </c>
       <c r="O38">
         <v>6</v>
       </c>
       <c r="P38" s="4">
-        <v>238</v>
+        <v>107.7353333333333</v>
       </c>
       <c r="Q38" s="2">
         <v>73051</v>
       </c>
       <c r="R38" s="4">
-        <v>-2.6</v>
+        <v>-1.5964</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2783,19 +2802,19 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="9">
         <v>0</v>
       </c>
       <c r="O39">
         <v>5</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="7">
         <v>0</v>
       </c>
       <c r="Q39" s="2">
         <v>73051</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2840,19 +2859,19 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>0.58449189999999995</v>
       </c>
       <c r="O40">
         <v>12</v>
       </c>
       <c r="P40" s="4">
-        <v>1315</v>
+        <v>1230.2233333333329</v>
       </c>
       <c r="Q40" s="2">
         <v>45625</v>
       </c>
       <c r="R40" s="4">
-        <v>5.9</v>
+        <v>0.29530950000000011</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2887,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2896,19 +2915,19 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.42948999999999998</v>
       </c>
       <c r="O41">
         <v>9</v>
       </c>
       <c r="P41" s="4">
-        <v>637</v>
+        <v>724.25233333333324</v>
       </c>
       <c r="Q41" s="2">
         <v>73051</v>
       </c>
       <c r="R41" s="4">
-        <v>0</v>
+        <v>0.47681999999999902</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2943,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2952,19 +2971,19 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>2.368366</v>
       </c>
       <c r="O42">
         <v>7</v>
       </c>
       <c r="P42" s="4">
-        <v>2298</v>
+        <v>2096.9676666666664</v>
       </c>
       <c r="Q42" s="2">
         <v>73051</v>
       </c>
       <c r="R42" s="4">
-        <v>0</v>
+        <v>7.7617200000000013</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2999,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3007,19 +3026,19 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="9">
         <v>0</v>
       </c>
       <c r="O43">
         <v>15</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="7">
         <v>0</v>
       </c>
       <c r="Q43" s="2">
         <v>73051</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3055,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3064,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>0.28870000000000001</v>
       </c>
       <c r="O44">
         <v>8</v>
       </c>
       <c r="P44" s="4">
-        <v>461</v>
+        <v>298.80333333333334</v>
       </c>
       <c r="Q44" s="2">
         <v>46531</v>
       </c>
       <c r="R44" s="4">
-        <v>1.5</v>
+        <v>-1.07311</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3119,19 +3138,19 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="9">
         <v>0</v>
       </c>
       <c r="O45">
         <v>10</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="7">
         <v>0</v>
       </c>
       <c r="Q45" s="2">
         <v>73051</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3167,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -3175,20 +3194,20 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="9">
         <v>0</v>
       </c>
       <c r="O46">
         <v>7</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="7">
         <v>0</v>
       </c>
       <c r="Q46" s="2">
         <v>73051</v>
       </c>
-      <c r="R46" s="4">
-        <v>0.38</v>
+      <c r="R46" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3231,19 +3250,19 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="9">
         <v>0</v>
       </c>
       <c r="O47">
         <v>3</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="7">
         <v>0</v>
       </c>
       <c r="Q47" s="2">
         <v>73051</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3287,19 +3306,19 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="9">
         <v>0</v>
       </c>
       <c r="O48">
         <v>2</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="7">
         <v>0</v>
       </c>
       <c r="Q48" s="2">
         <v>73051</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3343,19 +3362,19 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="9">
         <v>0</v>
       </c>
       <c r="O49">
         <v>5</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="7">
         <v>0</v>
       </c>
       <c r="Q49" s="2">
         <v>73051</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R49" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3399,19 +3418,19 @@
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="9">
         <v>0</v>
       </c>
       <c r="O50">
         <v>4</v>
       </c>
-      <c r="P50" s="4">
-        <v>50</v>
+      <c r="P50" s="7">
+        <v>0</v>
       </c>
       <c r="Q50" s="2">
         <v>47346</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3455,19 +3474,19 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="9">
         <v>0</v>
       </c>
       <c r="O51">
         <v>2</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="7">
         <v>0</v>
       </c>
       <c r="Q51" s="2">
         <v>73051</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R51" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3511,19 +3530,19 @@
       <c r="M52">
         <v>0</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="9">
         <v>0</v>
       </c>
       <c r="O52">
         <v>4</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="7">
         <v>0</v>
       </c>
       <c r="Q52" s="2">
         <v>73051</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3568,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>0.13311000000000001</v>
       </c>
       <c r="O53">
         <v>3</v>
       </c>
       <c r="P53" s="4">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="2">
         <v>73051</v>
       </c>
       <c r="R53" s="4">
-        <v>0</v>
+        <v>-4.6864080000000001</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3623,19 +3642,19 @@
       <c r="M54">
         <v>0</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="9">
         <v>0</v>
       </c>
       <c r="O54">
         <v>2</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="7">
         <v>0</v>
       </c>
       <c r="Q54" s="2">
         <v>73051</v>
       </c>
-      <c r="R54" s="4">
+      <c r="R54" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3679,19 +3698,19 @@
       <c r="M55">
         <v>0</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="9">
         <v>0</v>
       </c>
       <c r="O55">
         <v>2</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="7">
         <v>0</v>
       </c>
       <c r="Q55" s="2">
         <v>73051</v>
       </c>
-      <c r="R55" s="4">
+      <c r="R55" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3727,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3735,20 +3754,20 @@
       <c r="M56">
         <v>0</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="9">
         <v>0</v>
       </c>
       <c r="O56">
         <v>1</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="7">
         <v>0</v>
       </c>
       <c r="Q56" s="2">
         <v>73051</v>
       </c>
-      <c r="R56" s="4">
-        <v>0.24</v>
+      <c r="R56" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3782,7 +3801,7 @@
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="1">
         <v>0</v>
       </c>
       <c r="L57">
@@ -3791,19 +3810,19 @@
       <c r="M57">
         <v>0</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="9">
         <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="7">
         <v>0</v>
       </c>
       <c r="Q57" s="2">
         <v>73051</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3838,7 +3857,7 @@
       <c r="J58">
         <v>0</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>0</v>
       </c>
       <c r="L58">
@@ -3847,19 +3866,19 @@
       <c r="M58">
         <v>0</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="9">
         <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="7">
         <v>0</v>
       </c>
       <c r="Q58" s="2">
         <v>73051</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3903,19 +3922,19 @@
       <c r="M59">
         <v>0</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="9">
         <v>0</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="7">
         <v>0</v>
       </c>
       <c r="Q59" s="2">
         <v>73051</v>
       </c>
-      <c r="R59" s="4">
+      <c r="R59" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3950,7 +3969,7 @@
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>0</v>
       </c>
       <c r="L60">
@@ -3959,19 +3978,19 @@
       <c r="M60">
         <v>0</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="9">
         <v>0</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="7">
         <v>0</v>
       </c>
       <c r="Q60" s="2">
         <v>73051</v>
       </c>
-      <c r="R60" s="4">
+      <c r="R60" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4006,7 +4025,7 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>0</v>
       </c>
       <c r="L61">
@@ -4015,19 +4034,19 @@
       <c r="M61">
         <v>0</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="9">
         <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="7">
         <v>0</v>
       </c>
       <c r="Q61" s="2">
         <v>73051</v>
       </c>
-      <c r="R61" s="4">
+      <c r="R61" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4062,7 +4081,7 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="1">
         <v>0</v>
       </c>
       <c r="L62">
@@ -4071,19 +4090,19 @@
       <c r="M62">
         <v>0</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="9">
         <v>0</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="7">
         <v>0</v>
       </c>
       <c r="Q62" s="2">
         <v>73051</v>
       </c>
-      <c r="R62" s="4">
+      <c r="R62" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4118,7 +4137,7 @@
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="1">
         <v>0</v>
       </c>
       <c r="L63">
@@ -4127,19 +4146,19 @@
       <c r="M63">
         <v>0</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="9">
         <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="7">
         <v>0</v>
       </c>
       <c r="Q63" s="2">
         <v>73051</v>
       </c>
-      <c r="R63" s="4">
+      <c r="R63" s="7">
         <v>0</v>
       </c>
     </row>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bd!$A$1:$P$53</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -252,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +266,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,20 +318,22 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -604,27 +616,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="10" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,17 +677,18 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -684,10 +698,10 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="14">
         <v>5314</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>890.94282214329996</v>
       </c>
       <c r="F2" s="3">
@@ -714,17 +728,17 @@
       <c r="M2">
         <v>520</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>34738.507480008651</v>
       </c>
       <c r="O2" s="4">
         <v>54789</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -734,10 +748,10 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>1932.73</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="14">
         <v>1332.4059633419999</v>
       </c>
       <c r="F3" s="3">
@@ -764,17 +778,17 @@
       <c r="M3">
         <v>54</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>24690.292110987513</v>
       </c>
       <c r="O3" s="4">
-        <v>73051</v>
-      </c>
-      <c r="P3" s="10">
+        <v>54789</v>
+      </c>
+      <c r="P3" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -784,10 +798,10 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>2179</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
         <v>168.13514315</v>
       </c>
       <c r="F4" s="3">
@@ -814,17 +828,17 @@
       <c r="M4">
         <v>457</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>19241.870346372514</v>
       </c>
       <c r="O4" s="4">
         <v>44504</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>-3729</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -834,10 +848,10 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>1578</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <v>172.50602499999999</v>
       </c>
       <c r="F5" s="3">
@@ -869,17 +883,17 @@
         <f>+G5+H5+I5+K5+L5</f>
         <v>64</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>35085</v>
       </c>
       <c r="O5" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P5" s="10">
+        <v>48549</v>
+      </c>
+      <c r="P5" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -889,10 +903,10 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>1443</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>138.5286728897</v>
       </c>
       <c r="F6" s="3">
@@ -921,17 +935,17 @@
         <f t="shared" ref="M6:M10" si="1">+G6+H6+I6+K6+L6</f>
         <v>134</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>7090.062434186133</v>
       </c>
       <c r="O6" s="4">
         <v>54789</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -941,10 +955,10 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <v>1333</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
         <v>105.1198741038</v>
       </c>
       <c r="F7" s="3">
@@ -973,17 +987,17 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>1382.9410815721169</v>
       </c>
       <c r="O7" s="4">
         <v>54789</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -993,10 +1007,10 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>1160.2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
         <v>957.29570999999999</v>
       </c>
       <c r="F8" s="3">
@@ -1025,17 +1039,17 @@
         <f t="shared" si="1"/>
         <v>108.2</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>22454</v>
       </c>
       <c r="O8" s="4">
         <v>54789</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1045,10 +1059,10 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <v>661.42754385964929</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="14">
         <v>233.05295477701742</v>
       </c>
       <c r="F9" s="3">
@@ -1077,17 +1091,17 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>1632.9725472747498</v>
       </c>
       <c r="O9" s="4">
         <v>54789</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1097,10 +1111,10 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>621</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="14">
         <v>9.2504500000000007</v>
       </c>
       <c r="F10" s="3">
@@ -1132,17 +1146,17 @@
         <f t="shared" si="1"/>
         <v>20.9</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>2330</v>
       </c>
       <c r="O10" s="4">
         <v>54789</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1152,10 +1166,10 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>495.4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="14">
         <v>32.72278489</v>
       </c>
       <c r="F11" s="3">
@@ -1183,17 +1197,17 @@
       <c r="M11">
         <v>77</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>4445.9859999999999</v>
       </c>
       <c r="O11" s="4">
         <v>45466</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1203,10 +1217,10 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>463.77192982456143</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="14">
         <v>120.188955635789</v>
       </c>
       <c r="F12" s="3">
@@ -1233,17 +1247,17 @@
       <c r="M12">
         <v>41</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>7575.6739491410217</v>
       </c>
       <c r="O12" s="4">
         <v>45199</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1253,10 +1267,10 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="14">
         <v>273.49535000000003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="14">
         <v>107.70165976999999</v>
       </c>
       <c r="F13" s="3">
@@ -1283,17 +1297,17 @@
       <c r="M13">
         <v>5</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>2106.7423399456184</v>
       </c>
       <c r="O13" s="4">
         <v>54789</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1303,10 +1317,10 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>198.76</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <v>1.4534310500000001</v>
       </c>
       <c r="F14" s="3">
@@ -1333,17 +1347,17 @@
       <c r="M14">
         <v>15</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>206.60353757261157</v>
       </c>
       <c r="O14" s="4">
         <v>54789</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1353,10 +1367,10 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="14">
         <v>136.751</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="14">
         <v>43.865886068999998</v>
       </c>
       <c r="F15" s="3">
@@ -1383,17 +1397,17 @@
       <c r="M15">
         <v>17</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>15538.002262081325</v>
       </c>
       <c r="O15" s="4">
         <v>47847</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1403,10 +1417,10 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <v>111.87</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="14">
         <v>9.0818396873000005</v>
       </c>
       <c r="F16" s="3">
@@ -1433,17 +1447,17 @@
       <c r="M16">
         <v>3</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>2.2974193548387096</v>
       </c>
       <c r="O16" s="4">
         <v>54789</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="9">
         <v>-47</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1453,10 +1467,10 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="14">
         <v>107.81756700000001</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="14">
         <v>50.715904689999995</v>
       </c>
       <c r="F17" s="3">
@@ -1483,17 +1497,17 @@
       <c r="M17">
         <v>4</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>1603.2725525274998</v>
       </c>
       <c r="O17" s="4">
         <v>54789</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1503,10 +1517,10 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="14">
         <v>95.150999999999996</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="14">
         <v>50.857705023000001</v>
       </c>
       <c r="F18" s="3">
@@ -1533,17 +1547,17 @@
       <c r="M18">
         <v>6</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>5284.0717887158562</v>
       </c>
       <c r="O18" s="4">
         <v>44934</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1553,10 +1567,10 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="14">
         <v>89.71</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="14">
         <v>33.031566771999998</v>
       </c>
       <c r="F19" s="3">
@@ -1583,17 +1597,17 @@
       <c r="M19">
         <v>10</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>5731.4773360733816</v>
       </c>
       <c r="O19" s="4">
         <v>46796</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1603,10 +1617,10 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="14">
         <v>76.649179083600202</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="14">
         <v>11.0557536173825</v>
       </c>
       <c r="F20" s="3">
@@ -1633,17 +1647,17 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>36.761201551106161</v>
       </c>
       <c r="O20" s="4">
         <v>54789</v>
       </c>
-      <c r="P20" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1653,10 +1667,10 @@
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="14">
         <v>68.989999999999995</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="14">
         <v>0.104827</v>
       </c>
       <c r="F21" s="3">
@@ -1683,17 +1697,17 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <v>54789</v>
       </c>
-      <c r="P21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1703,10 +1717,10 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="14">
         <v>243.23</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="14">
         <v>112.65211625000002</v>
       </c>
       <c r="F22" s="3">
@@ -1733,17 +1747,17 @@
       <c r="M22">
         <v>9</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>9827.8140291682084</v>
       </c>
       <c r="O22" s="4">
         <v>47216</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1753,10 +1767,10 @@
       <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="14">
         <v>85.510509903770654</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="14">
         <v>8.6261845921052629</v>
       </c>
       <c r="F23" s="3">
@@ -1783,17 +1797,17 @@
       <c r="M23">
         <v>5</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>368.67712918675073</v>
       </c>
       <c r="O23" s="4">
         <v>54789</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="9">
         <v>-11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1803,10 +1817,10 @@
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="14">
         <v>53.01700000000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="14">
         <v>23.510162859999998</v>
       </c>
       <c r="F24" s="3">
@@ -1833,17 +1847,17 @@
       <c r="M24">
         <v>4</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>2665.9581817436037</v>
       </c>
       <c r="O24" s="4">
         <v>54789</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1853,10 +1867,10 @@
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="14">
         <v>40.992704999999994</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="14">
         <v>16.302252639999999</v>
       </c>
       <c r="F25" s="3">
@@ -1883,17 +1897,17 @@
       <c r="M25">
         <v>1</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <v>966.55100173031769</v>
       </c>
       <c r="O25" s="4">
         <v>54789</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="9">
         <v>-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1903,10 +1917,10 @@
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="14">
         <v>37.99</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="14">
         <v>10.811916780000001</v>
       </c>
       <c r="F26" s="3">
@@ -1933,17 +1947,17 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>451.53787387220365</v>
       </c>
       <c r="O26" s="4">
         <v>45575</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="10">
         <v>-3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1953,10 +1967,10 @@
       <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="14">
         <v>33.799999999999997</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="14">
         <v>22.458597099999999</v>
       </c>
       <c r="F27" s="3">
@@ -1983,17 +1997,17 @@
       <c r="M27">
         <v>2</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>806.04694629835603</v>
       </c>
       <c r="O27" s="4">
         <v>54789</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="9">
         <v>-7</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2003,10 +2017,10 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="14">
         <v>32.880000000000003</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="14">
         <v>4.2961292499999999</v>
       </c>
       <c r="F28" s="3">
@@ -2033,17 +2047,17 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <v>54789</v>
       </c>
-      <c r="P28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2053,10 +2067,10 @@
       <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="14">
         <v>31.66</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="14">
         <v>0.788636</v>
       </c>
       <c r="F29" s="3">
@@ -2083,17 +2097,17 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <v>54789</v>
       </c>
-      <c r="P29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2103,10 +2117,10 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="14">
         <v>56.269999999999996</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="14">
         <v>5.2579760100000001</v>
       </c>
       <c r="F30" s="3">
@@ -2133,17 +2147,17 @@
       <c r="M30">
         <v>11</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <v>6000</v>
       </c>
       <c r="O30" s="4">
         <v>54789</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2153,10 +2167,10 @@
       <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
         <v>0</v>
       </c>
       <c r="F31" s="3">
@@ -2183,15 +2197,17 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>0</v>
       </c>
       <c r="O31" s="4">
         <v>54789</v>
       </c>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2201,10 +2217,10 @@
       <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="14">
         <v>26.84</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="14">
         <v>0.52109399999999995</v>
       </c>
       <c r="F32" s="3">
@@ -2231,15 +2247,17 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <v>54789</v>
       </c>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2249,10 +2267,10 @@
       <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="14">
         <v>26.8</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="14">
         <v>7.2255541100000009</v>
       </c>
       <c r="F33" s="3">
@@ -2279,15 +2297,17 @@
       <c r="M33">
         <v>2</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <v>324.51562513904338</v>
       </c>
       <c r="O33" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>47571</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2297,10 +2317,10 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="14">
         <v>25.4</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="14">
         <v>0.1</v>
       </c>
       <c r="F34" s="3">
@@ -2327,15 +2347,17 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <v>54789</v>
       </c>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2345,10 +2367,10 @@
       <c r="C35" t="s">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="14">
         <v>25</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="14">
         <v>0.3</v>
       </c>
       <c r="F35" s="3">
@@ -2375,15 +2397,17 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <v>0</v>
       </c>
       <c r="O35" s="4">
         <v>54789</v>
       </c>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2393,10 +2417,10 @@
       <c r="C36" t="s">
         <v>53</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="14">
         <v>24.2914035087719</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="14">
         <v>14.6362538203509</v>
       </c>
       <c r="F36" s="3">
@@ -2423,15 +2447,17 @@
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <v>114.21092479297984</v>
       </c>
       <c r="O36" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>44277</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2441,10 +2467,10 @@
       <c r="C37" t="s">
         <v>53</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="14">
         <v>21.031578947368399</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="14">
         <v>16.4835851403509</v>
       </c>
       <c r="F37" s="3">
@@ -2471,15 +2497,17 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>0</v>
       </c>
       <c r="O37" s="4">
         <v>54789</v>
       </c>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2489,10 +2517,10 @@
       <c r="C38" t="s">
         <v>53</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="14">
         <v>19.916480724528299</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="14">
         <v>6.0521517106999996</v>
       </c>
       <c r="F38" s="3">
@@ -2519,17 +2547,17 @@
       <c r="M38">
         <v>2</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>1167.6008960573479</v>
       </c>
       <c r="O38" s="4">
         <v>45625</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="9">
         <v>-12</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2539,10 +2567,10 @@
       <c r="C39" t="s">
         <v>53</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="14">
         <v>15.7677468879169</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="14">
         <v>0.19799600000000001</v>
       </c>
       <c r="F39" s="3">
@@ -2569,17 +2597,17 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <v>0</v>
       </c>
       <c r="O39" s="4">
         <v>54789</v>
       </c>
-      <c r="P39" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2589,10 +2617,10 @@
       <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="14">
         <v>37.449564000000002</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="14">
         <v>14.9743681074</v>
       </c>
       <c r="F40" s="3">
@@ -2619,17 +2647,17 @@
       <c r="M40">
         <v>1</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="6">
         <v>2545.0086602397732</v>
       </c>
       <c r="O40" s="4">
         <v>46531</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2639,10 +2667,10 @@
       <c r="C41" t="s">
         <v>53</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="14">
         <v>11.047459460000001</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="14">
         <v>0.69309200000000004</v>
       </c>
       <c r="F41" s="3">
@@ -2669,17 +2697,17 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="6">
         <v>0</v>
       </c>
       <c r="O41" s="4">
         <v>54789</v>
       </c>
-      <c r="P41" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -2689,10 +2717,10 @@
       <c r="C42" t="s">
         <v>53</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="14">
         <v>9.379999999999999</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="14">
         <v>2.2718624900000002</v>
       </c>
       <c r="F42" s="3">
@@ -2719,17 +2747,17 @@
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="6">
         <v>27.46421950315165</v>
       </c>
       <c r="O42" s="4">
         <v>54789</v>
       </c>
-      <c r="P42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2739,10 +2767,10 @@
       <c r="C43" t="s">
         <v>53</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="14">
         <v>7.05</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="14">
         <v>4.2046700000000001</v>
       </c>
       <c r="F43" s="3">
@@ -2769,17 +2797,17 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="6">
         <v>0</v>
       </c>
       <c r="O43" s="4">
         <v>54789</v>
       </c>
-      <c r="P43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2789,10 +2817,10 @@
       <c r="C44" t="s">
         <v>53</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="14">
         <v>5.6596491228070196</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="14">
         <v>4.0242987719298204</v>
       </c>
       <c r="F44" s="3">
@@ -2819,17 +2847,17 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <v>0</v>
       </c>
       <c r="O44" s="4">
         <v>54789</v>
       </c>
-      <c r="P44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2839,10 +2867,10 @@
       <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="14">
         <v>5.1812229824561404</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="14">
         <v>1.1791424561403501</v>
       </c>
       <c r="F45" s="3">
@@ -2869,17 +2897,17 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>45</v>
       </c>
       <c r="O45" s="4">
         <v>47346</v>
       </c>
-      <c r="P45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2889,10 +2917,10 @@
       <c r="C46" t="s">
         <v>53</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="14">
         <v>4.51</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="14">
         <v>2.0801444600000001</v>
       </c>
       <c r="F46" s="3">
@@ -2919,17 +2947,17 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="6">
         <v>0</v>
       </c>
       <c r="O46" s="4">
         <v>54789</v>
       </c>
-      <c r="P46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2939,10 +2967,10 @@
       <c r="C47" t="s">
         <v>53</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="14">
         <v>5.999E-3</v>
       </c>
       <c r="F47" s="3">
@@ -2969,17 +2997,17 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="6">
         <v>0</v>
       </c>
       <c r="O47" s="4">
         <v>54789</v>
       </c>
-      <c r="P47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2989,10 +3017,10 @@
       <c r="C48" t="s">
         <v>53</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="14">
         <v>3.7</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="14">
         <v>0.5</v>
       </c>
       <c r="F48" s="3">
@@ -3019,17 +3047,17 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="6">
         <v>0</v>
       </c>
       <c r="O48" s="4">
         <v>54789</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="9">
         <v>-5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3039,10 +3067,10 @@
       <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="14">
         <v>2.23</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="14">
         <v>0.103676</v>
       </c>
       <c r="F49" s="3">
@@ -3069,17 +3097,17 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="6">
         <v>0</v>
       </c>
       <c r="O49" s="4">
         <v>54789</v>
       </c>
-      <c r="P49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -3089,10 +3117,10 @@
       <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="14">
         <v>0.355711</v>
       </c>
       <c r="F50" s="3">
@@ -3119,17 +3147,17 @@
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="6">
         <v>0</v>
       </c>
       <c r="O50" s="4">
         <v>54789</v>
       </c>
-      <c r="P50" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -3139,10 +3167,10 @@
       <c r="C51" t="s">
         <v>53</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="14">
         <v>1.86</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="14">
         <v>0.32769361000000002</v>
       </c>
       <c r="F51" s="3">
@@ -3169,17 +3197,17 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="6">
         <v>0</v>
       </c>
       <c r="O51" s="4">
         <v>54789</v>
       </c>
-      <c r="P51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -3189,10 +3217,10 @@
       <c r="C52" t="s">
         <v>70</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14">
         <v>0</v>
       </c>
       <c r="F52" s="3">
@@ -3219,27 +3247,27 @@
       <c r="M52">
         <v>0</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="6">
         <v>0</v>
       </c>
       <c r="O52" s="4">
         <v>54789</v>
       </c>
-      <c r="P52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
         <v>0</v>
       </c>
       <c r="F53" s="3">
@@ -3266,17 +3294,18 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="6">
         <v>50</v>
       </c>
       <c r="O53" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P53" s="11">
+        <v>45276</v>
+      </c>
+      <c r="P53" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P53"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -15,7 +15,7 @@
     <sheet name="bd" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bd!$A$1:$P$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bd!$A$1:$P$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,235 +27,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
   <si>
     <t>ACTIVO</t>
   </si>
   <si>
+    <t>OOIP</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>FR_Act</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>FR_Incremental</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>Potencial_Incorporacion</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>Fecha_fin</t>
+  </si>
+  <si>
+    <t>CIRA - INFANTAS</t>
+  </si>
+  <si>
+    <t>CRAVO NORTE</t>
+  </si>
+  <si>
+    <t>TREN NARE</t>
+  </si>
+  <si>
+    <t>CPI PALAGUA</t>
+  </si>
+  <si>
+    <t>TECA-COCORNA</t>
+  </si>
+  <si>
+    <t>BALLENA - CHUCHUPA</t>
+  </si>
+  <si>
+    <t>LAS MONAS</t>
+  </si>
+  <si>
+    <t>CPI SURORIENTE</t>
+  </si>
+  <si>
+    <t>BOQUERON</t>
+  </si>
+  <si>
+    <t>CASANARE</t>
+  </si>
+  <si>
+    <t>AGUAS BLANCAS</t>
+  </si>
+  <si>
+    <t>COSECHA</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>GARCERO</t>
+  </si>
+  <si>
+    <t>RONDON</t>
+  </si>
+  <si>
+    <t>CHIPIRON</t>
+  </si>
+  <si>
+    <t>OPON</t>
+  </si>
+  <si>
+    <t>LA ROMPIDA</t>
+  </si>
+  <si>
+    <t>CARACARA</t>
+  </si>
+  <si>
+    <t>TISQUIRAMA ASO</t>
+  </si>
+  <si>
+    <t>COROCORA</t>
+  </si>
+  <si>
+    <t>ESTERO</t>
+  </si>
+  <si>
+    <t>ABANICO</t>
+  </si>
+  <si>
+    <t>OROCUE</t>
+  </si>
+  <si>
+    <t>SANTA LUCIA</t>
+  </si>
+  <si>
+    <t>CARBONERA</t>
+  </si>
+  <si>
+    <t>CAPACHOS</t>
+  </si>
+  <si>
+    <t>CATALINA</t>
+  </si>
+  <si>
+    <t>GUAYUYACO</t>
+  </si>
+  <si>
+    <t>GUARIQUIES</t>
+  </si>
+  <si>
+    <t>PAVAS-CACHIRA</t>
+  </si>
+  <si>
+    <t>GUADUAS</t>
+  </si>
+  <si>
+    <t>GUEPAJE</t>
+  </si>
+  <si>
+    <t>MATAMBO</t>
+  </si>
+  <si>
+    <t>TOCA</t>
+  </si>
+  <si>
+    <t>CAMPO RICO</t>
+  </si>
+  <si>
+    <t>BARRANCA LEBRIJA</t>
+  </si>
+  <si>
+    <t>GUACHIRIA</t>
+  </si>
+  <si>
+    <t>ALCARAVAN</t>
+  </si>
+  <si>
+    <t>MONTAÑUELO</t>
+  </si>
+  <si>
+    <t>CERRITO</t>
+  </si>
+  <si>
+    <t>HATO NUEVO</t>
+  </si>
+  <si>
+    <t>QUEBRADA ROJA</t>
+  </si>
+  <si>
+    <t>LOS POTROS</t>
+  </si>
+  <si>
+    <t>CHAPARRAL</t>
+  </si>
+  <si>
+    <t>TAMBAQUI</t>
+  </si>
+  <si>
+    <t>DOÑA MARIA</t>
+  </si>
+  <si>
+    <t>QUIFA-CAJUA</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
     <t>GERENCIA</t>
   </si>
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>OOIP</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>FR_Act</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>FR_Incremental</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>RV</t>
-  </si>
-  <si>
-    <t>Potencial_Incorporacion</t>
-  </si>
-  <si>
-    <t>Produccion</t>
-  </si>
-  <si>
-    <t>Fecha_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VPN </t>
-  </si>
-  <si>
-    <t>CIRA - INFANTAS</t>
-  </si>
-  <si>
     <t>VAS</t>
   </si>
   <si>
     <t>norte</t>
   </si>
   <si>
-    <t>CRAVO NORTE</t>
-  </si>
-  <si>
-    <t>TREN NARE</t>
-  </si>
-  <si>
-    <t>QUIFA</t>
-  </si>
-  <si>
-    <t>CPI PALAGUA</t>
-  </si>
-  <si>
-    <t>TECA-COCORNA</t>
-  </si>
-  <si>
-    <t>BALLENA - CHUCHUPA</t>
-  </si>
-  <si>
-    <t>LAS MONAS</t>
-  </si>
-  <si>
-    <t>CAJUA</t>
-  </si>
-  <si>
-    <t>CPI SURORIENTE</t>
-  </si>
-  <si>
-    <t>BOQUERON</t>
-  </si>
-  <si>
-    <t>CASANARE</t>
-  </si>
-  <si>
-    <t>AGUAS BLANCAS</t>
-  </si>
-  <si>
-    <t>COSECHA</t>
-  </si>
-  <si>
-    <t>COLORADO</t>
-  </si>
-  <si>
     <t>sur</t>
   </si>
   <si>
-    <t>GARCERO</t>
-  </si>
-  <si>
-    <t>RONDON</t>
-  </si>
-  <si>
-    <t>CHIPIRON</t>
-  </si>
-  <si>
-    <t>OPON</t>
-  </si>
-  <si>
-    <t>LA ROMPIDA</t>
-  </si>
-  <si>
-    <t>CARACARA</t>
-  </si>
-  <si>
-    <t>TISQUIRAMA ASO</t>
-  </si>
-  <si>
-    <t>COROCORA</t>
-  </si>
-  <si>
-    <t>ESTERO</t>
-  </si>
-  <si>
-    <t>ABANICO</t>
-  </si>
-  <si>
-    <t>OROCUE</t>
-  </si>
-  <si>
-    <t>SANTA LUCIA</t>
-  </si>
-  <si>
-    <t>CARBONERA</t>
-  </si>
-  <si>
-    <t>CAPACHOS</t>
-  </si>
-  <si>
-    <t>RIOHACHA</t>
-  </si>
-  <si>
-    <t>CATALINA</t>
-  </si>
-  <si>
-    <t>GUAYUYACO</t>
-  </si>
-  <si>
-    <t>GUARIQUIES</t>
-  </si>
-  <si>
-    <t>PAVAS-CACHIRA</t>
-  </si>
-  <si>
     <t>central</t>
-  </si>
-  <si>
-    <t>GUADUAS</t>
-  </si>
-  <si>
-    <t>GUEPAJE</t>
-  </si>
-  <si>
-    <t>MATAMBO</t>
-  </si>
-  <si>
-    <t>TOCA</t>
-  </si>
-  <si>
-    <t>CAMPO RICO</t>
-  </si>
-  <si>
-    <t>BARRANCA LEBRIJA</t>
-  </si>
-  <si>
-    <t>GUACHIRIA</t>
-  </si>
-  <si>
-    <t>ALCARAVAN</t>
-  </si>
-  <si>
-    <t>MONTAÑUELO</t>
-  </si>
-  <si>
-    <t>CERRITO</t>
-  </si>
-  <si>
-    <t>HATO NUEVO</t>
-  </si>
-  <si>
-    <t>QUEBRADA ROJA</t>
-  </si>
-  <si>
-    <t>LOS POTROS</t>
-  </si>
-  <si>
-    <t>CHAPARRAL</t>
-  </si>
-  <si>
-    <t>TAMBAQUI</t>
-  </si>
-  <si>
-    <t>DOÑA MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norte_central </t>
-  </si>
-  <si>
-    <t>VENTILADOR</t>
-  </si>
-  <si>
-    <t>FORTUNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,13 +253,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -313,29 +293,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
@@ -616,92 +600,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
     <col min="11" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="9" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="14">
+        <v>65</v>
+      </c>
+      <c r="D2" s="12">
         <v>5314</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>890.94282214329996</v>
       </c>
       <c r="F2" s="3">
@@ -728,30 +711,30 @@
       <c r="M2">
         <v>520</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="9">
         <v>34738.507480008651</v>
       </c>
       <c r="O2" s="4">
         <v>54789</v>
       </c>
-      <c r="P2" s="9">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="14">
+        <v>65</v>
+      </c>
+      <c r="D3" s="12">
         <v>1932.73</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1332.4059633419999</v>
       </c>
       <c r="F3" s="3">
@@ -778,30 +761,30 @@
       <c r="M3">
         <v>54</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="9">
         <v>24690.292110987513</v>
       </c>
       <c r="O3" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P3" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>73051</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="14">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12">
         <v>2179</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>168.13514315</v>
       </c>
       <c r="F4" s="3">
@@ -828,85 +811,89 @@
       <c r="M4">
         <v>457</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="9">
         <v>19241.870346372514</v>
       </c>
       <c r="O4" s="4">
         <v>44504</v>
       </c>
-      <c r="P4" s="9">
-        <v>-3729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
+      <c r="P4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D5" s="14">
-        <v>1578</v>
-      </c>
-      <c r="E5" s="14">
-        <v>172.50602499999999</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.10931940747782003</v>
-      </c>
-      <c r="G5">
-        <f>19*2</f>
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <f>6.8*2</f>
-        <v>13.6</v>
-      </c>
-      <c r="I5">
-        <f>6.2*2</f>
-        <v>12.4</v>
-      </c>
-      <c r="J5" s="3">
+        <f>1578+621</f>
+        <v>2199</v>
+      </c>
+      <c r="E5" s="15">
+        <f>172.506025+9.25</f>
+        <v>181.75602499999999</v>
+      </c>
+      <c r="F5" s="2">
+        <f>+E5/D5</f>
+        <v>8.2653944974988625E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f>19*2+2.6</f>
+        <v>40.6</v>
+      </c>
+      <c r="H5" s="1">
+        <f>6.8*2+5.6</f>
+        <v>19.2</v>
+      </c>
+      <c r="I5" s="1">
+        <f>6.2*2+2.4</f>
+        <v>14.8</v>
+      </c>
+      <c r="J5" s="2">
         <f>+M5/D5</f>
-        <v>4.0557667934093787E-2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+        <v>3.8608458390177347E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <f>+G5+H5+I5+K5+L5</f>
-        <v>64</v>
-      </c>
-      <c r="N5" s="6">
-        <v>35085</v>
-      </c>
-      <c r="O5" s="4">
-        <v>48549</v>
-      </c>
-      <c r="P5" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>84.899999999999991</v>
+      </c>
+      <c r="N5" s="8">
+        <f>35085+2330</f>
+        <v>37415</v>
+      </c>
+      <c r="O5" s="16">
+        <v>54789</v>
+      </c>
+      <c r="P5" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="14">
+        <v>65</v>
+      </c>
+      <c r="D6" s="12">
         <v>1443</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>138.5286728897</v>
       </c>
       <c r="F6" s="3">
@@ -922,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:J11" si="0">+M6/D6</f>
+        <f t="shared" ref="J6:J10" si="0">+M6/D6</f>
         <v>9.2862092862092863E-2</v>
       </c>
       <c r="K6">
@@ -932,33 +919,33 @@
         <v>92</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M10" si="1">+G6+H6+I6+K6+L6</f>
+        <f t="shared" ref="M6:M9" si="1">+G6+H6+I6+K6+L6</f>
         <v>134</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="9">
         <v>7090.062434186133</v>
       </c>
       <c r="O6" s="4">
         <v>54789</v>
       </c>
-      <c r="P6" s="9">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="14">
+        <v>65</v>
+      </c>
+      <c r="D7" s="12">
         <v>1333</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>105.1198741038</v>
       </c>
       <c r="F7" s="3">
@@ -987,30 +974,30 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="9">
         <v>1382.9410815721169</v>
       </c>
       <c r="O7" s="4">
         <v>54789</v>
       </c>
-      <c r="P7" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="14">
+        <v>65</v>
+      </c>
+      <c r="D8" s="12">
         <v>1160.2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>957.29570999999999</v>
       </c>
       <c r="F8" s="3">
@@ -1039,30 +1026,30 @@
         <f t="shared" si="1"/>
         <v>108.2</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="9">
         <v>22454</v>
       </c>
       <c r="O8" s="4">
         <v>54789</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="5">
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="14">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12">
         <v>661.42754385964929</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>233.05295477701742</v>
       </c>
       <c r="F9" s="3">
@@ -1091,143 +1078,138 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="9">
         <v>1632.9725472747498</v>
       </c>
       <c r="O9" s="4">
         <v>54789</v>
       </c>
-      <c r="P9" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="14">
-        <v>621</v>
-      </c>
-      <c r="E10" s="14">
-        <v>9.2504500000000007</v>
+        <v>65</v>
+      </c>
+      <c r="D10" s="12">
+        <v>495.4</v>
+      </c>
+      <c r="E10" s="13">
+        <v>32.72278489</v>
       </c>
       <c r="F10" s="3">
-        <v>1.4896054750402577E-2</v>
+        <v>6.6053259769882924E-2</v>
       </c>
       <c r="G10">
-        <f>1.3*2</f>
-        <v>2.6</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <f>2.8*2</f>
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <f>1.2*2</f>
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>3.3655394524959741E-2</v>
+        <v>0.15542995559144127</v>
       </c>
       <c r="K10">
-        <v>10.3</v>
+        <v>50</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>20.9</v>
-      </c>
-      <c r="N10" s="6">
-        <v>2330</v>
+        <v>77</v>
+      </c>
+      <c r="N10" s="9">
+        <v>4445.9859999999999</v>
       </c>
       <c r="O10" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P10" s="10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>45466</v>
+      </c>
+      <c r="P10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="14">
-        <v>495.4</v>
-      </c>
-      <c r="E11" s="14">
-        <v>32.72278489</v>
+        <v>65</v>
+      </c>
+      <c r="D11" s="12">
+        <v>463.77192982456143</v>
+      </c>
+      <c r="E11" s="13">
+        <v>120.188955635789</v>
       </c>
       <c r="F11" s="3">
-        <v>6.6053259769882924E-2</v>
+        <v>0.25915530437828532</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.15542995559144127</v>
+        <v>8.9402529437418221E-2</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M11">
-        <v>77</v>
-      </c>
-      <c r="N11" s="6">
-        <v>4445.9859999999999</v>
+        <v>41</v>
+      </c>
+      <c r="N11" s="9">
+        <v>7575.6739491410217</v>
       </c>
       <c r="O11" s="4">
-        <v>45466</v>
-      </c>
-      <c r="P11" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>45199</v>
+      </c>
+      <c r="P11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14">
-        <v>463.77192982456143</v>
-      </c>
-      <c r="E12" s="14">
-        <v>120.188955635789</v>
+        <v>65</v>
+      </c>
+      <c r="D12" s="12">
+        <v>273.49535000000003</v>
+      </c>
+      <c r="E12" s="13">
+        <v>107.70165976999999</v>
       </c>
       <c r="F12" s="3">
-        <v>0.25915530437828532</v>
+        <v>0.39379704177785829</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1236,199 +1218,199 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>8.9402529437418221E-2</v>
+        <v>1.5455950540958269E-2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>41</v>
-      </c>
-      <c r="N12" s="6">
-        <v>7575.6739491410217</v>
+        <v>5</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2106.7423399456184</v>
       </c>
       <c r="O12" s="4">
-        <v>45199</v>
-      </c>
-      <c r="P12" s="9">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>54789</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14">
-        <v>273.49535000000003</v>
-      </c>
-      <c r="E13" s="14">
-        <v>107.70165976999999</v>
+        <v>65</v>
+      </c>
+      <c r="D13" s="12">
+        <v>198.76</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1.4534310500000001</v>
       </c>
       <c r="F13" s="3">
-        <v>0.39379704177785829</v>
+        <v>7.312492704769572E-3</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>1.5455950540958269E-2</v>
+        <v>7.5452716297786715E-2</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13" s="6">
-        <v>2106.7423399456184</v>
+        <v>15</v>
+      </c>
+      <c r="N13" s="9">
+        <v>206.60353757261157</v>
       </c>
       <c r="O13" s="4">
         <v>54789</v>
       </c>
-      <c r="P13" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="12">
+        <v>136.751</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43.865886068999998</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.32077195829646582</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.12426900584795321</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14">
-        <v>198.76</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1.4534310500000001</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7.312492704769572E-3</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>7.5452716297786715E-2</v>
-      </c>
-      <c r="K14">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>15</v>
-      </c>
-      <c r="N14" s="6">
-        <v>206.60353757261157</v>
+      <c r="N14" s="9">
+        <v>15538.002262081325</v>
       </c>
       <c r="O14" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P14" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>47847</v>
+      </c>
+      <c r="P14" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14">
-        <v>136.751</v>
-      </c>
-      <c r="E15" s="14">
-        <v>43.865886068999998</v>
+        <v>65</v>
+      </c>
+      <c r="D15" s="12">
+        <v>111.87</v>
+      </c>
+      <c r="E15" s="13">
+        <v>9.0818396873000005</v>
       </c>
       <c r="F15" s="3">
-        <v>0.32077195829646582</v>
+        <v>8.1182083555019213E-2</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.1447721179624667E-3</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2.2974193548387096</v>
+      </c>
+      <c r="O15" s="4">
+        <v>54789</v>
+      </c>
+      <c r="P15">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="12">
+        <v>107.81756700000001</v>
+      </c>
+      <c r="E16" s="13">
+        <v>50.715904689999995</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.47038628399025167</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.12426900584795321</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>17</v>
-      </c>
-      <c r="N15" s="6">
-        <v>15538.002262081325</v>
-      </c>
-      <c r="O15" s="4">
-        <v>47847</v>
-      </c>
-      <c r="P15" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14">
-        <v>111.87</v>
-      </c>
-      <c r="E16" s="14">
-        <v>9.0818396873000005</v>
-      </c>
-      <c r="F16" s="3">
-        <v>8.1182083555019213E-2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -1436,57 +1418,57 @@
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>2.1447721179624667E-3</v>
+        <v>3.7105751391465679E-2</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16" s="6">
-        <v>2.2974193548387096</v>
+        <v>4</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1603.2725525274998</v>
       </c>
       <c r="O16" s="4">
         <v>54789</v>
       </c>
-      <c r="P16" s="9">
-        <v>-47</v>
+      <c r="P16">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="14">
-        <v>107.81756700000001</v>
-      </c>
-      <c r="E17" s="14">
-        <v>50.715904689999995</v>
+        <v>66</v>
+      </c>
+      <c r="D17" s="12">
+        <v>95.150999999999996</v>
+      </c>
+      <c r="E17" s="13">
+        <v>50.857705023000001</v>
       </c>
       <c r="F17" s="3">
-        <v>0.47038628399025167</v>
+        <v>0.53449469814295181</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>3.7105751391465679E-2</v>
+        <v>6.3025210084033612E-2</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1495,48 +1477,48 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1603.2725525274998</v>
+        <v>6</v>
+      </c>
+      <c r="N17" s="9">
+        <v>5284.0717887158562</v>
       </c>
       <c r="O17" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P17" s="9">
-        <v>9</v>
+        <v>44934</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="14">
-        <v>95.150999999999996</v>
-      </c>
-      <c r="E18" s="14">
-        <v>50.857705023000001</v>
+        <v>66</v>
+      </c>
+      <c r="D18" s="12">
+        <v>89.71</v>
+      </c>
+      <c r="E18" s="13">
+        <v>33.031566771999998</v>
       </c>
       <c r="F18" s="3">
-        <v>0.53449469814295181</v>
+        <v>0.36820384318359156</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>6.3025210084033612E-2</v>
+        <v>0.11148272017837235</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1545,48 +1527,48 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6</v>
-      </c>
-      <c r="N18" s="6">
-        <v>5284.0717887158562</v>
+        <v>10</v>
+      </c>
+      <c r="N18" s="9">
+        <v>5731.4773360733816</v>
       </c>
       <c r="O18" s="4">
-        <v>44934</v>
-      </c>
-      <c r="P18" s="9">
-        <v>3</v>
+        <v>46796</v>
+      </c>
+      <c r="P18">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="14">
-        <v>89.71</v>
-      </c>
-      <c r="E19" s="14">
-        <v>33.031566771999998</v>
+        <v>66</v>
+      </c>
+      <c r="D19" s="12">
+        <v>76.649179083600202</v>
+      </c>
+      <c r="E19" s="13">
+        <v>11.0557536173825</v>
       </c>
       <c r="F19" s="3">
-        <v>0.36820384318359156</v>
+        <v>0.1442383825836431</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>0.11148272017837235</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1595,36 +1577,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19" s="6">
-        <v>5731.4773360733816</v>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>36.761201551106161</v>
       </c>
       <c r="O19" s="4">
-        <v>46796</v>
-      </c>
-      <c r="P19" s="9">
-        <v>2</v>
+        <v>54789</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="14">
-        <v>76.649179083600202</v>
-      </c>
-      <c r="E20" s="14">
-        <v>11.0557536173825</v>
+        <v>66</v>
+      </c>
+      <c r="D20" s="12">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.104827</v>
       </c>
       <c r="F20" s="3">
-        <v>0.1442383825836431</v>
+        <v>1.5194520945064503E-3</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1647,137 +1629,137 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="6">
-        <v>36.761201551106161</v>
+      <c r="N20" s="9">
+        <v>0</v>
       </c>
       <c r="O20" s="4">
         <v>54789</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="14">
-        <v>68.989999999999995</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0.104827</v>
+        <v>66</v>
+      </c>
+      <c r="D21" s="12">
+        <v>243.23</v>
+      </c>
+      <c r="E21" s="13">
+        <v>112.65211625000002</v>
       </c>
       <c r="F21" s="3">
-        <v>1.5194520945064503E-3</v>
+        <v>0.46315058278172933</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>0.13846153846153847</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="N21" s="9">
+        <v>9827.8140291682084</v>
       </c>
       <c r="O21" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0</v>
+        <v>47216</v>
+      </c>
+      <c r="P21" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="14">
-        <v>243.23</v>
-      </c>
-      <c r="E22" s="14">
-        <v>112.65211625000002</v>
+        <v>66</v>
+      </c>
+      <c r="D22" s="12">
+        <v>85.510509903770654</v>
+      </c>
+      <c r="E22" s="13">
+        <v>8.6261845921052629</v>
       </c>
       <c r="F22" s="3">
-        <v>0.46315058278172933</v>
+        <v>0.10087864756990397</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0.13846153846153847</v>
+        <v>8.2644628099173556E-2</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>9</v>
-      </c>
-      <c r="N22" s="6">
-        <v>9827.8140291682084</v>
+        <v>5</v>
+      </c>
+      <c r="N22" s="9">
+        <v>368.67712918675073</v>
       </c>
       <c r="O22" s="4">
-        <v>47216</v>
-      </c>
-      <c r="P22" s="10">
-        <v>11</v>
+        <v>54789</v>
+      </c>
+      <c r="P22">
+        <v>-11</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="14">
-        <v>85.510509903770654</v>
-      </c>
-      <c r="E23" s="14">
-        <v>8.6261845921052629</v>
+        <v>66</v>
+      </c>
+      <c r="D23" s="12">
+        <v>53.01700000000001</v>
+      </c>
+      <c r="E23" s="13">
+        <v>23.510162859999998</v>
       </c>
       <c r="F23" s="3">
-        <v>0.10087864756990397</v>
+        <v>0.44344574117735808</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1786,48 +1768,48 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>8.2644628099173556E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5</v>
-      </c>
-      <c r="N23" s="6">
-        <v>368.67712918675073</v>
+        <v>4</v>
+      </c>
+      <c r="N23" s="9">
+        <v>2665.9581817436037</v>
       </c>
       <c r="O23" s="4">
         <v>54789</v>
       </c>
-      <c r="P23" s="9">
-        <v>-11</v>
+      <c r="P23">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="14">
-        <v>53.01700000000001</v>
-      </c>
-      <c r="E24" s="14">
-        <v>23.510162859999998</v>
+        <v>66</v>
+      </c>
+      <c r="D24" s="12">
+        <v>40.992704999999994</v>
+      </c>
+      <c r="E24" s="13">
+        <v>16.302252639999999</v>
       </c>
       <c r="F24" s="3">
-        <v>0.44344574117735808</v>
+        <v>0.39768667717829309</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1836,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>7.5471698113207544E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1845,36 +1827,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2665.9581817436037</v>
+        <v>1</v>
+      </c>
+      <c r="N24" s="9">
+        <v>966.55100173031769</v>
       </c>
       <c r="O24" s="4">
         <v>54789</v>
       </c>
-      <c r="P24" s="9">
-        <v>8</v>
+      <c r="P24">
+        <v>-4</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="14">
-        <v>40.992704999999994</v>
-      </c>
-      <c r="E25" s="14">
-        <v>16.302252639999999</v>
+        <v>66</v>
+      </c>
+      <c r="D25" s="12">
+        <v>37.99</v>
+      </c>
+      <c r="E25" s="13">
+        <v>10.811916780000001</v>
       </c>
       <c r="F25" s="3">
-        <v>0.39768667717829309</v>
+        <v>0.28459902026849171</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1886,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>2.4390243902439025E-2</v>
+        <v>2.6322716504343247E-2</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1897,37 +1879,37 @@
       <c r="M25">
         <v>1</v>
       </c>
-      <c r="N25" s="6">
-        <v>966.55100173031769</v>
+      <c r="N25" s="9">
+        <v>451.53787387220365</v>
       </c>
       <c r="O25" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P25" s="9">
-        <v>-2</v>
+        <v>45575</v>
+      </c>
+      <c r="P25" s="6">
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="14">
-        <v>37.99</v>
-      </c>
-      <c r="E26" s="14">
-        <v>10.811916780000001</v>
+        <v>66</v>
+      </c>
+      <c r="D26" s="12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E26" s="13">
+        <v>22.458597099999999</v>
       </c>
       <c r="F26" s="3">
-        <v>0.28459902026849171</v>
+        <v>0.66445553550295855</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1936,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>2.6322716504343247E-2</v>
+        <v>5.9171597633136098E-2</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1945,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <v>451.53787387220365</v>
+        <v>2</v>
+      </c>
+      <c r="N26" s="9">
+        <v>806.04694629835603</v>
       </c>
       <c r="O26" s="4">
-        <v>45575</v>
-      </c>
-      <c r="P26" s="10">
-        <v>-3</v>
+        <v>54789</v>
+      </c>
+      <c r="P26">
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="14">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E27" s="14">
-        <v>22.458597099999999</v>
+        <v>66</v>
+      </c>
+      <c r="D27" s="12">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="E27" s="13">
+        <v>4.2961292499999999</v>
       </c>
       <c r="F27" s="3">
-        <v>0.66445553550295855</v>
+        <v>0.1306608652676399</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1986,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>5.9171597633136098E-2</v>
+        <v>3.0395136778115502E-2</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1995,39 +1977,39 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27" s="6">
-        <v>806.04694629835603</v>
+        <v>1</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
       </c>
       <c r="O27" s="4">
         <v>54789</v>
       </c>
-      <c r="P27" s="9">
-        <v>-7</v>
+      <c r="P27" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="14">
-        <v>32.880000000000003</v>
-      </c>
-      <c r="E28" s="14">
-        <v>4.2961292499999999</v>
+        <v>66</v>
+      </c>
+      <c r="D28" s="12">
+        <v>31.66</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0.788636</v>
       </c>
       <c r="F28" s="3">
-        <v>0.1306608652676399</v>
+        <v>2.4909538850284272E-2</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2036,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>3.0395136778115502E-2</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2045,139 +2027,139 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <v>54789</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="14">
-        <v>31.66</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0.788636</v>
+        <v>66</v>
+      </c>
+      <c r="D29" s="12">
+        <v>56.269999999999996</v>
+      </c>
+      <c r="E29" s="13">
+        <v>5.2579760100000001</v>
       </c>
       <c r="F29" s="3">
-        <v>2.4909538850284272E-2</v>
+        <v>9.3441905278123349E-2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>0.39145907473309605</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="N29" s="9">
+        <v>6000</v>
       </c>
       <c r="O29" s="4">
         <v>54789</v>
       </c>
-      <c r="P29" s="10">
-        <v>0</v>
+      <c r="P29" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="14">
-        <v>56.269999999999996</v>
-      </c>
-      <c r="E30" s="14">
-        <v>5.2579760100000001</v>
+        <v>66</v>
+      </c>
+      <c r="D30" s="12">
+        <v>26.84</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.52109399999999995</v>
       </c>
       <c r="F30" s="3">
-        <v>9.3441905278123349E-2</v>
+        <v>1.9414828614008939E-2</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>0.39145907473309605</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30" s="6">
-        <v>6000</v>
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
       </c>
       <c r="O30" s="4">
         <v>54789</v>
       </c>
-      <c r="P30" s="10">
-        <v>15</v>
+      <c r="P30" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D31" s="12">
+        <v>26.8</v>
+      </c>
+      <c r="E31" s="13">
+        <v>7.2255541100000009</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>0.26961022798507467</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2186,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="3">
-        <v>0</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2195,36 +2177,36 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N31" s="9">
+        <v>324.51562513904338</v>
       </c>
       <c r="O31" s="4">
         <v>54789</v>
       </c>
-      <c r="P31" s="10">
-        <v>0</v>
+      <c r="P31" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="14">
-        <v>26.84</v>
-      </c>
-      <c r="E32" s="14">
-        <v>0.52109399999999995</v>
+        <v>66</v>
+      </c>
+      <c r="D32" s="12">
+        <v>25.4</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.1</v>
       </c>
       <c r="F32" s="3">
-        <v>1.9414828614008939E-2</v>
+        <v>3.9370078740157488E-3</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2247,37 +2229,37 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <v>54789</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="14">
-        <v>26.8</v>
-      </c>
-      <c r="E33" s="14">
-        <v>7.2255541100000009</v>
+        <v>67</v>
+      </c>
+      <c r="D33" s="12">
+        <v>25</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.3</v>
       </c>
       <c r="F33" s="3">
-        <v>0.26961022798507467</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2286,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>7.4626865671641784E-2</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2295,39 +2277,39 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33" s="6">
-        <v>324.51562513904338</v>
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
       </c>
       <c r="O33" s="4">
-        <v>47571</v>
-      </c>
-      <c r="P33" s="10">
+        <v>54789</v>
+      </c>
+      <c r="P33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="14">
-        <v>25.4</v>
-      </c>
-      <c r="E34" s="14">
-        <v>0.1</v>
+        <v>67</v>
+      </c>
+      <c r="D34" s="12">
+        <v>24.2914035087719</v>
+      </c>
+      <c r="E34" s="13">
+        <v>14.6362538203509</v>
       </c>
       <c r="F34" s="3">
-        <v>3.9370078740157488E-3</v>
+        <v>0.60252812543604506</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2336,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>0</v>
+        <v>4.1152263374485597E-2</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2345,36 +2327,36 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N34" s="9">
+        <v>114.21092479297984</v>
       </c>
       <c r="O34" s="4">
         <v>54789</v>
       </c>
-      <c r="P34" s="10">
-        <v>0</v>
+      <c r="P34" s="6">
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="14">
-        <v>25</v>
-      </c>
-      <c r="E35" s="14">
-        <v>0.3</v>
+        <v>67</v>
+      </c>
+      <c r="D35" s="12">
+        <v>21.031578947368399</v>
+      </c>
+      <c r="E35" s="13">
+        <v>16.4835851403509</v>
       </c>
       <c r="F35" s="3">
-        <v>1.2E-2</v>
+        <v>0.78375404821488348</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2397,84 +2379,84 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="9">
         <v>0</v>
       </c>
       <c r="O35" s="4">
         <v>54789</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="14">
-        <v>24.2914035087719</v>
-      </c>
-      <c r="E36" s="14">
-        <v>14.6362538203509</v>
+        <v>67</v>
+      </c>
+      <c r="D36" s="12">
+        <v>19.916480724528299</v>
+      </c>
+      <c r="E36" s="13">
+        <v>6.0521517106999996</v>
       </c>
       <c r="F36" s="3">
-        <v>0.60252812543604506</v>
+        <v>0.30387656305395483</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.10050251256281408</v>
+      </c>
+      <c r="K36">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>4.1152263374485597E-2</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" s="6">
-        <v>114.21092479297984</v>
+        <v>2</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1167.6008960573479</v>
       </c>
       <c r="O36" s="4">
-        <v>44277</v>
-      </c>
-      <c r="P36" s="10">
-        <v>0</v>
+        <v>45625</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="14">
-        <v>21.031578947368399</v>
-      </c>
-      <c r="E37" s="14">
-        <v>16.4835851403509</v>
+        <v>67</v>
+      </c>
+      <c r="D37" s="12">
+        <v>15.7677468879169</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0.19799600000000001</v>
       </c>
       <c r="F37" s="3">
-        <v>0.78375404821488348</v>
+        <v>1.2557025515911079E-2</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2497,37 +2479,37 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="9">
         <v>0</v>
       </c>
       <c r="O37" s="4">
         <v>54789</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="14">
-        <v>19.916480724528299</v>
-      </c>
-      <c r="E38" s="14">
-        <v>6.0521517106999996</v>
+        <v>67</v>
+      </c>
+      <c r="D38" s="12">
+        <v>37.449564000000002</v>
+      </c>
+      <c r="E38" s="13">
+        <v>14.9743681074</v>
       </c>
       <c r="F38" s="3">
-        <v>0.30387656305395483</v>
+        <v>0.39985427086414144</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2536,45 +2518,45 @@
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>0.10050251256281408</v>
+        <v>6.6225165562913912E-2</v>
       </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>1</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38" s="6">
-        <v>1167.6008960573479</v>
+      <c r="N38" s="9">
+        <v>2545.0086602397732</v>
       </c>
       <c r="O38" s="4">
-        <v>45625</v>
-      </c>
-      <c r="P38" s="9">
-        <v>-12</v>
+        <v>46531</v>
+      </c>
+      <c r="P38" s="6">
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="14">
-        <v>15.7677468879169</v>
-      </c>
-      <c r="E39" s="14">
-        <v>0.19799600000000001</v>
+        <v>67</v>
+      </c>
+      <c r="D39" s="12">
+        <v>11.047459460000001</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0.69309200000000004</v>
       </c>
       <c r="F39" s="3">
-        <v>1.2557025515911079E-2</v>
+        <v>6.2737682134929515E-2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2597,37 +2579,37 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="9">
         <v>0</v>
       </c>
       <c r="O39" s="4">
         <v>54789</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="14">
-        <v>37.449564000000002</v>
-      </c>
-      <c r="E40" s="14">
-        <v>14.9743681074</v>
+        <v>67</v>
+      </c>
+      <c r="D40" s="12">
+        <v>9.379999999999999</v>
+      </c>
+      <c r="E40" s="13">
+        <v>2.2718624900000002</v>
       </c>
       <c r="F40" s="3">
-        <v>0.39985427086414144</v>
+        <v>0.24220282409381669</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2636,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>6.6225165562913912E-2</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2645,36 +2627,36 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40" s="6">
-        <v>2545.0086602397732</v>
+        <v>0</v>
+      </c>
+      <c r="N40" s="9">
+        <v>27.46421950315165</v>
       </c>
       <c r="O40" s="4">
-        <v>46531</v>
-      </c>
-      <c r="P40" s="10">
-        <v>-1</v>
+        <v>54789</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="14">
-        <v>11.047459460000001</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0.69309200000000004</v>
+        <v>67</v>
+      </c>
+      <c r="D41" s="12">
+        <v>7.05</v>
+      </c>
+      <c r="E41" s="13">
+        <v>4.2046700000000001</v>
       </c>
       <c r="F41" s="3">
-        <v>6.2737682134929515E-2</v>
+        <v>0.59640709219858157</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2697,34 +2679,34 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="9">
         <v>0</v>
       </c>
       <c r="O41" s="4">
         <v>54789</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="14">
-        <v>9.379999999999999</v>
-      </c>
-      <c r="E42" s="14">
-        <v>2.2718624900000002</v>
+        <v>67</v>
+      </c>
+      <c r="D42" s="12">
+        <v>5.6596491228070196</v>
+      </c>
+      <c r="E42" s="13">
+        <v>4.0242987719298204</v>
       </c>
       <c r="F42" s="3">
-        <v>0.24220282409381669</v>
+        <v>0.71105092994420238</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2747,34 +2729,34 @@
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" s="6">
-        <v>27.46421950315165</v>
+      <c r="N42" s="9">
+        <v>0</v>
       </c>
       <c r="O42" s="4">
         <v>54789</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="14">
-        <v>7.05</v>
-      </c>
-      <c r="E43" s="14">
-        <v>4.2046700000000001</v>
+        <v>67</v>
+      </c>
+      <c r="D43" s="12">
+        <v>5.1812229824561404</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1.1791424561403501</v>
       </c>
       <c r="F43" s="3">
-        <v>0.59640709219858157</v>
+        <v>0.22757994784879568</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2797,34 +2779,34 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="6">
-        <v>0</v>
+      <c r="N43" s="9">
+        <v>45</v>
       </c>
       <c r="O43" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P43" s="10">
+        <v>47346</v>
+      </c>
+      <c r="P43" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="14">
-        <v>5.6596491228070196</v>
-      </c>
-      <c r="E44" s="14">
-        <v>4.0242987719298204</v>
+        <v>67</v>
+      </c>
+      <c r="D44" s="12">
+        <v>4.51</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2.0801444600000001</v>
       </c>
       <c r="F44" s="3">
-        <v>0.71105092994420238</v>
+        <v>0.4612293702882484</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2847,34 +2829,34 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="9">
         <v>0</v>
       </c>
       <c r="O44" s="4">
         <v>54789</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P44" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="14">
-        <v>5.1812229824561404</v>
-      </c>
-      <c r="E45" s="14">
-        <v>1.1791424561403501</v>
+        <v>67</v>
+      </c>
+      <c r="D45" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E45" s="13">
+        <v>5.999E-3</v>
       </c>
       <c r="F45" s="3">
-        <v>0.22757994784879568</v>
+        <v>1.3634090909090907E-3</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2897,34 +2879,34 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="6">
-        <v>45</v>
+      <c r="N45" s="9">
+        <v>0</v>
       </c>
       <c r="O45" s="4">
-        <v>47346</v>
-      </c>
-      <c r="P45" s="10">
+        <v>54789</v>
+      </c>
+      <c r="P45" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="14">
-        <v>4.51</v>
-      </c>
-      <c r="E46" s="14">
-        <v>2.0801444600000001</v>
+        <v>67</v>
+      </c>
+      <c r="D46" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0.5</v>
       </c>
       <c r="F46" s="3">
-        <v>0.4612293702882484</v>
+        <v>0.13513513513513511</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2947,34 +2929,34 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="9">
         <v>0</v>
       </c>
       <c r="O46" s="4">
         <v>54789</v>
       </c>
-      <c r="P46" s="10">
-        <v>0</v>
+      <c r="P46">
+        <v>-5</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E47" s="14">
-        <v>5.999E-3</v>
+        <v>67</v>
+      </c>
+      <c r="D47" s="12">
+        <v>2.23</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0.103676</v>
       </c>
       <c r="F47" s="3">
-        <v>1.3634090909090907E-3</v>
+        <v>4.6491479820627804E-2</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2997,34 +2979,34 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="9">
         <v>0</v>
       </c>
       <c r="O47" s="4">
         <v>54789</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P47" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="14">
-        <v>3.7</v>
-      </c>
-      <c r="E48" s="14">
-        <v>0.5</v>
+        <v>67</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0.355711</v>
       </c>
       <c r="F48" s="3">
-        <v>0.13513513513513511</v>
+        <v>0.17522709359605912</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3047,34 +3029,34 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="9">
         <v>0</v>
       </c>
       <c r="O48" s="4">
         <v>54789</v>
       </c>
-      <c r="P48" s="9">
-        <v>-5</v>
+      <c r="P48" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
         <v>67</v>
       </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="14">
-        <v>2.23</v>
-      </c>
-      <c r="E49" s="14">
-        <v>0.103676</v>
+      <c r="D49" s="12">
+        <v>1.86</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.32769361000000002</v>
       </c>
       <c r="F49" s="3">
-        <v>4.6491479820627804E-2</v>
+        <v>0.17617936021505376</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3097,215 +3079,18 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="9">
         <v>0</v>
       </c>
       <c r="O49" s="4">
         <v>54789</v>
       </c>
-      <c r="P49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="14">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E50" s="14">
-        <v>0.355711</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0.17522709359605912</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>0</v>
-      </c>
-      <c r="O50" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="14">
-        <v>1.86</v>
-      </c>
-      <c r="E51" s="14">
-        <v>0.32769361000000002</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.17617936021505376</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="14">
-        <v>0</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0</v>
-      </c>
-      <c r="O52" s="4">
-        <v>54789</v>
-      </c>
-      <c r="P52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="14">
-        <v>0</v>
-      </c>
-      <c r="E53" s="14">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <v>50</v>
-      </c>
-      <c r="O53" s="4">
-        <v>45276</v>
-      </c>
-      <c r="P53" s="10">
+      <c r="P49" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P53"/>
+  <autoFilter ref="A1:P49"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
   <si>
     <t>ACTIVO</t>
   </si>
@@ -209,7 +209,10 @@
     <t>Observacion</t>
   </si>
   <si>
-    <t>x</t>
+    <t>inactivo</t>
+  </si>
+  <si>
+    <t>activo</t>
   </si>
 </sst>
 </file>
@@ -590,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,9 @@
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C2" s="14" t="s">
         <v>55</v>
       </c>
@@ -718,7 +723,9 @@
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="14" t="s">
         <v>55</v>
       </c>
@@ -769,7 +776,9 @@
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="14" t="s">
         <v>55</v>
       </c>
@@ -820,7 +829,9 @@
       <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" s="14" t="s">
         <v>55</v>
       </c>
@@ -880,7 +891,9 @@
       <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C6" s="14" t="s">
         <v>55</v>
       </c>
@@ -933,7 +946,9 @@
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
@@ -986,7 +1001,9 @@
       <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" s="14" t="s">
         <v>55</v>
       </c>
@@ -1039,7 +1056,9 @@
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" s="14" t="s">
         <v>55</v>
       </c>
@@ -1092,7 +1111,9 @@
       <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C10" s="14" t="s">
         <v>55</v>
       </c>
@@ -1144,7 +1165,9 @@
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
@@ -1195,6 +1218,9 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
@@ -1245,6 +1271,9 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
@@ -1295,6 +1324,9 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
@@ -1398,6 +1430,9 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
@@ -1448,6 +1483,9 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
@@ -1498,6 +1536,9 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C18" t="s">
         <v>55</v>
       </c>
@@ -1548,6 +1589,9 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
@@ -1651,6 +1695,9 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
@@ -1701,6 +1748,9 @@
       <c r="A22" t="s">
         <v>32</v>
       </c>
+      <c r="B22" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
@@ -1751,6 +1801,9 @@
       <c r="A23" t="s">
         <v>33</v>
       </c>
+      <c r="B23" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C23" t="s">
         <v>55</v>
       </c>
@@ -1801,6 +1854,9 @@
       <c r="A24" t="s">
         <v>34</v>
       </c>
+      <c r="B24" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C24" t="s">
         <v>55</v>
       </c>
@@ -1851,6 +1907,9 @@
       <c r="A25" t="s">
         <v>35</v>
       </c>
+      <c r="B25" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C25" t="s">
         <v>55</v>
       </c>
@@ -1901,6 +1960,9 @@
       <c r="A26" t="s">
         <v>36</v>
       </c>
+      <c r="B26" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
@@ -2057,6 +2119,9 @@
       <c r="A29" t="s">
         <v>39</v>
       </c>
+      <c r="B29" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C29" t="s">
         <v>55</v>
       </c>
@@ -2107,6 +2172,9 @@
       <c r="A30" t="s">
         <v>40</v>
       </c>
+      <c r="B30" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="s">
         <v>55</v>
       </c>
@@ -2263,6 +2331,9 @@
       <c r="A33" t="s">
         <v>43</v>
       </c>
+      <c r="B33" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C33" t="s">
         <v>55</v>
       </c>
@@ -2365,6 +2436,9 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -206,13 +206,13 @@
     <t>central</t>
   </si>
   <si>
-    <t>Observacion</t>
-  </si>
-  <si>
     <t>inactivo</t>
   </si>
   <si>
     <t>activo</t>
+  </si>
+  <si>
+    <t>Estatus</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -308,6 +308,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -315,7 +316,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -594,7 +604,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>53</v>
@@ -671,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>55</v>
@@ -710,7 +720,7 @@
         <v>520</v>
       </c>
       <c r="O2" s="18">
-        <v>34738.507480008651</v>
+        <v>34738.507480008702</v>
       </c>
       <c r="P2" s="19">
         <v>54789</v>
@@ -720,11 +730,11 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>55</v>
@@ -766,7 +776,7 @@
         <v>24690.292110987513</v>
       </c>
       <c r="P3" s="19">
-        <v>73051</v>
+        <v>54789</v>
       </c>
       <c r="Q3" s="14">
         <v>31</v>
@@ -777,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>55</v>
@@ -830,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>55</v>
@@ -888,11 +898,11 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>55</v>
@@ -929,7 +939,7 @@
         <v>92</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" ref="N6:N9" si="1">+H6+I6+J6+L6+M6</f>
+        <f>+H6+I6+J6+L6+M6</f>
         <v>134</v>
       </c>
       <c r="O6" s="18">
@@ -947,7 +957,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>55</v>
@@ -984,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N6:N9" si="1">+H7+I7+J7+L7+M7</f>
         <v>344</v>
       </c>
       <c r="O7" s="18">
@@ -1002,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>55</v>
@@ -1057,7 +1067,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>55</v>
@@ -1112,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>55</v>
@@ -1166,7 +1176,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>55</v>
@@ -1219,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -1272,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -1325,7 +1335,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -1378,7 +1388,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -1431,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -1484,7 +1494,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -1537,7 +1547,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -1590,7 +1600,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -1629,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>36.761201551106161</v>
+        <v>36.761201551106197</v>
       </c>
       <c r="P19" s="4">
         <v>54789</v>
@@ -1643,7 +1653,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -1696,7 +1706,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1749,7 +1759,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
@@ -1802,7 +1812,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -1855,7 +1865,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -1908,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
@@ -1961,7 +1971,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -2014,7 +2024,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -2067,7 +2077,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
@@ -2120,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
@@ -2173,7 +2183,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -2212,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="9">
-        <v>324.51562513904338</v>
+        <v>324.51562513904298</v>
       </c>
       <c r="P30" s="4">
         <v>54789</v>
@@ -2226,7 +2236,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
@@ -2279,7 +2289,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -2332,7 +2342,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>55</v>
@@ -2385,7 +2395,7 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
@@ -2438,7 +2448,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
@@ -2491,7 +2501,7 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
@@ -2544,7 +2554,7 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>55</v>
@@ -2597,7 +2607,7 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
         <v>55</v>
@@ -2650,7 +2660,7 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
         <v>55</v>
@@ -2703,7 +2713,7 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dellphoto\Documents\ecopetrol_2021\ecopetrol_2021\Priorizacion_activo_2021\bd_github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E0887279\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\KK6Z721S\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B7097A-216D-4769-A6DA-A2E1D8C31A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bd!$A$1:$Q$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bd!$A$1:$R$40</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>ACTIVO</t>
   </si>
@@ -213,12 +222,15 @@
   </si>
   <si>
     <t>Estatus</t>
+  </si>
+  <si>
+    <t>Remanente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -287,7 +299,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -309,6 +321,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -316,16 +329,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -600,30 +604,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="3" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,41 +650,44 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -695,41 +706,45 @@
       <c r="F2" s="16">
         <v>890.94282214329996</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
+        <f>+E2-F2</f>
+        <v>4423.0571778567</v>
+      </c>
+      <c r="H2" s="17">
         <v>0.16765954500250282</v>
       </c>
-      <c r="H2" s="14">
+      <c r="I2" s="14">
         <v>210</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>20</v>
       </c>
-      <c r="J2" s="14">
+      <c r="K2" s="14">
         <v>8</v>
       </c>
-      <c r="K2" s="17">
+      <c r="L2" s="17">
         <v>9.7597597597597591E-2</v>
       </c>
-      <c r="L2" s="14">
+      <c r="M2" s="14">
         <v>173</v>
       </c>
-      <c r="M2" s="14">
+      <c r="N2" s="14">
         <v>109</v>
       </c>
-      <c r="N2" s="14">
+      <c r="O2" s="14">
         <v>520</v>
       </c>
-      <c r="O2" s="18">
+      <c r="P2" s="18">
         <v>34738.507480008702</v>
       </c>
-      <c r="P2" s="19">
+      <c r="Q2" s="19">
         <v>54789</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="R2" s="14">
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
@@ -748,41 +763,45 @@
       <c r="F3" s="16">
         <v>1332.4059633419999</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G40" si="0">+E3-F3</f>
+        <v>600.32403665800007</v>
+      </c>
+      <c r="H3" s="21">
         <v>0.68939063570286585</v>
       </c>
-      <c r="H3" s="14">
+      <c r="I3" s="14">
         <v>41</v>
       </c>
-      <c r="I3" s="14">
+      <c r="J3" s="14">
         <v>5</v>
       </c>
-      <c r="J3" s="14">
+      <c r="K3" s="14">
         <v>8</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="17">
         <v>2.7940187302737104E-2</v>
       </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
       <c r="M3" s="14">
         <v>0</v>
       </c>
       <c r="N3" s="14">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
         <v>54</v>
       </c>
-      <c r="O3" s="18">
+      <c r="P3" s="18">
         <v>24690.292110987513</v>
       </c>
-      <c r="P3" s="19">
+      <c r="Q3" s="19">
         <v>54789</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="R3" s="14">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -801,41 +820,45 @@
       <c r="F4" s="16">
         <v>168.13514315</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>2010.86485685</v>
+      </c>
+      <c r="H4" s="17">
         <v>7.7161607687012398E-2</v>
       </c>
-      <c r="H4" s="14">
+      <c r="I4" s="14">
         <v>131</v>
       </c>
-      <c r="I4" s="14">
+      <c r="J4" s="14">
         <v>34</v>
       </c>
-      <c r="J4" s="14">
+      <c r="K4" s="14">
         <v>19</v>
       </c>
-      <c r="K4" s="17">
+      <c r="L4" s="17">
         <v>0.24915494493512158</v>
       </c>
-      <c r="L4" s="14">
+      <c r="M4" s="14">
         <v>91</v>
       </c>
-      <c r="M4" s="14">
+      <c r="N4" s="14">
         <v>182</v>
       </c>
-      <c r="N4" s="14">
+      <c r="O4" s="14">
         <v>457</v>
       </c>
-      <c r="O4" s="18">
+      <c r="P4" s="18">
         <v>19241.870346372514</v>
       </c>
-      <c r="P4" s="19">
+      <c r="Q4" s="19">
         <v>44504</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="R4" s="14">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
@@ -856,48 +879,52 @@
         <f>172.506025+9.25</f>
         <v>181.75602499999999</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>2017.2439750000001</v>
+      </c>
+      <c r="H5" s="17">
         <f>+F5/E5</f>
         <v>8.2653944974988625E-2</v>
       </c>
-      <c r="H5" s="14">
+      <c r="I5" s="14">
         <f>19*2+2.6</f>
         <v>40.6</v>
       </c>
-      <c r="I5" s="14">
+      <c r="J5" s="14">
         <f>6.8*2+5.6</f>
         <v>19.2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="K5" s="14">
         <f>6.2*2+2.4</f>
         <v>14.8</v>
       </c>
-      <c r="K5" s="17">
-        <f>+N5/E5</f>
+      <c r="L5" s="17">
+        <f>+O5/E5</f>
         <v>3.8608458390177347E-2</v>
       </c>
-      <c r="L5" s="14">
+      <c r="M5" s="14">
         <v>10.3</v>
       </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
       <c r="N5" s="14">
-        <f>+H5+I5+J5+L5+M5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f>+I5+J5+K5+M5+N5</f>
         <v>84.899999999999991</v>
       </c>
-      <c r="O5" s="18">
+      <c r="P5" s="18">
         <f>35085+2330</f>
         <v>37415</v>
       </c>
-      <c r="P5" s="19">
+      <c r="Q5" s="19">
         <v>54789</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="R5" s="14">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
@@ -916,43 +943,47 @@
       <c r="F6" s="16">
         <v>138.5286728897</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>1304.4713271103001</v>
+      </c>
+      <c r="H6" s="17">
         <v>9.6000466313028415E-2</v>
       </c>
-      <c r="H6" s="14">
+      <c r="I6" s="14">
         <v>38</v>
       </c>
-      <c r="I6" s="14">
+      <c r="J6" s="14">
         <v>2</v>
       </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
-        <f t="shared" ref="K6:K10" si="0">+N6/E6</f>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" ref="L6:L10" si="1">+O6/E6</f>
         <v>9.2862092862092863E-2</v>
       </c>
-      <c r="L6" s="14">
+      <c r="M6" s="14">
         <v>2</v>
       </c>
-      <c r="M6" s="14">
+      <c r="N6" s="14">
         <v>92</v>
       </c>
-      <c r="N6" s="14">
-        <f>+H6+I6+J6+L6+M6</f>
+      <c r="O6" s="14">
+        <f>+I6+J6+K6+M6+N6</f>
         <v>134</v>
       </c>
-      <c r="O6" s="18">
+      <c r="P6" s="18">
         <v>7090.062434186133</v>
       </c>
-      <c r="P6" s="19">
+      <c r="Q6" s="19">
         <v>54789</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="R6" s="14">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -971,43 +1002,47 @@
       <c r="F7" s="16">
         <v>105.1198741038</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
+        <v>1227.8801258962001</v>
+      </c>
+      <c r="H7" s="17">
         <v>7.8859620482970738E-2</v>
       </c>
-      <c r="H7" s="14">
+      <c r="I7" s="14">
         <v>64</v>
       </c>
-      <c r="I7" s="14">
+      <c r="J7" s="14">
         <v>154</v>
       </c>
-      <c r="J7" s="14">
+      <c r="K7" s="14">
         <v>24</v>
       </c>
-      <c r="K7" s="17">
-        <f t="shared" si="0"/>
+      <c r="L7" s="17">
+        <f t="shared" si="1"/>
         <v>0.25806451612903225</v>
       </c>
-      <c r="L7" s="14">
+      <c r="M7" s="14">
         <v>102</v>
       </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
       <c r="N7" s="14">
-        <f t="shared" ref="N6:N9" si="1">+H7+I7+J7+L7+M7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" ref="O7:O9" si="2">+I7+J7+K7+M7+N7</f>
         <v>344</v>
       </c>
-      <c r="O7" s="18">
+      <c r="P7" s="18">
         <v>1382.9410815721169</v>
       </c>
-      <c r="P7" s="19">
+      <c r="Q7" s="19">
         <v>54789</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="R7" s="14">
         <v>-36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
@@ -1026,43 +1061,47 @@
       <c r="F8" s="16">
         <v>957.29570999999999</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>202.90429000000006</v>
+      </c>
+      <c r="H8" s="17">
         <v>0.82511266161006713</v>
       </c>
-      <c r="H8" s="14">
+      <c r="I8" s="14">
         <v>96</v>
       </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
       <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="17">
-        <f t="shared" si="0"/>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="1"/>
         <v>9.325978279606964E-2</v>
       </c>
-      <c r="L8" s="14">
+      <c r="M8" s="14">
         <v>12.2</v>
       </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
       <c r="N8" s="14">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="2"/>
         <v>108.2</v>
       </c>
-      <c r="O8" s="18">
+      <c r="P8" s="18">
         <v>22454</v>
       </c>
-      <c r="P8" s="19">
+      <c r="Q8" s="19">
         <v>54789</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="R8" s="14">
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1081,43 +1120,47 @@
       <c r="F9" s="16">
         <v>233.05295477701742</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>428.37458908263187</v>
+      </c>
+      <c r="H9" s="17">
         <v>0.35234842718686321</v>
       </c>
-      <c r="H9" s="14">
+      <c r="I9" s="14">
         <v>21</v>
       </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
       <c r="J9" s="14">
         <v>0</v>
       </c>
-      <c r="K9" s="17">
-        <f t="shared" si="0"/>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="1"/>
         <v>3.3261390766436333E-2</v>
       </c>
-      <c r="L9" s="14">
+      <c r="M9" s="14">
         <v>1</v>
       </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
       <c r="N9" s="14">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="O9" s="18">
+      <c r="P9" s="18">
         <v>1632.9725472747498</v>
       </c>
-      <c r="P9" s="19">
+      <c r="Q9" s="19">
         <v>54789</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="R9" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
@@ -1136,42 +1179,46 @@
       <c r="F10" s="16">
         <v>32.72278489</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
+        <f t="shared" si="0"/>
+        <v>462.67721510999996</v>
+      </c>
+      <c r="H10" s="17">
         <v>6.6053259769882924E-2</v>
       </c>
-      <c r="H10" s="14">
+      <c r="I10" s="14">
         <v>21</v>
       </c>
-      <c r="I10" s="14">
+      <c r="J10" s="14">
         <v>3</v>
       </c>
-      <c r="J10" s="14">
+      <c r="K10" s="14">
         <v>1</v>
       </c>
-      <c r="K10" s="17">
-        <f t="shared" si="0"/>
+      <c r="L10" s="17">
+        <f t="shared" si="1"/>
         <v>0.15542995559144127</v>
       </c>
-      <c r="L10" s="14">
+      <c r="M10" s="14">
         <v>50</v>
       </c>
-      <c r="M10" s="14">
+      <c r="N10" s="14">
         <v>2</v>
       </c>
-      <c r="N10" s="14">
+      <c r="O10" s="14">
         <v>77</v>
       </c>
-      <c r="O10" s="18">
+      <c r="P10" s="18">
         <v>4445.9859999999999</v>
       </c>
-      <c r="P10" s="19">
+      <c r="Q10" s="19">
         <v>45466</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="R10" s="14">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
@@ -1190,41 +1237,45 @@
       <c r="F11" s="16">
         <v>120.188955635789</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
+        <v>343.58297418877243</v>
+      </c>
+      <c r="H11" s="17">
         <v>0.25915530437828532</v>
       </c>
-      <c r="H11" s="14">
+      <c r="I11" s="14">
         <v>16</v>
       </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
       <c r="J11" s="14">
         <v>0</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
         <v>8.9402529437418221E-2</v>
       </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
       <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
         <v>25</v>
       </c>
-      <c r="N11" s="14">
+      <c r="O11" s="14">
         <v>41</v>
       </c>
-      <c r="O11" s="18">
+      <c r="P11" s="18">
         <v>7575.6739491410217</v>
       </c>
-      <c r="P11" s="19">
+      <c r="Q11" s="19">
         <v>45199</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="R11" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1243,41 +1294,45 @@
       <c r="F12" s="13">
         <v>107.70165976999999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="16">
+        <f t="shared" si="0"/>
+        <v>165.79369023000004</v>
+      </c>
+      <c r="H12" s="3">
         <v>0.39379704177785829</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>1.5455950540958269E-2</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>5</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>2106.7423399456184</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>54789</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1296,41 +1351,45 @@
       <c r="F13" s="13">
         <v>1.4534310500000001</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>197.30656894999998</v>
+      </c>
+      <c r="H13" s="3">
         <v>7.312492704769572E-3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
         <v>7.5452716297786715E-2</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>7</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>15</v>
       </c>
-      <c r="O13" s="9">
+      <c r="P13" s="9">
         <v>206.60353757261157</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>54789</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1349,41 +1408,45 @@
       <c r="F14" s="13">
         <v>43.865886068999998</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="16">
+        <f t="shared" si="0"/>
+        <v>92.885113931000006</v>
+      </c>
+      <c r="H14" s="3">
         <v>0.32077195829646582</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>0.12426900584795321</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>17</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>15538.002262081325</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>47847</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1402,41 +1465,45 @@
       <c r="F15" s="13">
         <v>9.0818396873000005</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
+        <v>102.7881603127</v>
+      </c>
+      <c r="H15" s="3">
         <v>8.1182083555019213E-2</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>2.1447721179624667E-3</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="O15" s="9">
+      <c r="P15" s="9">
         <v>2.2974193548387096</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>54789</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-47</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1455,41 +1522,45 @@
       <c r="F16" s="13">
         <v>50.715904689999995</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="16">
+        <f t="shared" si="0"/>
+        <v>57.101662310000016</v>
+      </c>
+      <c r="H16" s="3">
         <v>0.47038628399025167</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
         <v>3.7105751391465679E-2</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>4</v>
       </c>
-      <c r="O16" s="9">
+      <c r="P16" s="9">
         <v>1603.2725525274998</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>54789</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1508,41 +1579,45 @@
       <c r="F17" s="13">
         <v>50.857705023000001</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="16">
+        <f t="shared" si="0"/>
+        <v>44.293294976999995</v>
+      </c>
+      <c r="H17" s="3">
         <v>0.53449469814295181</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>6.3025210084033612E-2</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>6</v>
       </c>
-      <c r="O17" s="9">
+      <c r="P17" s="9">
         <v>5284.0717887158562</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>44934</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1561,41 +1636,45 @@
       <c r="F18" s="13">
         <v>33.031566771999998</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="16">
+        <f t="shared" si="0"/>
+        <v>56.678433227999996</v>
+      </c>
+      <c r="H18" s="3">
         <v>0.36820384318359156</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
         <v>0.11148272017837235</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>10</v>
       </c>
-      <c r="O18" s="9">
+      <c r="P18" s="9">
         <v>5731.4773360733816</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>46796</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1614,22 +1693,23 @@
       <c r="F19" s="13">
         <v>11.0557536173825</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="16">
+        <f t="shared" si="0"/>
+        <v>65.593425466217695</v>
+      </c>
+      <c r="H19" s="3">
         <v>0.1442383825836431</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
         <v>0</v>
       </c>
       <c r="M19">
@@ -1638,17 +1718,20 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
         <v>36.761201551106197</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>54789</v>
       </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1667,22 +1750,23 @@
       <c r="F20" s="13">
         <v>0.104827</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="16">
+        <f t="shared" si="0"/>
+        <v>68.885172999999995</v>
+      </c>
+      <c r="H20" s="3">
         <v>1.5194520945064503E-3</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20">
@@ -1691,17 +1775,20 @@
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
         <v>54789</v>
       </c>
-      <c r="Q20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1720,41 +1807,45 @@
       <c r="F21" s="13">
         <v>112.65211625000002</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="16">
+        <f t="shared" si="0"/>
+        <v>130.57788374999996</v>
+      </c>
+      <c r="H21" s="3">
         <v>0.46315058278172933</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>7</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>0.13846153846153847</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
       <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>9</v>
       </c>
-      <c r="O21" s="9">
+      <c r="P21" s="9">
         <v>9827.8140291682084</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>47216</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R21" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1773,41 +1864,45 @@
       <c r="F22" s="13">
         <v>8.6261845921052629</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="16">
+        <f t="shared" si="0"/>
+        <v>76.884325311665393</v>
+      </c>
+      <c r="H22" s="3">
         <v>0.10087864756990397</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>8.2644628099173556E-2</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>5</v>
       </c>
-      <c r="O22" s="9">
+      <c r="P22" s="9">
         <v>368.67712918675073</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>54789</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1826,41 +1921,45 @@
       <c r="F23" s="13">
         <v>23.510162859999998</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="16">
+        <f t="shared" si="0"/>
+        <v>29.506837140000012</v>
+      </c>
+      <c r="H23" s="3">
         <v>0.44344574117735808</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>7.5471698113207544E-2</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>4</v>
       </c>
-      <c r="O23" s="9">
+      <c r="P23" s="9">
         <v>2665.9581817436037</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>54789</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1879,41 +1978,45 @@
       <c r="F24" s="13">
         <v>16.302252639999999</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="16">
+        <f t="shared" si="0"/>
+        <v>24.690452359999995</v>
+      </c>
+      <c r="H24" s="3">
         <v>0.39768667717829309</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>1</v>
       </c>
-      <c r="O24" s="9">
+      <c r="P24" s="9">
         <v>966.55100173031769</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>54789</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1932,41 +2035,45 @@
       <c r="F25" s="13">
         <v>10.811916780000001</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="16">
+        <f t="shared" si="0"/>
+        <v>27.178083220000001</v>
+      </c>
+      <c r="H25" s="3">
         <v>0.28459902026849171</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
         <v>2.6322716504343247E-2</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
-      <c r="O25" s="9">
+      <c r="P25" s="9">
         <v>451.53787387220365</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>45575</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R25" s="6">
         <v>-3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1985,41 +2092,45 @@
       <c r="F26" s="13">
         <v>22.458597099999999</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="16">
+        <f t="shared" si="0"/>
+        <v>11.341402899999999</v>
+      </c>
+      <c r="H26" s="3">
         <v>0.66445553550295855</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>5.9171597633136098E-2</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>2</v>
       </c>
-      <c r="O26" s="9">
+      <c r="P26" s="9">
         <v>806.04694629835603</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <v>54789</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2038,41 +2149,45 @@
       <c r="F27" s="13">
         <v>4.2961292499999999</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="16">
+        <f t="shared" si="0"/>
+        <v>28.583870750000003</v>
+      </c>
+      <c r="H27" s="3">
         <v>0.1306608652676399</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>3.0395136778115502E-2</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>1</v>
       </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
         <v>54789</v>
       </c>
-      <c r="Q27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2091,22 +2206,23 @@
       <c r="F28" s="13">
         <v>0.788636</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="16">
+        <f t="shared" si="0"/>
+        <v>30.871364</v>
+      </c>
+      <c r="H28" s="3">
         <v>2.4909538850284272E-2</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
         <v>0</v>
       </c>
       <c r="M28">
@@ -2115,17 +2231,20 @@
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
         <v>54789</v>
       </c>
-      <c r="Q28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2144,41 +2263,45 @@
       <c r="F29" s="13">
         <v>5.2579760100000001</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="16">
+        <f t="shared" si="0"/>
+        <v>51.012023989999996</v>
+      </c>
+      <c r="H29" s="3">
         <v>9.3441905278123349E-2</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" s="3">
         <v>0.39145907473309605</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>11</v>
       </c>
-      <c r="O29" s="9">
+      <c r="P29" s="9">
         <v>6000</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <v>54789</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="R29" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2197,41 +2320,45 @@
       <c r="F30" s="13">
         <v>7.2255541100000009</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="16">
+        <f t="shared" si="0"/>
+        <v>19.57444589</v>
+      </c>
+      <c r="H30" s="3">
         <v>0.26961022798507467</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
         <v>7.4626865671641784E-2</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>2</v>
       </c>
-      <c r="O30" s="9">
+      <c r="P30" s="9">
         <v>324.51562513904298</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>54789</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="R30" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2250,22 +2377,23 @@
       <c r="F31" s="13">
         <v>0.3</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="16">
+        <f t="shared" si="0"/>
+        <v>24.7</v>
+      </c>
+      <c r="H31" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
         <v>0</v>
       </c>
       <c r="M31">
@@ -2274,17 +2402,20 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
         <v>54789</v>
       </c>
-      <c r="Q31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2303,41 +2434,45 @@
       <c r="F32" s="13">
         <v>14.6362538203509</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="16">
+        <f t="shared" si="0"/>
+        <v>9.655149688421</v>
+      </c>
+      <c r="H32" s="3">
         <v>0.60252812543604506</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>4.1152263374485597E-2</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="O32" s="9">
+      <c r="P32" s="9">
         <v>114.21092479297984</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <v>54789</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="R32" s="6">
         <v>-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2356,41 +2491,45 @@
       <c r="F33" s="13">
         <v>6.0521517106999996</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="16">
+        <f t="shared" si="0"/>
+        <v>13.8643290138283</v>
+      </c>
+      <c r="H33" s="3">
         <v>0.30387656305395483</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>0.10050251256281408</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>2</v>
       </c>
-      <c r="O33" s="9">
+      <c r="P33" s="9">
         <v>1167.6008960573479</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>45625</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2409,22 +2548,23 @@
       <c r="F34" s="13">
         <v>0.19799600000000001</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="16">
+        <f t="shared" si="0"/>
+        <v>15.5697508879169</v>
+      </c>
+      <c r="H34" s="3">
         <v>1.2557025515911079E-2</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
         <v>0</v>
       </c>
       <c r="M34">
@@ -2433,17 +2573,20 @@
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4">
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
         <v>54789</v>
       </c>
-      <c r="Q34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2462,41 +2605,45 @@
       <c r="F35" s="13">
         <v>14.9743681074</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="16">
+        <f t="shared" si="0"/>
+        <v>22.475195892600002</v>
+      </c>
+      <c r="H35" s="3">
         <v>0.39985427086414144</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>6.6225165562913912E-2</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>1</v>
       </c>
-      <c r="O35" s="9">
+      <c r="P35" s="9">
         <v>2545.0086602397732</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <v>46531</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="R35" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2515,22 +2662,23 @@
       <c r="F36" s="13">
         <v>0.69309200000000004</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="16">
+        <f t="shared" si="0"/>
+        <v>10.354367460000001</v>
+      </c>
+      <c r="H36" s="3">
         <v>6.2737682134929515E-2</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
         <v>0</v>
       </c>
       <c r="M36">
@@ -2539,17 +2687,20 @@
       <c r="N36">
         <v>0</v>
       </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
         <v>54789</v>
       </c>
-      <c r="Q36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2568,22 +2719,23 @@
       <c r="F37" s="13">
         <v>2.2718624900000002</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="16">
+        <f t="shared" si="0"/>
+        <v>7.1081375099999988</v>
+      </c>
+      <c r="H37" s="3">
         <v>0.24220282409381669</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
         <v>0</v>
       </c>
       <c r="M37">
@@ -2592,17 +2744,20 @@
       <c r="N37">
         <v>0</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
         <v>27.46421950315165</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>54789</v>
       </c>
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2621,22 +2776,23 @@
       <c r="F38" s="13">
         <v>5.999E-3</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="16">
+        <f t="shared" si="0"/>
+        <v>4.3940010000000003</v>
+      </c>
+      <c r="H38" s="3">
         <v>1.3634090909090907E-3</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <v>0</v>
       </c>
       <c r="M38">
@@ -2645,17 +2801,20 @@
       <c r="N38">
         <v>0</v>
       </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-      <c r="P38" s="4">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
         <v>54789</v>
       </c>
-      <c r="Q38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2674,22 +2833,23 @@
       <c r="F39" s="13">
         <v>0.5</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="16">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="H39" s="3">
         <v>0.13513513513513511</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
         <v>0</v>
       </c>
       <c r="M39">
@@ -2698,17 +2858,20 @@
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-      <c r="P39" s="4">
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
         <v>54789</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>-5</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2727,22 +2890,23 @@
       <c r="F40" s="13">
         <v>0.32769361000000002</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="16">
+        <f t="shared" si="0"/>
+        <v>1.53230639</v>
+      </c>
+      <c r="H40" s="3">
         <v>0.17617936021505376</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
         <v>0</v>
       </c>
       <c r="M40">
@@ -2751,18 +2915,21 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
         <v>54789</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="R40" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q40"/>
+  <autoFilter ref="A1:R40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E0887279\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\KK6Z721S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dellphoto\Documents\ecopetrol_2021\ecopetrol_2021\Priorizacion_activo_2021\bd_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B7097A-216D-4769-A6DA-A2E1D8C31A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bd!$A$1:$R$40</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,19 +223,19 @@
     <t>Estatus</t>
   </si>
   <si>
-    <t>Remanente</t>
+    <t>Vol_Remanente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +252,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +305,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -322,6 +328,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -604,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +770,7 @@
       <c r="F3" s="16">
         <v>1332.4059633419999</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="22">
         <f t="shared" ref="G3:G40" si="0">+E3-F3</f>
         <v>600.32403665800007</v>
       </c>
@@ -1061,7 +1068,7 @@
       <c r="F8" s="16">
         <v>957.29570999999999</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>202.90429000000006</v>
       </c>
@@ -2929,7 +2936,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V.xlsx
@@ -614,31 +614,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -714,7 +714,6 @@
         <v>890.94282214329996</v>
       </c>
       <c r="G2" s="16">
-        <f>+E2-F2</f>
         <v>4423.0571778567</v>
       </c>
       <c r="H2" s="17">
@@ -724,22 +723,22 @@
         <v>210</v>
       </c>
       <c r="J2" s="14">
-        <v>20</v>
+        <v>13.419036652280731</v>
       </c>
       <c r="K2" s="14">
-        <v>8</v>
+        <v>14.9783914850877</v>
       </c>
       <c r="L2" s="17">
         <v>9.7597597597597591E-2</v>
       </c>
       <c r="M2" s="14">
-        <v>173</v>
+        <v>121.73861505748033</v>
       </c>
       <c r="N2" s="14">
-        <v>109</v>
+        <v>29.119231185039801</v>
       </c>
       <c r="O2" s="14">
-        <v>520</v>
+        <v>179.25527437988856</v>
       </c>
       <c r="P2" s="18">
         <v>34738.507480008702</v>
@@ -751,7 +750,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
@@ -771,7 +770,6 @@
         <v>1332.4059633419999</v>
       </c>
       <c r="G3" s="22">
-        <f t="shared" ref="G3:G40" si="0">+E3-F3</f>
         <v>600.32403665800007</v>
       </c>
       <c r="H3" s="21">
@@ -781,22 +779,22 @@
         <v>41</v>
       </c>
       <c r="J3" s="14">
-        <v>5</v>
+        <v>2.8327799999999996</v>
       </c>
       <c r="K3" s="14">
-        <v>8</v>
+        <v>0.51771600000000007</v>
       </c>
       <c r="L3" s="17">
         <v>2.7940187302737104E-2</v>
       </c>
       <c r="M3" s="14">
-        <v>0</v>
+        <v>6.519823539733177</v>
       </c>
       <c r="N3" s="14">
         <v>0</v>
       </c>
       <c r="O3" s="14">
-        <v>54</v>
+        <v>9.8703195397331775</v>
       </c>
       <c r="P3" s="18">
         <v>24690.292110987513</v>
@@ -808,7 +806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -828,7 +826,6 @@
         <v>168.13514315</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" si="0"/>
         <v>2010.86485685</v>
       </c>
       <c r="H4" s="17">
@@ -838,22 +835,22 @@
         <v>131</v>
       </c>
       <c r="J4" s="14">
-        <v>34</v>
+        <v>0.41429554385964917</v>
       </c>
       <c r="K4" s="14">
-        <v>19</v>
+        <v>1.3012607192982455</v>
       </c>
       <c r="L4" s="17">
         <v>0.24915494493512158</v>
       </c>
       <c r="M4" s="14">
-        <v>91</v>
+        <v>147.91395374150679</v>
       </c>
       <c r="N4" s="14">
-        <v>182</v>
+        <v>176.43886920701937</v>
       </c>
       <c r="O4" s="14">
-        <v>457</v>
+        <v>326.06837921168403</v>
       </c>
       <c r="P4" s="18">
         <v>19241.870346372514</v>
@@ -865,7 +862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
@@ -879,49 +876,39 @@
         <v>56</v>
       </c>
       <c r="E5" s="15">
-        <f>1578+621</f>
         <v>2199</v>
       </c>
       <c r="F5" s="16">
-        <f>172.506025+9.25</f>
         <v>181.75602499999999</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" si="0"/>
         <v>2017.2439750000001</v>
       </c>
       <c r="H5" s="17">
-        <f>+F5/E5</f>
         <v>8.2653944974988625E-2</v>
       </c>
       <c r="I5" s="14">
-        <f>19*2+2.6</f>
         <v>40.6</v>
       </c>
       <c r="J5" s="14">
-        <f>6.8*2+5.6</f>
-        <v>19.2</v>
+        <v>9.5867620000000002</v>
       </c>
       <c r="K5" s="14">
-        <f>6.2*2+2.4</f>
-        <v>14.8</v>
+        <v>7.6969380000000003</v>
       </c>
       <c r="L5" s="17">
-        <f>+O5/E5</f>
-        <v>3.8608458390177347E-2</v>
+        <v>1.0102626064123302E-2</v>
       </c>
       <c r="M5" s="14">
-        <v>10.3</v>
+        <v>4.93197471500714</v>
       </c>
       <c r="N5" s="14">
         <v>0</v>
       </c>
       <c r="O5" s="14">
-        <f>+I5+J5+K5+M5+N5</f>
-        <v>84.899999999999991</v>
+        <v>22.21567471500714</v>
       </c>
       <c r="P5" s="18">
-        <f>35085+2330</f>
         <v>37415</v>
       </c>
       <c r="Q5" s="19">
@@ -931,7 +918,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
@@ -951,7 +938,6 @@
         <v>138.5286728897</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="0"/>
         <v>1304.4713271103001</v>
       </c>
       <c r="H6" s="17">
@@ -961,24 +947,22 @@
         <v>38</v>
       </c>
       <c r="J6" s="14">
-        <v>2</v>
+        <v>1.383899</v>
       </c>
       <c r="K6" s="14">
-        <v>0</v>
+        <v>0.17502599999999999</v>
       </c>
       <c r="L6" s="17">
-        <f t="shared" ref="L6:L10" si="1">+O6/E6</f>
-        <v>9.2862092862092863E-2</v>
+        <v>6.6896937937879652E-2</v>
       </c>
       <c r="M6" s="14">
-        <v>2</v>
+        <v>3.4423250227662048</v>
       </c>
       <c r="N6" s="14">
-        <v>92</v>
+        <v>91.531031421594136</v>
       </c>
       <c r="O6" s="14">
-        <f>+I6+J6+K6+M6+N6</f>
-        <v>134</v>
+        <v>96.532281444360336</v>
       </c>
       <c r="P6" s="18">
         <v>7090.062434186133</v>
@@ -990,7 +974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +994,6 @@
         <v>105.1198741038</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="0"/>
         <v>1227.8801258962001</v>
       </c>
       <c r="H7" s="17">
@@ -1020,24 +1003,22 @@
         <v>64</v>
       </c>
       <c r="J7" s="14">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="K7" s="14">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L7" s="17">
-        <f t="shared" si="1"/>
-        <v>0.25806451612903225</v>
+        <v>0.11078601366910751</v>
       </c>
       <c r="M7" s="14">
-        <v>102</v>
+        <v>80.869500420920332</v>
       </c>
       <c r="N7" s="14">
-        <v>0</v>
+        <v>66.808255799999984</v>
       </c>
       <c r="O7" s="14">
-        <f t="shared" ref="O7:O9" si="2">+I7+J7+K7+M7+N7</f>
-        <v>344</v>
+        <v>147.67775622092032</v>
       </c>
       <c r="P7" s="18">
         <v>1382.9410815721169</v>
@@ -1049,7 +1030,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1050,6 @@
         <v>957.29570999999999</v>
       </c>
       <c r="G8" s="22">
-        <f t="shared" si="0"/>
         <v>202.90429000000006</v>
       </c>
       <c r="H8" s="17">
@@ -1085,18 +1065,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="17">
-        <f t="shared" si="1"/>
-        <v>9.325978279606964E-2</v>
+        <v>6.0073682309851337E-3</v>
       </c>
       <c r="M8" s="14">
-        <v>12.2</v>
+        <v>6.9697486215889528</v>
       </c>
       <c r="N8" s="14">
         <v>0</v>
       </c>
       <c r="O8" s="14">
-        <f t="shared" si="2"/>
-        <v>108.2</v>
+        <v>6.9697486215889528</v>
       </c>
       <c r="P8" s="18">
         <v>22454</v>
@@ -1108,7 +1086,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1128,7 +1106,6 @@
         <v>233.05295477701742</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="0"/>
         <v>428.37458908263187</v>
       </c>
       <c r="H9" s="17">
@@ -1138,24 +1115,22 @@
         <v>21</v>
       </c>
       <c r="J9" s="14">
-        <v>0</v>
+        <v>8.1990199999999996E-3</v>
       </c>
       <c r="K9" s="14">
-        <v>0</v>
+        <v>8.6274725087719301E-2</v>
       </c>
       <c r="L9" s="17">
-        <f t="shared" si="1"/>
-        <v>3.3261390766436333E-2</v>
+        <v>3.3799295972805976E-3</v>
       </c>
       <c r="M9" s="14">
-        <v>1</v>
+        <v>2.1411047868601201</v>
       </c>
       <c r="N9" s="14">
         <v>0</v>
       </c>
       <c r="O9" s="14">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <v>2.2355785319478394</v>
       </c>
       <c r="P9" s="18">
         <v>1632.9725472747498</v>
@@ -1167,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
@@ -1187,7 +1162,6 @@
         <v>32.72278489</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="0"/>
         <v>462.67721510999996</v>
       </c>
       <c r="H10" s="17">
@@ -1197,23 +1171,22 @@
         <v>21</v>
       </c>
       <c r="J10" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="17">
-        <f t="shared" si="1"/>
-        <v>0.15542995559144127</v>
+        <v>8.0211188589835197E-2</v>
       </c>
       <c r="M10" s="14">
-        <v>50</v>
+        <v>38.081033580160835</v>
       </c>
       <c r="N10" s="14">
-        <v>2</v>
+        <v>1.6555892472435172</v>
       </c>
       <c r="O10" s="14">
-        <v>77</v>
+        <v>39.736622827404354</v>
       </c>
       <c r="P10" s="18">
         <v>4445.9859999999999</v>
@@ -1225,7 +1198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
@@ -1245,7 +1218,6 @@
         <v>120.188955635789</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="0"/>
         <v>343.58297418877243</v>
       </c>
       <c r="H11" s="17">
@@ -1255,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="14">
-        <v>0</v>
+        <v>0.77773000315789398</v>
       </c>
       <c r="K11" s="14">
         <v>0</v>
@@ -1264,13 +1236,13 @@
         <v>8.9402529437418221E-2</v>
       </c>
       <c r="M11" s="14">
-        <v>0</v>
+        <v>1.308327841815607</v>
       </c>
       <c r="N11" s="14">
-        <v>25</v>
+        <v>20.639863810848539</v>
       </c>
       <c r="O11" s="14">
-        <v>41</v>
+        <v>22.725921655822042</v>
       </c>
       <c r="P11" s="18">
         <v>7575.6739491410217</v>
@@ -1282,7 +1254,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1274,6 @@
         <v>107.70165976999999</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" si="0"/>
         <v>165.79369023000004</v>
       </c>
       <c r="H12" s="3">
@@ -1311,23 +1282,23 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="14">
+        <v>9.6393614035087755E-2</v>
+      </c>
+      <c r="K12" s="14">
         <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>1.5455950540958269E-2</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
+      <c r="M12" s="14">
+        <v>2.1804608673333337</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>2.2768544813684213</v>
       </c>
       <c r="P12" s="9">
         <v>2106.7423399456184</v>
@@ -1339,7 +1310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1330,6 @@
         <v>1.4534310500000001</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="0"/>
         <v>197.30656894999998</v>
       </c>
       <c r="H13" s="3">
@@ -1368,23 +1338,23 @@
       <c r="I13">
         <v>5</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
+      <c r="J13" s="14">
+        <v>7.9971578947368397E-3</v>
+      </c>
+      <c r="K13" s="14">
+        <v>6.8214385964912297E-3</v>
       </c>
       <c r="L13" s="3">
         <v>7.5452716297786715E-2</v>
       </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>15</v>
+      <c r="M13" s="14">
+        <v>5.3606450218636876</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1.9187520118857191</v>
+      </c>
+      <c r="O13" s="14">
+        <v>7.2942156302406342</v>
       </c>
       <c r="P13" s="9">
         <v>206.60353757261157</v>
@@ -1396,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1416,7 +1386,6 @@
         <v>43.865886068999998</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="0"/>
         <v>92.885113931000006</v>
       </c>
       <c r="H14" s="3">
@@ -1425,23 +1394,23 @@
       <c r="I14">
         <v>9</v>
       </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
+      <c r="J14" s="14">
+        <v>1.6043180526315761</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1.4572267192982464</v>
       </c>
       <c r="L14" s="3">
         <v>0.12426900584795321</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>17</v>
+      <c r="M14" s="14">
+        <v>3.0244812757201753</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <v>6.0860260476499981</v>
       </c>
       <c r="P14" s="9">
         <v>15538.002262081325</v>
@@ -1453,7 +1422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1473,7 +1442,6 @@
         <v>9.0818396873000005</v>
       </c>
       <c r="G15" s="16">
-        <f t="shared" si="0"/>
         <v>102.7881603127</v>
       </c>
       <c r="H15" s="3">
@@ -1482,23 +1450,23 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>2.1447721179624667E-3</v>
       </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
+      <c r="M15" s="14">
+        <v>2.14438</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>2.14438</v>
       </c>
       <c r="P15" s="9">
         <v>2.2974193548387096</v>
@@ -1510,7 +1478,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1530,7 +1498,6 @@
         <v>50.715904689999995</v>
       </c>
       <c r="G16" s="16">
-        <f t="shared" si="0"/>
         <v>57.101662310000016</v>
       </c>
       <c r="H16" s="3">
@@ -1539,23 +1506,23 @@
       <c r="I16">
         <v>4</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>0</v>
       </c>
       <c r="L16" s="3">
         <v>3.7105751391465679E-2</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
+      <c r="M16" s="14">
+        <v>2.0884691414999996</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <v>2.0884691414999996</v>
       </c>
       <c r="P16" s="9">
         <v>1603.2725525274998</v>
@@ -1567,7 +1534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1587,7 +1554,6 @@
         <v>50.857705023000001</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="0"/>
         <v>44.293294976999995</v>
       </c>
       <c r="H17" s="3">
@@ -1596,23 +1562,23 @@
       <c r="I17">
         <v>5</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
+      <c r="J17" s="14">
+        <v>0.65538394736842109</v>
+      </c>
+      <c r="K17" s="14">
+        <v>1.149585701754386</v>
       </c>
       <c r="L17" s="3">
         <v>6.3025210084033612E-2</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>6</v>
+      <c r="M17" s="14">
+        <v>1.0955864775273163</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>2.9005561266501232</v>
       </c>
       <c r="P17" s="9">
         <v>5284.0717887158562</v>
@@ -1624,7 +1590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1644,7 +1610,6 @@
         <v>33.031566771999998</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="0"/>
         <v>56.678433227999996</v>
       </c>
       <c r="H18" s="3">
@@ -1653,23 +1618,23 @@
       <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
+      <c r="J18" s="14">
+        <v>0.73391000000000006</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.39088499999999998</v>
       </c>
       <c r="L18" s="3">
         <v>0.11148272017837235</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>10</v>
+      <c r="M18" s="14">
+        <v>1.6078283658914689</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <v>2.7326233658914689</v>
       </c>
       <c r="P18" s="9">
         <v>5731.4773360733816</v>
@@ -1681,7 +1646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1701,7 +1666,6 @@
         <v>11.0557536173825</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="0"/>
         <v>65.593425466217695</v>
       </c>
       <c r="H19" s="3">
@@ -1710,22 +1674,22 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
         <v>0</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
         <v>0</v>
       </c>
       <c r="P19" s="9">
@@ -1738,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +1722,6 @@
         <v>0.104827</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="0"/>
         <v>68.885172999999995</v>
       </c>
       <c r="H20" s="3">
@@ -1767,22 +1730,22 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
         <v>0</v>
       </c>
       <c r="P20" s="9">
@@ -1795,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1815,7 +1778,6 @@
         <v>112.65211625000002</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="0"/>
         <v>130.57788374999996</v>
       </c>
       <c r="H21" s="3">
@@ -1824,23 +1786,23 @@
       <c r="I21">
         <v>7</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="14">
+        <v>0.15137854385964911</v>
+      </c>
+      <c r="K21" s="14">
         <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>0.13846153846153847</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>9</v>
+      <c r="M21" s="14">
+        <v>4.4221393183312818</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>4.5735178621909309</v>
       </c>
       <c r="P21" s="9">
         <v>9827.8140291682084</v>
@@ -1852,7 +1814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1872,7 +1834,6 @@
         <v>8.6261845921052629</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="0"/>
         <v>76.884325311665393</v>
       </c>
       <c r="H22" s="3">
@@ -1881,23 +1842,23 @@
       <c r="I22">
         <v>3</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
         <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>8.2644628099173556E-2</v>
       </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
+      <c r="M22" s="14">
+        <v>1.5390357794425467</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>1.5390357794425467</v>
       </c>
       <c r="P22" s="9">
         <v>368.67712918675073</v>
@@ -1909,7 +1870,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1890,6 @@
         <v>23.510162859999998</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="0"/>
         <v>29.506837140000012</v>
       </c>
       <c r="H23" s="3">
@@ -1938,23 +1898,23 @@
       <c r="I23">
         <v>4</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
+      <c r="J23" s="14">
+        <v>0.19216466666666621</v>
+      </c>
+      <c r="K23" s="14">
+        <v>9.3069350877192994E-2</v>
       </c>
       <c r="L23" s="3">
         <v>7.5471698113207544E-2</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
+      <c r="M23" s="14">
+        <v>2.3261203835578943</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>2.6113544011017535</v>
       </c>
       <c r="P23" s="9">
         <v>2665.9581817436037</v>
@@ -1966,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1986,7 +1946,6 @@
         <v>16.302252639999999</v>
       </c>
       <c r="G24" s="16">
-        <f t="shared" si="0"/>
         <v>24.690452359999995</v>
       </c>
       <c r="H24" s="3">
@@ -1995,23 +1954,23 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="14">
+        <v>0.17092400000000002</v>
+      </c>
+      <c r="K24" s="14">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
+      <c r="M24" s="14">
+        <v>0.60583815200000002</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.77676215200000009</v>
       </c>
       <c r="P24" s="9">
         <v>966.55100173031769</v>
@@ -2023,7 +1982,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2043,7 +2002,6 @@
         <v>10.811916780000001</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="0"/>
         <v>27.178083220000001</v>
       </c>
       <c r="H25" s="3">
@@ -2052,23 +2010,23 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
         <v>0</v>
       </c>
       <c r="L25" s="3">
         <v>2.6322716504343247E-2</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
+      <c r="M25" s="14">
+        <v>0.42309519263157885</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.42309519263157885</v>
       </c>
       <c r="P25" s="9">
         <v>451.53787387220365</v>
@@ -2080,7 +2038,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2100,7 +2058,6 @@
         <v>22.458597099999999</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="0"/>
         <v>11.341402899999999</v>
       </c>
       <c r="H26" s="3">
@@ -2109,23 +2066,23 @@
       <c r="I26">
         <v>2</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
         <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>5.9171597633136098E-2</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
+      <c r="M26" s="14">
+        <v>1.0363651419999997</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1.0363651419999997</v>
       </c>
       <c r="P26" s="9">
         <v>806.04694629835603</v>
@@ -2137,7 +2094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2114,6 @@
         <v>4.2961292499999999</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="0"/>
         <v>28.583870750000003</v>
       </c>
       <c r="H27" s="3">
@@ -2166,23 +2122,23 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
         <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>3.0395136778115502E-2</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
       </c>
       <c r="P27" s="9">
         <v>0</v>
@@ -2194,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2214,7 +2170,6 @@
         <v>0.788636</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="0"/>
         <v>30.871364</v>
       </c>
       <c r="H28" s="3">
@@ -2223,22 +2178,22 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
         <v>0</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
         <v>0</v>
       </c>
       <c r="P28" s="9">
@@ -2251,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2271,7 +2226,6 @@
         <v>5.2579760100000001</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="0"/>
         <v>51.012023989999996</v>
       </c>
       <c r="H29" s="3">
@@ -2280,23 +2234,23 @@
       <c r="I29">
         <v>6</v>
       </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
+      <c r="J29" s="14">
+        <v>0.45593158105263198</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1.05982882333333</v>
       </c>
       <c r="L29" s="3">
         <v>0.39145907473309605</v>
       </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>11</v>
+      <c r="M29" s="14">
+        <v>0.28770212451903815</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <v>1.8034625289049999</v>
       </c>
       <c r="P29" s="9">
         <v>6000</v>
@@ -2308,7 +2262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2328,7 +2282,6 @@
         <v>7.2255541100000009</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="0"/>
         <v>19.57444589</v>
       </c>
       <c r="H30" s="3">
@@ -2337,23 +2290,23 @@
       <c r="I30">
         <v>2</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
         <v>0</v>
       </c>
       <c r="L30" s="3">
         <v>7.4626865671641784E-2</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
+      <c r="M30" s="14">
+        <v>0.46455823200000002</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0.46455823200000002</v>
       </c>
       <c r="P30" s="9">
         <v>324.51562513904298</v>
@@ -2365,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2385,7 +2338,6 @@
         <v>0.3</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" si="0"/>
         <v>24.7</v>
       </c>
       <c r="H31" s="3">
@@ -2394,22 +2346,22 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
         <v>0</v>
       </c>
       <c r="P31" s="9">
@@ -2422,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2442,7 +2394,6 @@
         <v>14.6362538203509</v>
       </c>
       <c r="G32" s="16">
-        <f t="shared" si="0"/>
         <v>9.655149688421</v>
       </c>
       <c r="H32" s="3">
@@ -2451,23 +2402,23 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
         <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>4.1152263374485597E-2</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
+      <c r="M32" s="14">
+        <v>0.24225470929824558</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.24225470929824558</v>
       </c>
       <c r="P32" s="9">
         <v>114.21092479297984</v>
@@ -2479,7 +2430,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2499,7 +2450,6 @@
         <v>6.0521517106999996</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" si="0"/>
         <v>13.8643290138283</v>
       </c>
       <c r="H33" s="3">
@@ -2508,23 +2458,23 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
         <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>0.10050251256281408</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>2</v>
+      <c r="M33" s="14">
+        <v>0.11422897964912281</v>
+      </c>
+      <c r="N33" s="14">
+        <v>1.2623051912089991</v>
+      </c>
+      <c r="O33" s="14">
+        <v>1.3765341708581218</v>
       </c>
       <c r="P33" s="9">
         <v>1167.6008960573479</v>
@@ -2536,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2556,7 +2506,6 @@
         <v>0.19799600000000001</v>
       </c>
       <c r="G34" s="16">
-        <f t="shared" si="0"/>
         <v>15.5697508879169</v>
       </c>
       <c r="H34" s="3">
@@ -2565,22 +2514,22 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
         <v>0</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
+      <c r="M34" s="14">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="14">
         <v>0</v>
       </c>
       <c r="P34" s="9">
@@ -2593,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2613,7 +2562,6 @@
         <v>14.9743681074</v>
       </c>
       <c r="G35" s="16">
-        <f t="shared" si="0"/>
         <v>22.475195892600002</v>
       </c>
       <c r="H35" s="3">
@@ -2622,23 +2570,23 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
         <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>6.6225165562913912E-2</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
+      <c r="M35" s="14">
+        <v>1.0846066403757075</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <v>1.0846066403757075</v>
       </c>
       <c r="P35" s="9">
         <v>2545.0086602397732</v>
@@ -2650,7 +2598,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2670,7 +2618,6 @@
         <v>0.69309200000000004</v>
       </c>
       <c r="G36" s="16">
-        <f t="shared" si="0"/>
         <v>10.354367460000001</v>
       </c>
       <c r="H36" s="3">
@@ -2679,22 +2626,22 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="14">
+        <v>0</v>
+      </c>
+      <c r="K36" s="14">
         <v>0</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
+      <c r="M36" s="14">
+        <v>0</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0</v>
+      </c>
+      <c r="O36" s="14">
         <v>0</v>
       </c>
       <c r="P36" s="9">
@@ -2707,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2727,7 +2674,6 @@
         <v>2.2718624900000002</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" si="0"/>
         <v>7.1081375099999988</v>
       </c>
       <c r="H37" s="3">
@@ -2736,22 +2682,22 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="14">
         <v>0</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
+      <c r="M37" s="14">
+        <v>0</v>
+      </c>
+      <c r="N37" s="14">
+        <v>0</v>
+      </c>
+      <c r="O37" s="14">
         <v>0</v>
       </c>
       <c r="P37" s="9">
@@ -2764,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2784,7 +2730,6 @@
         <v>5.999E-3</v>
       </c>
       <c r="G38" s="16">
-        <f t="shared" si="0"/>
         <v>4.3940010000000003</v>
       </c>
       <c r="H38" s="3">
@@ -2793,22 +2738,22 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
+      <c r="J38" s="14">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
         <v>0</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
+      <c r="M38" s="14">
+        <v>0</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14">
         <v>0</v>
       </c>
       <c r="P38" s="9">
@@ -2821,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2841,7 +2786,6 @@
         <v>0.5</v>
       </c>
       <c r="G39" s="16">
-        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="H39" s="3">
@@ -2850,22 +2794,22 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="14">
+        <v>0</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14">
         <v>0</v>
       </c>
       <c r="P39" s="9">
@@ -2878,7 +2822,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2898,7 +2842,6 @@
         <v>0.32769361000000002</v>
       </c>
       <c r="G40" s="16">
-        <f t="shared" si="0"/>
         <v>1.53230639</v>
       </c>
       <c r="H40" s="3">
@@ -2907,22 +2850,22 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
         <v>0</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
+      <c r="M40" s="14">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14">
         <v>0</v>
       </c>
       <c r="P40" s="9">
